--- a/master_thesis_IID-Framework/thesis_artefact_IID-framework_case_study.xlsx
+++ b/master_thesis_IID-Framework/thesis_artefact_IID-framework_case_study.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f_obersteiner\Desktop\master_thesis_IID-Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B55391-664A-4617-BAA3-0A726CA78080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A577C63-8F7D-490A-B712-2B72C10EB92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{29F236B6-845E-4098-9933-AD023C8E1566}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{29F236B6-845E-4098-9933-AD023C8E1566}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Overview_procedure" sheetId="10" r:id="rId1"/>
     <sheet name="1_Determine_PM_maturity_level" sheetId="7" r:id="rId2"/>
-    <sheet name="2_Cheat sheet" sheetId="5" r:id="rId3"/>
-    <sheet name="2.1_Sheet 1_PM" sheetId="13" r:id="rId4"/>
-    <sheet name="1.1_Explanation_MFMM" sheetId="12" r:id="rId5"/>
+    <sheet name="1.1_Explanation_MFMM" sheetId="12" r:id="rId3"/>
+    <sheet name="2_Cheat sheet" sheetId="5" r:id="rId4"/>
+    <sheet name="2.1_Sheet 1_PM" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7252,6 +7252,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7303,6 +7343,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7354,146 +7499,101 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7504,10 +7604,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7516,8 +7634,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7528,18 +7652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7558,119 +7670,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -7682,121 +7780,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8054,359 +8054,371 @@
           <a:avLst/>
           <a:gdLst>
             <a:gd name="connsiteX0" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX1" fmla="*/ 1254921 w 28270200"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX2" fmla="*/ 1661736 w 28270200"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX3" fmla="*/ 2351253 w 28270200"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX4" fmla="*/ 3606174 w 28270200"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX5" fmla="*/ 4012989 w 28270200"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX6" fmla="*/ 5267910 w 28270200"/>
-            <a:gd name="connsiteY6" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX7" fmla="*/ 6522832 w 28270200"/>
-            <a:gd name="connsiteY7" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY7" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX8" fmla="*/ 7495051 w 28270200"/>
-            <a:gd name="connsiteY8" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY8" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX9" fmla="*/ 8467270 w 28270200"/>
-            <a:gd name="connsiteY9" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY9" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX10" fmla="*/ 8591383 w 28270200"/>
-            <a:gd name="connsiteY10" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY10" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX11" fmla="*/ 8715496 w 28270200"/>
-            <a:gd name="connsiteY11" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY11" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX12" fmla="*/ 8839609 w 28270200"/>
-            <a:gd name="connsiteY12" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY12" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX13" fmla="*/ 10094530 w 28270200"/>
-            <a:gd name="connsiteY13" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY13" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX14" fmla="*/ 10501345 w 28270200"/>
-            <a:gd name="connsiteY14" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY14" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX15" fmla="*/ 10342756 w 28270200"/>
-            <a:gd name="connsiteY15" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY15" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX16" fmla="*/ 11597677 w 28270200"/>
-            <a:gd name="connsiteY16" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY16" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX17" fmla="*/ 12287194 w 28270200"/>
-            <a:gd name="connsiteY17" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY17" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX18" fmla="*/ 12976711 w 28270200"/>
-            <a:gd name="connsiteY18" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY18" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX19" fmla="*/ 14231632 w 28270200"/>
-            <a:gd name="connsiteY19" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY19" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX20" fmla="*/ 14355745 w 28270200"/>
-            <a:gd name="connsiteY20" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY20" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX21" fmla="*/ 15610667 w 28270200"/>
-            <a:gd name="connsiteY21" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY21" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX22" fmla="*/ 15452078 w 28270200"/>
-            <a:gd name="connsiteY22" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY22" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX23" fmla="*/ 15576191 w 28270200"/>
-            <a:gd name="connsiteY23" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY23" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX24" fmla="*/ 15417602 w 28270200"/>
-            <a:gd name="connsiteY24" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY24" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX25" fmla="*/ 15824417 w 28270200"/>
-            <a:gd name="connsiteY25" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY25" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX26" fmla="*/ 17079338 w 28270200"/>
-            <a:gd name="connsiteY26" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY26" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX27" fmla="*/ 18051557 w 28270200"/>
-            <a:gd name="connsiteY27" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY27" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX28" fmla="*/ 18741074 w 28270200"/>
-            <a:gd name="connsiteY28" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY28" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX29" fmla="*/ 19995995 w 28270200"/>
-            <a:gd name="connsiteY29" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY29" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX30" fmla="*/ 20402810 w 28270200"/>
-            <a:gd name="connsiteY30" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY30" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX31" fmla="*/ 21092327 w 28270200"/>
-            <a:gd name="connsiteY31" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY31" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX32" fmla="*/ 21216440 w 28270200"/>
-            <a:gd name="connsiteY32" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY32" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX33" fmla="*/ 22188659 w 28270200"/>
-            <a:gd name="connsiteY33" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY33" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX34" fmla="*/ 22312772 w 28270200"/>
-            <a:gd name="connsiteY34" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY34" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX35" fmla="*/ 23002290 w 28270200"/>
-            <a:gd name="connsiteY35" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY35" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX36" fmla="*/ 23409105 w 28270200"/>
-            <a:gd name="connsiteY36" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY36" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX37" fmla="*/ 23815920 w 28270200"/>
-            <a:gd name="connsiteY37" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY37" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX38" fmla="*/ 24505437 w 28270200"/>
-            <a:gd name="connsiteY38" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY38" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX39" fmla="*/ 24912252 w 28270200"/>
-            <a:gd name="connsiteY39" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY39" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX40" fmla="*/ 25036365 w 28270200"/>
-            <a:gd name="connsiteY40" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY40" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX41" fmla="*/ 24877776 w 28270200"/>
-            <a:gd name="connsiteY41" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY41" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX42" fmla="*/ 25849995 w 28270200"/>
-            <a:gd name="connsiteY42" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY42" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX43" fmla="*/ 27104916 w 28270200"/>
-            <a:gd name="connsiteY43" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY43" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX44" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY44" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY44" fmla="*/ 0 h 23056850"/>
             <a:gd name="connsiteX45" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY45" fmla="*/ 48465 h 21463000"/>
+            <a:gd name="connsiteY45" fmla="*/ 6987 h 23056850"/>
             <a:gd name="connsiteX46" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY46" fmla="*/ 1170080 h 21463000"/>
+            <a:gd name="connsiteY46" fmla="*/ 1166816 h 23056850"/>
             <a:gd name="connsiteX47" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY47" fmla="*/ 2077065 h 21463000"/>
+            <a:gd name="connsiteY47" fmla="*/ 2096077 h 23056850"/>
             <a:gd name="connsiteX48" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY48" fmla="*/ 3198679 h 21463000"/>
+            <a:gd name="connsiteY48" fmla="*/ 3255907 h 23056850"/>
             <a:gd name="connsiteX49" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY49" fmla="*/ 4320294 h 21463000"/>
+            <a:gd name="connsiteY49" fmla="*/ 4415736 h 23056850"/>
             <a:gd name="connsiteX50" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY50" fmla="*/ 5227279 h 21463000"/>
+            <a:gd name="connsiteY50" fmla="*/ 5344997 h 23056850"/>
             <a:gd name="connsiteX51" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY51" fmla="*/ 6348894 h 21463000"/>
+            <a:gd name="connsiteY51" fmla="*/ 6504826 h 23056850"/>
             <a:gd name="connsiteX52" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY52" fmla="*/ 6397359 h 21463000"/>
+            <a:gd name="connsiteY52" fmla="*/ 6511813 h 23056850"/>
             <a:gd name="connsiteX53" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY53" fmla="*/ 6445824 h 21463000"/>
+            <a:gd name="connsiteY53" fmla="*/ 6518800 h 23056850"/>
             <a:gd name="connsiteX54" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY54" fmla="*/ 7567438 h 21463000"/>
+            <a:gd name="connsiteY54" fmla="*/ 7678630 h 23056850"/>
             <a:gd name="connsiteX55" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY55" fmla="*/ 8689053 h 21463000"/>
+            <a:gd name="connsiteY55" fmla="*/ 8838459 h 23056850"/>
             <a:gd name="connsiteX56" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY56" fmla="*/ 9596038 h 21463000"/>
+            <a:gd name="connsiteY56" fmla="*/ 9767720 h 23056850"/>
             <a:gd name="connsiteX57" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY57" fmla="*/ 10503023 h 21463000"/>
+            <a:gd name="connsiteY57" fmla="*/ 10696981 h 23056850"/>
             <a:gd name="connsiteX58" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY58" fmla="*/ 10980748 h 21463000"/>
+            <a:gd name="connsiteY58" fmla="*/ 11165105 h 23056850"/>
             <a:gd name="connsiteX59" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY59" fmla="*/ 11887733 h 21463000"/>
+            <a:gd name="connsiteY59" fmla="*/ 12094366 h 23056850"/>
             <a:gd name="connsiteX60" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY60" fmla="*/ 12365457 h 21463000"/>
+            <a:gd name="connsiteY60" fmla="*/ 12562490 h 23056850"/>
             <a:gd name="connsiteX61" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY61" fmla="*/ 12628552 h 21463000"/>
+            <a:gd name="connsiteY61" fmla="*/ 12800045 h 23056850"/>
             <a:gd name="connsiteX62" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY62" fmla="*/ 13106277 h 21463000"/>
+            <a:gd name="connsiteY62" fmla="*/ 13268169 h 23056850"/>
             <a:gd name="connsiteX63" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY63" fmla="*/ 13154742 h 21463000"/>
+            <a:gd name="connsiteY63" fmla="*/ 13275156 h 23056850"/>
             <a:gd name="connsiteX64" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY64" fmla="*/ 14061727 h 21463000"/>
+            <a:gd name="connsiteY64" fmla="*/ 14204417 h 23056850"/>
             <a:gd name="connsiteX65" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY65" fmla="*/ 14110192 h 21463000"/>
+            <a:gd name="connsiteY65" fmla="*/ 14211404 h 23056850"/>
             <a:gd name="connsiteX66" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY66" fmla="*/ 14802546 h 21463000"/>
+            <a:gd name="connsiteY66" fmla="*/ 14910096 h 23056850"/>
             <a:gd name="connsiteX67" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY67" fmla="*/ 14851011 h 21463000"/>
+            <a:gd name="connsiteY67" fmla="*/ 14917083 h 23056850"/>
             <a:gd name="connsiteX68" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY68" fmla="*/ 14899476 h 21463000"/>
+            <a:gd name="connsiteY68" fmla="*/ 14924070 h 23056850"/>
             <a:gd name="connsiteX69" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY69" fmla="*/ 15806461 h 21463000"/>
+            <a:gd name="connsiteY69" fmla="*/ 15853331 h 23056850"/>
             <a:gd name="connsiteX70" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY70" fmla="*/ 16284186 h 21463000"/>
+            <a:gd name="connsiteY70" fmla="*/ 16321455 h 23056850"/>
             <a:gd name="connsiteX71" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY71" fmla="*/ 16976541 h 21463000"/>
+            <a:gd name="connsiteY71" fmla="*/ 17020147 h 23056850"/>
             <a:gd name="connsiteX72" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY72" fmla="*/ 17454265 h 21463000"/>
+            <a:gd name="connsiteY72" fmla="*/ 17488271 h 23056850"/>
             <a:gd name="connsiteX73" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY73" fmla="*/ 17931990 h 21463000"/>
+            <a:gd name="connsiteY73" fmla="*/ 17956395 h 23056850"/>
             <a:gd name="connsiteX74" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY74" fmla="*/ 18409715 h 21463000"/>
+            <a:gd name="connsiteY74" fmla="*/ 18424519 h 23056850"/>
             <a:gd name="connsiteX75" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY75" fmla="*/ 19316700 h 21463000"/>
+            <a:gd name="connsiteY75" fmla="*/ 19353780 h 23056850"/>
             <a:gd name="connsiteX76" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY76" fmla="*/ 19579795 h 21463000"/>
+            <a:gd name="connsiteY76" fmla="*/ 19591336 h 23056850"/>
             <a:gd name="connsiteX77" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY77" fmla="*/ 20486780 h 21463000"/>
+            <a:gd name="connsiteY77" fmla="*/ 20520596 h 23056850"/>
             <a:gd name="connsiteX78" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY78" fmla="*/ 20535245 h 21463000"/>
+            <a:gd name="connsiteY78" fmla="*/ 20527583 h 23056850"/>
             <a:gd name="connsiteX79" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY79" fmla="*/ 20583709 h 21463000"/>
+            <a:gd name="connsiteY79" fmla="*/ 20534570 h 23056850"/>
             <a:gd name="connsiteX80" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY80" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX81" fmla="*/ 28428789 w 28270200"/>
-            <a:gd name="connsiteY81" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX82" fmla="*/ 28021974 w 28270200"/>
-            <a:gd name="connsiteY82" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX83" fmla="*/ 27897861 w 28270200"/>
-            <a:gd name="connsiteY83" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX84" fmla="*/ 28056450 w 28270200"/>
-            <a:gd name="connsiteY84" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX85" fmla="*/ 27366933 w 28270200"/>
-            <a:gd name="connsiteY85" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX86" fmla="*/ 26112012 w 28270200"/>
-            <a:gd name="connsiteY86" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX87" fmla="*/ 26270600 w 28270200"/>
-            <a:gd name="connsiteY87" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX88" fmla="*/ 25298381 w 28270200"/>
-            <a:gd name="connsiteY88" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX89" fmla="*/ 24043460 w 28270200"/>
-            <a:gd name="connsiteY89" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX90" fmla="*/ 23919347 w 28270200"/>
-            <a:gd name="connsiteY90" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX91" fmla="*/ 24077936 w 28270200"/>
-            <a:gd name="connsiteY91" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX92" fmla="*/ 23388419 w 28270200"/>
-            <a:gd name="connsiteY92" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX93" fmla="*/ 23264306 w 28270200"/>
-            <a:gd name="connsiteY93" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX94" fmla="*/ 22009385 w 28270200"/>
-            <a:gd name="connsiteY94" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX95" fmla="*/ 21885272 w 28270200"/>
-            <a:gd name="connsiteY95" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX96" fmla="*/ 21478457 w 28270200"/>
-            <a:gd name="connsiteY96" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX97" fmla="*/ 21637046 w 28270200"/>
-            <a:gd name="connsiteY97" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX98" fmla="*/ 21795635 w 28270200"/>
-            <a:gd name="connsiteY98" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX99" fmla="*/ 21671522 w 28270200"/>
-            <a:gd name="connsiteY99" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX100" fmla="*/ 21830111 w 28270200"/>
-            <a:gd name="connsiteY100" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX101" fmla="*/ 21140593 w 28270200"/>
-            <a:gd name="connsiteY101" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX102" fmla="*/ 20451076 w 28270200"/>
-            <a:gd name="connsiteY102" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX103" fmla="*/ 20326963 w 28270200"/>
-            <a:gd name="connsiteY103" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX104" fmla="*/ 19920148 w 28270200"/>
-            <a:gd name="connsiteY104" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX105" fmla="*/ 19796035 w 28270200"/>
-            <a:gd name="connsiteY105" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX106" fmla="*/ 19389220 w 28270200"/>
-            <a:gd name="connsiteY106" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX107" fmla="*/ 18134299 w 28270200"/>
-            <a:gd name="connsiteY107" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX108" fmla="*/ 17162080 w 28270200"/>
-            <a:gd name="connsiteY108" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX109" fmla="*/ 17037967 w 28270200"/>
-            <a:gd name="connsiteY109" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX110" fmla="*/ 17196556 w 28270200"/>
-            <a:gd name="connsiteY110" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX111" fmla="*/ 17355145 w 28270200"/>
-            <a:gd name="connsiteY111" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX112" fmla="*/ 17513734 w 28270200"/>
-            <a:gd name="connsiteY112" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX113" fmla="*/ 17389621 w 28270200"/>
-            <a:gd name="connsiteY113" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX114" fmla="*/ 16417402 w 28270200"/>
-            <a:gd name="connsiteY114" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX115" fmla="*/ 15445182 w 28270200"/>
-            <a:gd name="connsiteY115" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX116" fmla="*/ 15603771 w 28270200"/>
-            <a:gd name="connsiteY116" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX117" fmla="*/ 14914254 w 28270200"/>
-            <a:gd name="connsiteY117" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX118" fmla="*/ 14224737 w 28270200"/>
-            <a:gd name="connsiteY118" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX119" fmla="*/ 13535220 w 28270200"/>
-            <a:gd name="connsiteY119" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX120" fmla="*/ 12845703 w 28270200"/>
-            <a:gd name="connsiteY120" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX121" fmla="*/ 12721590 w 28270200"/>
-            <a:gd name="connsiteY121" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX122" fmla="*/ 12880179 w 28270200"/>
-            <a:gd name="connsiteY122" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX123" fmla="*/ 13038768 w 28270200"/>
-            <a:gd name="connsiteY123" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX124" fmla="*/ 12914655 w 28270200"/>
-            <a:gd name="connsiteY124" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX125" fmla="*/ 11942436 w 28270200"/>
-            <a:gd name="connsiteY125" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX126" fmla="*/ 12101025 w 28270200"/>
-            <a:gd name="connsiteY126" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX127" fmla="*/ 11976912 w 28270200"/>
-            <a:gd name="connsiteY127" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX128" fmla="*/ 12135500 w 28270200"/>
-            <a:gd name="connsiteY128" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX129" fmla="*/ 11163281 w 28270200"/>
-            <a:gd name="connsiteY129" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX130" fmla="*/ 10191062 w 28270200"/>
-            <a:gd name="connsiteY130" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX131" fmla="*/ 8936141 w 28270200"/>
-            <a:gd name="connsiteY131" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX132" fmla="*/ 7681220 w 28270200"/>
-            <a:gd name="connsiteY132" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX133" fmla="*/ 6991703 w 28270200"/>
-            <a:gd name="connsiteY133" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX134" fmla="*/ 6019484 w 28270200"/>
-            <a:gd name="connsiteY134" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX135" fmla="*/ 5047265 w 28270200"/>
-            <a:gd name="connsiteY135" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX136" fmla="*/ 4923152 w 28270200"/>
-            <a:gd name="connsiteY136" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX137" fmla="*/ 4233635 w 28270200"/>
-            <a:gd name="connsiteY137" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX138" fmla="*/ 3544118 w 28270200"/>
-            <a:gd name="connsiteY138" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX139" fmla="*/ 2289197 w 28270200"/>
-            <a:gd name="connsiteY139" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX140" fmla="*/ 2165084 w 28270200"/>
-            <a:gd name="connsiteY140" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX141" fmla="*/ 1758269 w 28270200"/>
-            <a:gd name="connsiteY141" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX142" fmla="*/ 1068751 w 28270200"/>
-            <a:gd name="connsiteY142" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX143" fmla="*/ 1227340 w 28270200"/>
-            <a:gd name="connsiteY143" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX144" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY144" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX145" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY145" fmla="*/ 20770645 h 21463000"/>
-            <a:gd name="connsiteX146" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY146" fmla="*/ 19649030 h 21463000"/>
-            <a:gd name="connsiteX147" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY147" fmla="*/ 19600565 h 21463000"/>
+            <a:gd name="connsiteY80" fmla="*/ 21233263 h 23056850"/>
+            <a:gd name="connsiteX81" fmla="*/ 28270200 w 28270200"/>
+            <a:gd name="connsiteY81" fmla="*/ 21240250 h 23056850"/>
+            <a:gd name="connsiteX82" fmla="*/ 28270200 w 28270200"/>
+            <a:gd name="connsiteY82" fmla="*/ 21247237 h 23056850"/>
+            <a:gd name="connsiteX83" fmla="*/ 28270200 w 28270200"/>
+            <a:gd name="connsiteY83" fmla="*/ 21254224 h 23056850"/>
+            <a:gd name="connsiteX84" fmla="*/ 28270200 w 28270200"/>
+            <a:gd name="connsiteY84" fmla="*/ 22414053 h 23056850"/>
+            <a:gd name="connsiteX85" fmla="*/ 28270200 w 28270200"/>
+            <a:gd name="connsiteY85" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX86" fmla="*/ 27580683 w 28270200"/>
+            <a:gd name="connsiteY86" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX87" fmla="*/ 27739272 w 28270200"/>
+            <a:gd name="connsiteY87" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX88" fmla="*/ 26767053 w 28270200"/>
+            <a:gd name="connsiteY88" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX89" fmla="*/ 25512132 w 28270200"/>
+            <a:gd name="connsiteY89" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX90" fmla="*/ 25388019 w 28270200"/>
+            <a:gd name="connsiteY90" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX91" fmla="*/ 25546608 w 28270200"/>
+            <a:gd name="connsiteY91" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX92" fmla="*/ 24857090 w 28270200"/>
+            <a:gd name="connsiteY92" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX93" fmla="*/ 24732977 w 28270200"/>
+            <a:gd name="connsiteY93" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX94" fmla="*/ 23478056 w 28270200"/>
+            <a:gd name="connsiteY94" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX95" fmla="*/ 23353943 w 28270200"/>
+            <a:gd name="connsiteY95" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX96" fmla="*/ 22947128 w 28270200"/>
+            <a:gd name="connsiteY96" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX97" fmla="*/ 23105717 w 28270200"/>
+            <a:gd name="connsiteY97" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX98" fmla="*/ 23264306 w 28270200"/>
+            <a:gd name="connsiteY98" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX99" fmla="*/ 23140193 w 28270200"/>
+            <a:gd name="connsiteY99" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX100" fmla="*/ 23298782 w 28270200"/>
+            <a:gd name="connsiteY100" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX101" fmla="*/ 22609265 w 28270200"/>
+            <a:gd name="connsiteY101" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX102" fmla="*/ 21919748 w 28270200"/>
+            <a:gd name="connsiteY102" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX103" fmla="*/ 21795635 w 28270200"/>
+            <a:gd name="connsiteY103" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX104" fmla="*/ 21388820 w 28270200"/>
+            <a:gd name="connsiteY104" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX105" fmla="*/ 21264707 w 28270200"/>
+            <a:gd name="connsiteY105" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX106" fmla="*/ 20857891 w 28270200"/>
+            <a:gd name="connsiteY106" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX107" fmla="*/ 19602970 w 28270200"/>
+            <a:gd name="connsiteY107" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX108" fmla="*/ 18630751 w 28270200"/>
+            <a:gd name="connsiteY108" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX109" fmla="*/ 18506638 w 28270200"/>
+            <a:gd name="connsiteY109" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX110" fmla="*/ 18665227 w 28270200"/>
+            <a:gd name="connsiteY110" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX111" fmla="*/ 18823816 w 28270200"/>
+            <a:gd name="connsiteY111" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX112" fmla="*/ 18982405 w 28270200"/>
+            <a:gd name="connsiteY112" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX113" fmla="*/ 18858292 w 28270200"/>
+            <a:gd name="connsiteY113" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX114" fmla="*/ 17886073 w 28270200"/>
+            <a:gd name="connsiteY114" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX115" fmla="*/ 16913854 w 28270200"/>
+            <a:gd name="connsiteY115" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX116" fmla="*/ 17072443 w 28270200"/>
+            <a:gd name="connsiteY116" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX117" fmla="*/ 16382926 w 28270200"/>
+            <a:gd name="connsiteY117" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX118" fmla="*/ 15693409 w 28270200"/>
+            <a:gd name="connsiteY118" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX119" fmla="*/ 15003892 w 28270200"/>
+            <a:gd name="connsiteY119" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX120" fmla="*/ 14314374 w 28270200"/>
+            <a:gd name="connsiteY120" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX121" fmla="*/ 14190261 w 28270200"/>
+            <a:gd name="connsiteY121" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX122" fmla="*/ 14348850 w 28270200"/>
+            <a:gd name="connsiteY122" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX123" fmla="*/ 14507439 w 28270200"/>
+            <a:gd name="connsiteY123" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX124" fmla="*/ 14383326 w 28270200"/>
+            <a:gd name="connsiteY124" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX125" fmla="*/ 13411107 w 28270200"/>
+            <a:gd name="connsiteY125" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX126" fmla="*/ 13569696 w 28270200"/>
+            <a:gd name="connsiteY126" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX127" fmla="*/ 13445583 w 28270200"/>
+            <a:gd name="connsiteY127" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX128" fmla="*/ 13604172 w 28270200"/>
+            <a:gd name="connsiteY128" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX129" fmla="*/ 12631953 w 28270200"/>
+            <a:gd name="connsiteY129" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX130" fmla="*/ 11659734 w 28270200"/>
+            <a:gd name="connsiteY130" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX131" fmla="*/ 10404813 w 28270200"/>
+            <a:gd name="connsiteY131" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX132" fmla="*/ 9149892 w 28270200"/>
+            <a:gd name="connsiteY132" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX133" fmla="*/ 8460374 w 28270200"/>
+            <a:gd name="connsiteY133" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX134" fmla="*/ 7488155 w 28270200"/>
+            <a:gd name="connsiteY134" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX135" fmla="*/ 6515936 w 28270200"/>
+            <a:gd name="connsiteY135" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX136" fmla="*/ 6391823 w 28270200"/>
+            <a:gd name="connsiteY136" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX137" fmla="*/ 5702306 w 28270200"/>
+            <a:gd name="connsiteY137" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX138" fmla="*/ 5012789 w 28270200"/>
+            <a:gd name="connsiteY138" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX139" fmla="*/ 3757868 w 28270200"/>
+            <a:gd name="connsiteY139" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX140" fmla="*/ 3633755 w 28270200"/>
+            <a:gd name="connsiteY140" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX141" fmla="*/ 3226940 w 28270200"/>
+            <a:gd name="connsiteY141" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX142" fmla="*/ 2537423 w 28270200"/>
+            <a:gd name="connsiteY142" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX143" fmla="*/ 2696012 w 28270200"/>
+            <a:gd name="connsiteY143" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX144" fmla="*/ 2006495 w 28270200"/>
+            <a:gd name="connsiteY144" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX145" fmla="*/ 1316978 w 28270200"/>
+            <a:gd name="connsiteY145" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX146" fmla="*/ 1192865 w 28270200"/>
+            <a:gd name="connsiteY146" fmla="*/ 23056850 h 23056850"/>
+            <a:gd name="connsiteX147" fmla="*/ 1068751 w 28270200"/>
+            <a:gd name="connsiteY147" fmla="*/ 23056850 h 23056850"/>
             <a:gd name="connsiteX148" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY148" fmla="*/ 18478951 h 21463000"/>
+            <a:gd name="connsiteY148" fmla="*/ 23056850 h 23056850"/>
             <a:gd name="connsiteX149" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY149" fmla="*/ 17786596 h 21463000"/>
+            <a:gd name="connsiteY149" fmla="*/ 22127589 h 23056850"/>
             <a:gd name="connsiteX150" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY150" fmla="*/ 17738131 h 21463000"/>
+            <a:gd name="connsiteY150" fmla="*/ 22120602 h 23056850"/>
             <a:gd name="connsiteX151" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY151" fmla="*/ 17475036 h 21463000"/>
+            <a:gd name="connsiteY151" fmla="*/ 21883047 h 23056850"/>
             <a:gd name="connsiteX152" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY152" fmla="*/ 16353421 h 21463000"/>
+            <a:gd name="connsiteY152" fmla="*/ 20723217 h 23056850"/>
             <a:gd name="connsiteX153" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY153" fmla="*/ 15446436 h 21463000"/>
+            <a:gd name="connsiteY153" fmla="*/ 19793956 h 23056850"/>
             <a:gd name="connsiteX154" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY154" fmla="*/ 15183342 h 21463000"/>
+            <a:gd name="connsiteY154" fmla="*/ 19556401 h 23056850"/>
             <a:gd name="connsiteX155" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY155" fmla="*/ 14490987 h 21463000"/>
+            <a:gd name="connsiteY155" fmla="*/ 18857709 h 23056850"/>
             <a:gd name="connsiteX156" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY156" fmla="*/ 13369372 h 21463000"/>
+            <a:gd name="connsiteY156" fmla="*/ 17697879 h 23056850"/>
             <a:gd name="connsiteX157" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY157" fmla="*/ 13106277 h 21463000"/>
+            <a:gd name="connsiteY157" fmla="*/ 17460324 h 23056850"/>
             <a:gd name="connsiteX158" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY158" fmla="*/ 12199292 h 21463000"/>
+            <a:gd name="connsiteY158" fmla="*/ 16531063 h 23056850"/>
             <a:gd name="connsiteX159" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY159" fmla="*/ 11936197 h 21463000"/>
+            <a:gd name="connsiteY159" fmla="*/ 16293507 h 23056850"/>
             <a:gd name="connsiteX160" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY160" fmla="*/ 10814583 h 21463000"/>
+            <a:gd name="connsiteY160" fmla="*/ 15133678 h 23056850"/>
             <a:gd name="connsiteX161" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY161" fmla="*/ 10122228 h 21463000"/>
+            <a:gd name="connsiteY161" fmla="*/ 14434985 h 23056850"/>
             <a:gd name="connsiteX162" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY162" fmla="*/ 10073763 h 21463000"/>
+            <a:gd name="connsiteY162" fmla="*/ 14427999 h 23056850"/>
             <a:gd name="connsiteX163" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY163" fmla="*/ 9381408 h 21463000"/>
+            <a:gd name="connsiteY163" fmla="*/ 13729306 h 23056850"/>
             <a:gd name="connsiteX164" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY164" fmla="*/ 8903683 h 21463000"/>
+            <a:gd name="connsiteY164" fmla="*/ 13261182 h 23056850"/>
             <a:gd name="connsiteX165" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY165" fmla="*/ 7782068 h 21463000"/>
+            <a:gd name="connsiteY165" fmla="*/ 12101353 h 23056850"/>
             <a:gd name="connsiteX166" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY166" fmla="*/ 6875084 h 21463000"/>
+            <a:gd name="connsiteY166" fmla="*/ 11172092 h 23056850"/>
             <a:gd name="connsiteX167" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY167" fmla="*/ 6182729 h 21463000"/>
+            <a:gd name="connsiteY167" fmla="*/ 10473399 h 23056850"/>
             <a:gd name="connsiteX168" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY168" fmla="*/ 6134264 h 21463000"/>
+            <a:gd name="connsiteY168" fmla="*/ 10466413 h 23056850"/>
             <a:gd name="connsiteX169" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY169" fmla="*/ 5012649 h 21463000"/>
+            <a:gd name="connsiteY169" fmla="*/ 9306583 h 23056850"/>
             <a:gd name="connsiteX170" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY170" fmla="*/ 4320294 h 21463000"/>
+            <a:gd name="connsiteY170" fmla="*/ 8607891 h 23056850"/>
             <a:gd name="connsiteX171" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY171" fmla="*/ 3627939 h 21463000"/>
+            <a:gd name="connsiteY171" fmla="*/ 7909198 h 23056850"/>
             <a:gd name="connsiteX172" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY172" fmla="*/ 3364845 h 21463000"/>
+            <a:gd name="connsiteY172" fmla="*/ 7671643 h 23056850"/>
             <a:gd name="connsiteX173" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY173" fmla="*/ 3316380 h 21463000"/>
+            <a:gd name="connsiteY173" fmla="*/ 7664656 h 23056850"/>
             <a:gd name="connsiteX174" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY174" fmla="*/ 2194765 h 21463000"/>
+            <a:gd name="connsiteY174" fmla="*/ 6504826 h 23056850"/>
             <a:gd name="connsiteX175" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY175" fmla="*/ 1287780 h 21463000"/>
+            <a:gd name="connsiteY175" fmla="*/ 5575566 h 23056850"/>
             <a:gd name="connsiteX176" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY176" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteY176" fmla="*/ 4646305 h 23056850"/>
+            <a:gd name="connsiteX177" fmla="*/ 0 w 28270200"/>
+            <a:gd name="connsiteY177" fmla="*/ 3486475 h 23056850"/>
+            <a:gd name="connsiteX178" fmla="*/ 0 w 28270200"/>
+            <a:gd name="connsiteY178" fmla="*/ 3018351 h 23056850"/>
+            <a:gd name="connsiteX179" fmla="*/ 0 w 28270200"/>
+            <a:gd name="connsiteY179" fmla="*/ 1858522 h 23056850"/>
+            <a:gd name="connsiteX180" fmla="*/ 0 w 28270200"/>
+            <a:gd name="connsiteY180" fmla="*/ 1851535 h 23056850"/>
+            <a:gd name="connsiteX181" fmla="*/ 0 w 28270200"/>
+            <a:gd name="connsiteY181" fmla="*/ 1152843 h 23056850"/>
+            <a:gd name="connsiteX182" fmla="*/ 0 w 28270200"/>
+            <a:gd name="connsiteY182" fmla="*/ 0 h 23056850"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -8941,10 +8953,28 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX176" y="connsiteY176"/>
             </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX177" y="connsiteY177"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX178" y="connsiteY178"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX179" y="connsiteY179"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX180" y="connsiteY180"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX181" y="connsiteY181"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX182" y="connsiteY182"/>
+            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="28270200" h="21463000" extrusionOk="0">
+            <a:path w="28270200" h="23056850" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
@@ -9169,663 +9199,693 @@
                 <a:pt x="28270200" y="0"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="28269240" y="18338"/>
-                <a:pt x="28272044" y="33413"/>
-                <a:pt x="28270200" y="48465"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28268356" y="63517"/>
-                <a:pt x="28321671" y="924536"/>
-                <a:pt x="28270200" y="1170080"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28218729" y="1415625"/>
-                <a:pt x="28295089" y="1772110"/>
-                <a:pt x="28270200" y="2077065"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28245311" y="2382020"/>
-                <a:pt x="28227739" y="2885068"/>
-                <a:pt x="28270200" y="3198679"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28312661" y="3512290"/>
-                <a:pt x="28214120" y="3807912"/>
-                <a:pt x="28270200" y="4320294"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28326280" y="4832677"/>
-                <a:pt x="28274175" y="4872256"/>
-                <a:pt x="28270200" y="5227279"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28266225" y="5582302"/>
-                <a:pt x="28251334" y="5965070"/>
-                <a:pt x="28270200" y="6348894"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28289066" y="6732718"/>
-                <a:pt x="28269789" y="6383249"/>
-                <a:pt x="28270200" y="6397359"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28270611" y="6411469"/>
-                <a:pt x="28271678" y="6435179"/>
-                <a:pt x="28270200" y="6445824"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28268722" y="6456470"/>
-                <a:pt x="28321382" y="7090377"/>
-                <a:pt x="28270200" y="7567438"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28219018" y="8044499"/>
-                <a:pt x="28309698" y="8371431"/>
-                <a:pt x="28270200" y="8689053"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28230702" y="9006675"/>
-                <a:pt x="28234385" y="9276893"/>
-                <a:pt x="28270200" y="9596038"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28306015" y="9915184"/>
-                <a:pt x="28306022" y="10218004"/>
-                <a:pt x="28270200" y="10503023"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28234378" y="10788042"/>
-                <a:pt x="28251464" y="10761358"/>
-                <a:pt x="28270200" y="10980748"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28288936" y="11200138"/>
-                <a:pt x="28266358" y="11443245"/>
-                <a:pt x="28270200" y="11887733"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28274042" y="12332222"/>
-                <a:pt x="28287339" y="12261161"/>
-                <a:pt x="28270200" y="12365457"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28253061" y="12469753"/>
-                <a:pt x="28267809" y="12552180"/>
-                <a:pt x="28270200" y="12628552"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28272591" y="12704924"/>
-                <a:pt x="28294045" y="12916698"/>
-                <a:pt x="28270200" y="13106277"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28246355" y="13295856"/>
-                <a:pt x="28271219" y="13143852"/>
-                <a:pt x="28270200" y="13154742"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269181" y="13165632"/>
-                <a:pt x="28275196" y="13630558"/>
-                <a:pt x="28270200" y="14061727"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28265204" y="14492896"/>
-                <a:pt x="28269028" y="14090424"/>
-                <a:pt x="28270200" y="14110192"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28271372" y="14129961"/>
-                <a:pt x="28279648" y="14470000"/>
-                <a:pt x="28270200" y="14802546"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28260752" y="15135092"/>
-                <a:pt x="28272553" y="14829237"/>
-                <a:pt x="28270200" y="14851011"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28267847" y="14872786"/>
-                <a:pt x="28271483" y="14882392"/>
-                <a:pt x="28270200" y="14899476"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28268917" y="14916560"/>
-                <a:pt x="28242011" y="15445015"/>
-                <a:pt x="28270200" y="15806461"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28298389" y="16167908"/>
-                <a:pt x="28254852" y="16121814"/>
-                <a:pt x="28270200" y="16284186"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28285548" y="16446558"/>
-                <a:pt x="28269557" y="16825131"/>
-                <a:pt x="28270200" y="16976541"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28270843" y="17127952"/>
-                <a:pt x="28258757" y="17326024"/>
-                <a:pt x="28270200" y="17454265"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28281643" y="17582506"/>
-                <a:pt x="28273526" y="17747926"/>
-                <a:pt x="28270200" y="17931990"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28266874" y="18116054"/>
-                <a:pt x="28283277" y="18253124"/>
-                <a:pt x="28270200" y="18409715"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28257123" y="18566307"/>
-                <a:pt x="28253368" y="18972169"/>
-                <a:pt x="28270200" y="19316700"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28287032" y="19661231"/>
-                <a:pt x="28266129" y="19510193"/>
-                <a:pt x="28270200" y="19579795"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28274271" y="19649398"/>
-                <a:pt x="28315281" y="20044542"/>
-                <a:pt x="28270200" y="20486780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28225119" y="20929018"/>
-                <a:pt x="28271023" y="20516307"/>
-                <a:pt x="28270200" y="20535245"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269377" y="20554184"/>
-                <a:pt x="28270665" y="20565049"/>
-                <a:pt x="28270200" y="20583709"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269735" y="20602369"/>
-                <a:pt x="28248140" y="21054488"/>
-                <a:pt x="28270200" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28303994" y="21459276"/>
-                <a:pt x="28370555" y="21470862"/>
-                <a:pt x="28428789" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28370555" y="21470862"/>
-                <a:pt x="28136357" y="21473463"/>
-                <a:pt x="28021974" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27907592" y="21452537"/>
-                <a:pt x="27955658" y="21459496"/>
-                <a:pt x="27897861" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27955658" y="21459496"/>
-                <a:pt x="27989880" y="21468684"/>
-                <a:pt x="28056450" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27989880" y="21468684"/>
-                <a:pt x="27689956" y="21470098"/>
-                <a:pt x="27366933" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27043910" y="21455902"/>
-                <a:pt x="26611295" y="21442656"/>
-                <a:pt x="26112012" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="26611295" y="21442656"/>
-                <a:pt x="26236434" y="21460759"/>
-                <a:pt x="26270600" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="26236434" y="21460759"/>
-                <a:pt x="25650419" y="21433667"/>
-                <a:pt x="25298381" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24946343" y="21492333"/>
-                <a:pt x="24627435" y="21415960"/>
-                <a:pt x="24043460" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23459485" y="21510040"/>
-                <a:pt x="23958860" y="21465113"/>
-                <a:pt x="23919347" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23958860" y="21465113"/>
-                <a:pt x="24019017" y="21460690"/>
-                <a:pt x="24077936" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24019017" y="21460690"/>
-                <a:pt x="23569112" y="21485572"/>
-                <a:pt x="23388419" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23207726" y="21440428"/>
-                <a:pt x="23301467" y="21457822"/>
-                <a:pt x="23264306" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23227145" y="21468178"/>
-                <a:pt x="22612719" y="21499273"/>
-                <a:pt x="22009385" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21406051" y="21426727"/>
-                <a:pt x="21944325" y="21463319"/>
-                <a:pt x="21885272" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21826219" y="21462681"/>
-                <a:pt x="21581864" y="21469270"/>
-                <a:pt x="21478457" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21581864" y="21469270"/>
-                <a:pt x="21598020" y="21467382"/>
-                <a:pt x="21637046" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21676072" y="21458618"/>
-                <a:pt x="21735729" y="21457549"/>
-                <a:pt x="21795635" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21735729" y="21457549"/>
-                <a:pt x="21697214" y="21457395"/>
-                <a:pt x="21671522" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21697214" y="21457395"/>
-                <a:pt x="21789314" y="21456793"/>
-                <a:pt x="21830111" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21789314" y="21456793"/>
-                <a:pt x="21362532" y="21478439"/>
-                <a:pt x="21140593" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20918654" y="21447561"/>
-                <a:pt x="20617774" y="21464366"/>
-                <a:pt x="20451076" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20284378" y="21461634"/>
-                <a:pt x="20388500" y="21461379"/>
-                <a:pt x="20326963" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20265426" y="21464621"/>
-                <a:pt x="20076958" y="21455080"/>
-                <a:pt x="19920148" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19763339" y="21470920"/>
-                <a:pt x="19836238" y="21468864"/>
-                <a:pt x="19796035" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19755832" y="21457136"/>
-                <a:pt x="19550278" y="21452942"/>
-                <a:pt x="19389220" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19228162" y="21473058"/>
-                <a:pt x="18726351" y="21514267"/>
-                <a:pt x="18134299" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17542247" y="21411733"/>
-                <a:pt x="17457738" y="21479174"/>
-                <a:pt x="17162080" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="16866422" y="21446826"/>
-                <a:pt x="17081665" y="21469111"/>
-                <a:pt x="17037967" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17081665" y="21469111"/>
-                <a:pt x="17131726" y="21461922"/>
-                <a:pt x="17196556" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17261386" y="21464078"/>
-                <a:pt x="17321772" y="21455236"/>
-                <a:pt x="17355145" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17388518" y="21470764"/>
-                <a:pt x="17444613" y="21468097"/>
-                <a:pt x="17513734" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17444613" y="21468097"/>
-                <a:pt x="17426346" y="21463187"/>
-                <a:pt x="17389621" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17352896" y="21462813"/>
-                <a:pt x="16859827" y="21451749"/>
-                <a:pt x="16417402" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15974977" y="21474251"/>
-                <a:pt x="15677835" y="21485430"/>
-                <a:pt x="15445182" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15677835" y="21485430"/>
-                <a:pt x="15567653" y="21463872"/>
-                <a:pt x="15603771" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15567653" y="21463872"/>
-                <a:pt x="15160065" y="21475019"/>
-                <a:pt x="14914254" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14668443" y="21450981"/>
-                <a:pt x="14441550" y="21491690"/>
-                <a:pt x="14224737" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14007924" y="21434310"/>
-                <a:pt x="13857288" y="21492722"/>
-                <a:pt x="13535220" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="13213152" y="21433278"/>
-                <a:pt x="13042078" y="21429987"/>
-                <a:pt x="12845703" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12649328" y="21496013"/>
-                <a:pt x="12748599" y="21464979"/>
-                <a:pt x="12721590" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12748599" y="21464979"/>
-                <a:pt x="12829579" y="21459499"/>
-                <a:pt x="12880179" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12930779" y="21466501"/>
-                <a:pt x="12985835" y="21466280"/>
-                <a:pt x="13038768" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12985835" y="21466280"/>
-                <a:pt x="12955951" y="21466371"/>
-                <a:pt x="12914655" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12873359" y="21459629"/>
-                <a:pt x="12301043" y="21510657"/>
-                <a:pt x="11942436" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12301043" y="21510657"/>
-                <a:pt x="12042502" y="21455664"/>
-                <a:pt x="12101025" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12042502" y="21455664"/>
-                <a:pt x="12026834" y="21465707"/>
-                <a:pt x="11976912" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12026834" y="21465707"/>
-                <a:pt x="12080400" y="21457580"/>
-                <a:pt x="12135500" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12080400" y="21457580"/>
-                <a:pt x="11439805" y="21477279"/>
-                <a:pt x="11163281" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="10886757" y="21448721"/>
-                <a:pt x="10477443" y="21427495"/>
-                <a:pt x="10191062" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="9904681" y="21498505"/>
-                <a:pt x="9424298" y="21442878"/>
-                <a:pt x="8936141" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8447984" y="21483122"/>
-                <a:pt x="8053417" y="21457099"/>
-                <a:pt x="7681220" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="7309023" y="21468901"/>
-                <a:pt x="7233011" y="21473402"/>
-                <a:pt x="6991703" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6750395" y="21452598"/>
-                <a:pt x="6270380" y="21445929"/>
-                <a:pt x="6019484" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5768588" y="21480071"/>
-                <a:pt x="5279366" y="21479163"/>
-                <a:pt x="5047265" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4815164" y="21446837"/>
-                <a:pt x="4959052" y="21457231"/>
-                <a:pt x="4923152" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4887252" y="21468769"/>
-                <a:pt x="4464953" y="21469258"/>
-                <a:pt x="4233635" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4002317" y="21456742"/>
-                <a:pt x="3701160" y="21472162"/>
-                <a:pt x="3544118" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3387076" y="21453838"/>
-                <a:pt x="2659922" y="21511476"/>
-                <a:pt x="2289197" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1918472" y="21414524"/>
-                <a:pt x="2200884" y="21462791"/>
-                <a:pt x="2165084" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2129284" y="21463209"/>
-                <a:pt x="1944741" y="21464859"/>
-                <a:pt x="1758269" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1571798" y="21461141"/>
-                <a:pt x="1302605" y="21433443"/>
-                <a:pt x="1068751" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1302605" y="21433443"/>
-                <a:pt x="1162560" y="21455346"/>
-                <a:pt x="1227340" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1162560" y="21455346"/>
-                <a:pt x="389440" y="21511737"/>
-                <a:pt x="0" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-30190" y="21123963"/>
-                <a:pt x="29061" y="20979313"/>
-                <a:pt x="0" y="20770645"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-29061" y="20561977"/>
-                <a:pt x="-13709" y="20100734"/>
-                <a:pt x="0" y="19649030"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="13709" y="19197327"/>
-                <a:pt x="2342" y="19620029"/>
-                <a:pt x="0" y="19600565"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-2342" y="19581101"/>
-                <a:pt x="12126" y="18737806"/>
-                <a:pt x="0" y="18478951"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-12126" y="18220096"/>
-                <a:pt x="26650" y="18015595"/>
-                <a:pt x="0" y="17786596"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-26650" y="17557597"/>
-                <a:pt x="-2010" y="17761816"/>
-                <a:pt x="0" y="17738131"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2010" y="17714447"/>
-                <a:pt x="9137" y="17571271"/>
-                <a:pt x="0" y="17475036"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-9137" y="17378801"/>
-                <a:pt x="55328" y="16653059"/>
-                <a:pt x="0" y="16353421"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-55328" y="16053783"/>
-                <a:pt x="-16206" y="15880262"/>
-                <a:pt x="0" y="15446436"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="16206" y="15012610"/>
-                <a:pt x="-5731" y="15307745"/>
-                <a:pt x="0" y="15183342"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5731" y="15058939"/>
-                <a:pt x="34285" y="14713910"/>
-                <a:pt x="0" y="14490987"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-34285" y="14268064"/>
-                <a:pt x="-49056" y="13918658"/>
-                <a:pt x="0" y="13369372"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="49056" y="12820086"/>
-                <a:pt x="5323" y="13211370"/>
-                <a:pt x="0" y="13106277"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-5323" y="13001185"/>
-                <a:pt x="-43504" y="12446791"/>
-                <a:pt x="0" y="12199292"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="43504" y="11951793"/>
-                <a:pt x="-8860" y="12053951"/>
-                <a:pt x="0" y="11936197"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8860" y="11818444"/>
-                <a:pt x="-2787" y="11241466"/>
-                <a:pt x="0" y="10814583"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2787" y="10387700"/>
-                <a:pt x="-28146" y="10322473"/>
-                <a:pt x="0" y="10122228"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28146" y="9921984"/>
-                <a:pt x="1281" y="10096522"/>
-                <a:pt x="0" y="10073763"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1281" y="10051004"/>
-                <a:pt x="-8221" y="9591664"/>
-                <a:pt x="0" y="9381408"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8221" y="9171152"/>
-                <a:pt x="18442" y="9068663"/>
-                <a:pt x="0" y="8903683"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-18442" y="8738703"/>
-                <a:pt x="39079" y="8120944"/>
-                <a:pt x="0" y="7782068"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-39079" y="7443193"/>
-                <a:pt x="-14402" y="7068954"/>
-                <a:pt x="0" y="6875084"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14402" y="6681214"/>
-                <a:pt x="27165" y="6494688"/>
-                <a:pt x="0" y="6182729"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-27165" y="5870770"/>
-                <a:pt x="-1415" y="6157080"/>
-                <a:pt x="0" y="6134264"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1415" y="6111448"/>
-                <a:pt x="35588" y="5452053"/>
-                <a:pt x="0" y="5012649"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-35588" y="4573245"/>
-                <a:pt x="-4235" y="4656203"/>
-                <a:pt x="0" y="4320294"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4235" y="3984386"/>
-                <a:pt x="1453" y="3853519"/>
-                <a:pt x="0" y="3627939"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1453" y="3402359"/>
-                <a:pt x="-12685" y="3417636"/>
-                <a:pt x="0" y="3364845"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12685" y="3312054"/>
-                <a:pt x="1873" y="3340555"/>
-                <a:pt x="0" y="3316380"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1873" y="3292206"/>
-                <a:pt x="-39473" y="2664292"/>
-                <a:pt x="0" y="2194765"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="39473" y="1725238"/>
-                <a:pt x="41640" y="1498778"/>
-                <a:pt x="0" y="1287780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-41640" y="1076783"/>
-                <a:pt x="-18161" y="464420"/>
+                <a:pt x="28269904" y="3015"/>
+                <a:pt x="28270545" y="4984"/>
+                <a:pt x="28270200" y="6987"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28269855" y="8990"/>
+                <a:pt x="28326718" y="795455"/>
+                <a:pt x="28270200" y="1166816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28213682" y="1538177"/>
+                <a:pt x="28260888" y="1799917"/>
+                <a:pt x="28270200" y="2096077"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28279512" y="2392237"/>
+                <a:pt x="28243576" y="2937074"/>
+                <a:pt x="28270200" y="3255907"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28296825" y="3574740"/>
+                <a:pt x="28245147" y="4033257"/>
+                <a:pt x="28270200" y="4415736"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28295253" y="4798215"/>
+                <a:pt x="28244475" y="5027088"/>
+                <a:pt x="28270200" y="5344997"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28295925" y="5662906"/>
+                <a:pt x="28213540" y="6008380"/>
+                <a:pt x="28270200" y="6504826"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28326860" y="7001272"/>
+                <a:pt x="28270530" y="6509344"/>
+                <a:pt x="28270200" y="6511813"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28269870" y="6514282"/>
+                <a:pt x="28270009" y="6517200"/>
+                <a:pt x="28270200" y="6518800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270391" y="6520400"/>
+                <a:pt x="28245804" y="7356454"/>
+                <a:pt x="28270200" y="7678630"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28294597" y="8000806"/>
+                <a:pt x="28268073" y="8437910"/>
+                <a:pt x="28270200" y="8838459"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28272327" y="9239008"/>
+                <a:pt x="28227526" y="9344227"/>
+                <a:pt x="28270200" y="9767720"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28312874" y="10191213"/>
+                <a:pt x="28283609" y="10313909"/>
+                <a:pt x="28270200" y="10696981"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28256791" y="11080053"/>
+                <a:pt x="28262943" y="10961827"/>
+                <a:pt x="28270200" y="11165105"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28277457" y="11368383"/>
+                <a:pt x="28231916" y="11841006"/>
+                <a:pt x="28270200" y="12094366"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28308484" y="12347726"/>
+                <a:pt x="28260613" y="12395146"/>
+                <a:pt x="28270200" y="12562490"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28279787" y="12729834"/>
+                <a:pt x="28263194" y="12728694"/>
+                <a:pt x="28270200" y="12800045"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28277206" y="12871397"/>
+                <a:pt x="28291071" y="13146418"/>
+                <a:pt x="28270200" y="13268169"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28249329" y="13389920"/>
+                <a:pt x="28270161" y="13273553"/>
+                <a:pt x="28270200" y="13275156"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270239" y="13276759"/>
+                <a:pt x="28311856" y="13938943"/>
+                <a:pt x="28270200" y="14204417"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28228544" y="14469891"/>
+                <a:pt x="28269919" y="14208744"/>
+                <a:pt x="28270200" y="14211404"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270481" y="14214064"/>
+                <a:pt x="28284398" y="14615876"/>
+                <a:pt x="28270200" y="14910096"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28256002" y="15204316"/>
+                <a:pt x="28270484" y="14914623"/>
+                <a:pt x="28270200" y="14917083"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28269916" y="14919543"/>
+                <a:pt x="28270449" y="14920764"/>
+                <a:pt x="28270200" y="14924070"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28269951" y="14927376"/>
+                <a:pt x="28255619" y="15483110"/>
+                <a:pt x="28270200" y="15853331"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28284781" y="16223552"/>
+                <a:pt x="28266788" y="16186861"/>
+                <a:pt x="28270200" y="16321455"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28273612" y="16456049"/>
+                <a:pt x="28268402" y="16697493"/>
+                <a:pt x="28270200" y="17020147"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28271998" y="17342801"/>
+                <a:pt x="28276199" y="17304796"/>
+                <a:pt x="28270200" y="17488271"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28264201" y="17671746"/>
+                <a:pt x="28267570" y="17758131"/>
+                <a:pt x="28270200" y="17956395"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28272830" y="18154659"/>
+                <a:pt x="28288261" y="18285434"/>
+                <a:pt x="28270200" y="18424519"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28252139" y="18563604"/>
+                <a:pt x="28273891" y="19159680"/>
+                <a:pt x="28270200" y="19353780"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28266509" y="19547880"/>
+                <a:pt x="28261278" y="19478082"/>
+                <a:pt x="28270200" y="19591336"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28279122" y="19704590"/>
+                <a:pt x="28289156" y="20320271"/>
+                <a:pt x="28270200" y="20520596"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28251244" y="20720921"/>
+                <a:pt x="28270302" y="20524792"/>
+                <a:pt x="28270200" y="20527583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270098" y="20530374"/>
+                <a:pt x="28270195" y="20531406"/>
+                <a:pt x="28270200" y="20534570"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270205" y="20537734"/>
+                <a:pt x="28237516" y="20986716"/>
+                <a:pt x="28270200" y="21233263"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28302884" y="21479810"/>
+                <a:pt x="28269869" y="21236869"/>
+                <a:pt x="28270200" y="21240250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270531" y="21243631"/>
+                <a:pt x="28270146" y="21244494"/>
+                <a:pt x="28270200" y="21247237"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270254" y="21249980"/>
+                <a:pt x="28270110" y="21251792"/>
+                <a:pt x="28270200" y="21254224"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28270290" y="21256656"/>
+                <a:pt x="28256601" y="21883123"/>
+                <a:pt x="28270200" y="22414053"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="28283799" y="22944983"/>
+                <a:pt x="28251824" y="22881405"/>
+                <a:pt x="28270200" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27980482" y="23073491"/>
+                <a:pt x="27737545" y="23086673"/>
+                <a:pt x="27580683" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27737545" y="23086673"/>
+                <a:pt x="27686505" y="23051354"/>
+                <a:pt x="27739272" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27686505" y="23051354"/>
+                <a:pt x="27119091" y="23027517"/>
+                <a:pt x="26767053" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="26415015" y="23086183"/>
+                <a:pt x="26096107" y="23009810"/>
+                <a:pt x="25512132" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24928157" y="23103890"/>
+                <a:pt x="25427532" y="23058963"/>
+                <a:pt x="25388019" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25427532" y="23058963"/>
+                <a:pt x="25487689" y="23054540"/>
+                <a:pt x="25546608" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25487689" y="23054540"/>
+                <a:pt x="25041291" y="23081465"/>
+                <a:pt x="24857090" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24672889" y="23032235"/>
+                <a:pt x="24770138" y="23051672"/>
+                <a:pt x="24732977" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24695816" y="23062028"/>
+                <a:pt x="24081390" y="23093123"/>
+                <a:pt x="23478056" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22874722" y="23020577"/>
+                <a:pt x="23412996" y="23057169"/>
+                <a:pt x="23353943" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23294890" y="23056531"/>
+                <a:pt x="23050535" y="23063120"/>
+                <a:pt x="22947128" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23050535" y="23063120"/>
+                <a:pt x="23066691" y="23061232"/>
+                <a:pt x="23105717" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23144743" y="23052468"/>
+                <a:pt x="23204400" y="23051399"/>
+                <a:pt x="23264306" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23204400" y="23051399"/>
+                <a:pt x="23165885" y="23051245"/>
+                <a:pt x="23140193" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23165885" y="23051245"/>
+                <a:pt x="23257985" y="23050643"/>
+                <a:pt x="23298782" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23257985" y="23050643"/>
+                <a:pt x="22827993" y="23071660"/>
+                <a:pt x="22609265" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22390537" y="23042040"/>
+                <a:pt x="22086446" y="23058216"/>
+                <a:pt x="21919748" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21753050" y="23055484"/>
+                <a:pt x="21857172" y="23055229"/>
+                <a:pt x="21795635" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21734098" y="23058471"/>
+                <a:pt x="21545630" y="23048930"/>
+                <a:pt x="21388820" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21232011" y="23064770"/>
+                <a:pt x="21304910" y="23062714"/>
+                <a:pt x="21264707" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21224504" y="23050986"/>
+                <a:pt x="21020966" y="23057339"/>
+                <a:pt x="20857891" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20694816" y="23056361"/>
+                <a:pt x="20195022" y="23108117"/>
+                <a:pt x="19602970" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19010918" y="23005583"/>
+                <a:pt x="18926409" y="23073024"/>
+                <a:pt x="18630751" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18335093" y="23040676"/>
+                <a:pt x="18550336" y="23062961"/>
+                <a:pt x="18506638" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18550336" y="23062961"/>
+                <a:pt x="18600397" y="23055772"/>
+                <a:pt x="18665227" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18730057" y="23057928"/>
+                <a:pt x="18790443" y="23049086"/>
+                <a:pt x="18823816" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18857189" y="23064614"/>
+                <a:pt x="18913284" y="23061947"/>
+                <a:pt x="18982405" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18913284" y="23061947"/>
+                <a:pt x="18895017" y="23057037"/>
+                <a:pt x="18858292" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18821567" y="23056663"/>
+                <a:pt x="18328498" y="23045599"/>
+                <a:pt x="17886073" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17443648" y="23068101"/>
+                <a:pt x="17142792" y="23078392"/>
+                <a:pt x="16913854" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17142792" y="23078392"/>
+                <a:pt x="17036325" y="23057722"/>
+                <a:pt x="17072443" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17036325" y="23057722"/>
+                <a:pt x="16628737" y="23068869"/>
+                <a:pt x="16382926" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="16137115" y="23044831"/>
+                <a:pt x="15910222" y="23085540"/>
+                <a:pt x="15693409" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15476596" y="23028160"/>
+                <a:pt x="15325960" y="23086572"/>
+                <a:pt x="15003892" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14681824" y="23027128"/>
+                <a:pt x="14513447" y="23028145"/>
+                <a:pt x="14314374" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14115301" y="23085555"/>
+                <a:pt x="14217270" y="23058829"/>
+                <a:pt x="14190261" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14217270" y="23058829"/>
+                <a:pt x="14298250" y="23053349"/>
+                <a:pt x="14348850" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14399450" y="23060351"/>
+                <a:pt x="14454506" y="23060130"/>
+                <a:pt x="14507439" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14454506" y="23060130"/>
+                <a:pt x="14424622" y="23060221"/>
+                <a:pt x="14383326" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14342030" y="23053479"/>
+                <a:pt x="13769714" y="23104507"/>
+                <a:pt x="13411107" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13769714" y="23104507"/>
+                <a:pt x="13511173" y="23049514"/>
+                <a:pt x="13569696" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13511173" y="23049514"/>
+                <a:pt x="13495505" y="23059557"/>
+                <a:pt x="13445583" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13495505" y="23059557"/>
+                <a:pt x="13546897" y="23049604"/>
+                <a:pt x="13604172" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13546897" y="23049604"/>
+                <a:pt x="12908477" y="23071129"/>
+                <a:pt x="12631953" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12355429" y="23042571"/>
+                <a:pt x="11946115" y="23021345"/>
+                <a:pt x="11659734" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11373353" y="23092355"/>
+                <a:pt x="10892970" y="23036728"/>
+                <a:pt x="10404813" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9916656" y="23076972"/>
+                <a:pt x="9522089" y="23050949"/>
+                <a:pt x="9149892" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8777695" y="23062751"/>
+                <a:pt x="8707068" y="23070767"/>
+                <a:pt x="8460374" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8213680" y="23042933"/>
+                <a:pt x="7739051" y="23039779"/>
+                <a:pt x="7488155" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7237259" y="23073921"/>
+                <a:pt x="6748037" y="23073013"/>
+                <a:pt x="6515936" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6283835" y="23040687"/>
+                <a:pt x="6427723" y="23051081"/>
+                <a:pt x="6391823" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6355923" y="23062619"/>
+                <a:pt x="5933624" y="23063108"/>
+                <a:pt x="5702306" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5470988" y="23050592"/>
+                <a:pt x="5169831" y="23066012"/>
+                <a:pt x="5012789" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4855747" y="23047688"/>
+                <a:pt x="4128593" y="23105326"/>
+                <a:pt x="3757868" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3387143" y="23008374"/>
+                <a:pt x="3669555" y="23056641"/>
+                <a:pt x="3633755" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3597955" y="23057059"/>
+                <a:pt x="3413412" y="23058709"/>
+                <a:pt x="3226940" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3040469" y="23054991"/>
+                <a:pt x="2767368" y="23025939"/>
+                <a:pt x="2537423" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2767368" y="23025939"/>
+                <a:pt x="2631232" y="23049196"/>
+                <a:pt x="2696012" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2631232" y="23049196"/>
+                <a:pt x="2322950" y="23058442"/>
+                <a:pt x="2006495" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1690040" y="23055258"/>
+                <a:pt x="1592149" y="23055552"/>
+                <a:pt x="1316978" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1041807" y="23058148"/>
+                <a:pt x="1250034" y="23060697"/>
+                <a:pt x="1192865" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1135696" y="23053003"/>
+                <a:pt x="1126119" y="23051676"/>
+                <a:pt x="1068751" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1011383" y="23062024"/>
+                <a:pt x="525752" y="23054162"/>
+                <a:pt x="0" y="23056850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11726" y="22667053"/>
+                <a:pt x="-19241" y="22400322"/>
+                <a:pt x="0" y="22127589"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19241" y="21854856"/>
+                <a:pt x="-20" y="22123175"/>
+                <a:pt x="0" y="22120602"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20" y="22118029"/>
+                <a:pt x="-8414" y="21960987"/>
+                <a:pt x="0" y="21883047"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8414" y="21805108"/>
+                <a:pt x="5810" y="21274637"/>
+                <a:pt x="0" y="20723217"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-5810" y="20171797"/>
+                <a:pt x="-32603" y="20190551"/>
+                <a:pt x="0" y="19793956"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="32603" y="19397361"/>
+                <a:pt x="-2990" y="19626641"/>
+                <a:pt x="0" y="19556401"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2990" y="19486161"/>
+                <a:pt x="-33286" y="19200332"/>
+                <a:pt x="0" y="18857709"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="33286" y="18515086"/>
+                <a:pt x="-46224" y="18192743"/>
+                <a:pt x="0" y="17697879"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="46224" y="17203015"/>
+                <a:pt x="2582" y="17527595"/>
+                <a:pt x="0" y="17460324"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-2582" y="17393053"/>
+                <a:pt x="-859" y="16850697"/>
+                <a:pt x="0" y="16531063"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="859" y="16211429"/>
+                <a:pt x="-9970" y="16352224"/>
+                <a:pt x="0" y="16293507"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9970" y="16234790"/>
+                <a:pt x="-43214" y="15677447"/>
+                <a:pt x="0" y="15133678"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43214" y="14589909"/>
+                <a:pt x="-20667" y="14594237"/>
+                <a:pt x="0" y="14434985"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20667" y="14275733"/>
+                <a:pt x="273" y="14431337"/>
+                <a:pt x="0" y="14427999"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-273" y="14424661"/>
+                <a:pt x="-15605" y="13929748"/>
+                <a:pt x="0" y="13729306"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15605" y="13528864"/>
+                <a:pt x="-11296" y="13411791"/>
+                <a:pt x="0" y="13261182"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11296" y="13110573"/>
+                <a:pt x="29010" y="12656095"/>
+                <a:pt x="0" y="12101353"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-29010" y="11546611"/>
+                <a:pt x="24473" y="11524189"/>
+                <a:pt x="0" y="11172092"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-24473" y="10819995"/>
+                <a:pt x="-18060" y="10720082"/>
+                <a:pt x="0" y="10473399"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18060" y="10226716"/>
+                <a:pt x="-127" y="10468736"/>
+                <a:pt x="0" y="10466413"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="127" y="10464090"/>
+                <a:pt x="55100" y="9596269"/>
+                <a:pt x="0" y="9306583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-55100" y="9016897"/>
+                <a:pt x="-20891" y="8944623"/>
+                <a:pt x="0" y="8607891"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20891" y="8271159"/>
+                <a:pt x="-23904" y="8154549"/>
+                <a:pt x="0" y="7909198"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23904" y="7663847"/>
+                <a:pt x="-11116" y="7747393"/>
+                <a:pt x="0" y="7671643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11116" y="7595893"/>
+                <a:pt x="73" y="7666484"/>
+                <a:pt x="0" y="7664656"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-73" y="7662828"/>
+                <a:pt x="-17303" y="7047685"/>
+                <a:pt x="0" y="6504826"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17303" y="5961967"/>
+                <a:pt x="-36943" y="5871953"/>
+                <a:pt x="0" y="5575566"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="36943" y="5279179"/>
+                <a:pt x="-3666" y="5074371"/>
+                <a:pt x="0" y="4646305"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3666" y="4218239"/>
+                <a:pt x="-3882" y="3925494"/>
+                <a:pt x="0" y="3486475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3882" y="3047456"/>
+                <a:pt x="-20553" y="3118127"/>
+                <a:pt x="0" y="3018351"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20553" y="2918575"/>
+                <a:pt x="19677" y="2350195"/>
+                <a:pt x="0" y="1858522"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-19677" y="1366849"/>
+                <a:pt x="49" y="1853631"/>
+                <a:pt x="0" y="1851535"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-49" y="1849439"/>
+                <a:pt x="-20497" y="1355717"/>
+                <a:pt x="0" y="1152843"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20497" y="949969"/>
+                <a:pt x="-37172" y="248691"/>
                 <a:pt x="0" y="0"/>
               </a:cubicBezTo>
               <a:close/>
@@ -10387,72 +10447,72 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10469,7 +10529,7 @@
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K2"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10484,29 +10544,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
     </row>
     <row r="3" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="150" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="32"/>
@@ -10538,7 +10598,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="32"/>
       <c r="D5" s="109" t="s">
         <v>103</v>
@@ -10568,7 +10628,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="32"/>
       <c r="D6" s="108" t="s">
         <v>104</v>
@@ -10598,7 +10658,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="32"/>
       <c r="D7" s="108" t="s">
         <v>105</v>
@@ -10628,7 +10688,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="137"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="32"/>
       <c r="D8" s="108" t="s">
         <v>106</v>
@@ -10658,7 +10718,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="138"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="32"/>
       <c r="D9" s="109" t="s">
         <v>107</v>
@@ -10701,7 +10761,7 @@
       <c r="M10" s="68"/>
     </row>
     <row r="11" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="145" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="34"/>
@@ -10733,7 +10793,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="132"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="34"/>
       <c r="D12" s="109" t="s">
         <v>111</v>
@@ -10763,7 +10823,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="133"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="34"/>
       <c r="D13" s="109" t="s">
         <v>112</v>
@@ -10806,7 +10866,7 @@
       <c r="M14" s="68"/>
     </row>
     <row r="15" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="150" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="32"/>
@@ -10838,7 +10898,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="137"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="32"/>
       <c r="D16" s="109" t="s">
         <v>115</v>
@@ -10868,7 +10928,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="137"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="32"/>
       <c r="D17" s="109" t="s">
         <v>116</v>
@@ -10898,7 +10958,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="138"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="32"/>
       <c r="D18" s="109" t="s">
         <v>117</v>
@@ -10941,7 +11001,7 @@
       <c r="M19" s="68"/>
     </row>
     <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="150" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="32"/>
@@ -10973,7 +11033,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="137"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="32"/>
       <c r="D21" s="109" t="s">
         <v>119</v>
@@ -11003,7 +11063,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="137"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="32"/>
       <c r="D22" s="109" t="s">
         <v>120</v>
@@ -11033,7 +11093,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="137"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="32"/>
       <c r="D23" s="109" t="s">
         <v>121</v>
@@ -11063,7 +11123,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="137"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="32"/>
       <c r="D24" s="109" t="s">
         <v>122</v>
@@ -11093,7 +11153,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="138"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="32"/>
       <c r="D25" s="109" t="s">
         <v>123</v>
@@ -11136,7 +11196,7 @@
       <c r="M26" s="107"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="150" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="32"/>
@@ -11168,7 +11228,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="137"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="32"/>
       <c r="D28" s="109" t="s">
         <v>124</v>
@@ -11198,7 +11258,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="137"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="32"/>
       <c r="D29" s="109" t="s">
         <v>125</v>
@@ -11229,7 +11289,7 @@
       <c r="O29" s="30"/>
     </row>
     <row r="30" spans="2:15" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="138"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="32"/>
       <c r="D30" s="109" t="s">
         <v>126</v>
@@ -11273,7 +11333,7 @@
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="2:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="145" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="47"/>
@@ -11281,64 +11341,64 @@
         <v>132</v>
       </c>
       <c r="E32" s="48"/>
-      <c r="F32" s="139">
+      <c r="F32" s="153">
         <v>37</v>
       </c>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="140"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="132"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="1"/>
       <c r="D33" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E33" s="31"/>
-      <c r="F33" s="127">
+      <c r="F33" s="141">
         <v>23</v>
       </c>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="128"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="142"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="132"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="1"/>
       <c r="D34" s="109"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="149"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
     </row>
     <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="133"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="2"/>
       <c r="D35" s="114" t="s">
         <v>134</v>
       </c>
       <c r="E35" s="49"/>
-      <c r="F35" s="129">
+      <c r="F35" s="143">
         <f>F32/F33</f>
         <v>1.6086956521739131</v>
       </c>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="130"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -11368,13 +11428,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414FDF7-5A6B-4BCE-A2DC-50BEF8C30959}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="54.90625" style="70" customWidth="1"/>
+    <col min="3" max="4" width="1.81640625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="73.1796875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" style="70" customWidth="1"/>
+    <col min="7" max="9" width="59.6328125" style="70" customWidth="1"/>
+    <col min="10" max="10" width="59.54296875" style="70" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" style="70" customWidth="1"/>
+    <col min="12" max="16384" width="9.08984375" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="311" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="289" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="311"/>
+      <c r="B2" s="311"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="300" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="294" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="295" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+    </row>
+    <row r="4" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="300"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="294"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="300"/>
+      <c r="B5" s="294" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="300"/>
+      <c r="B6" s="294" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="294"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="295" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="307" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="300"/>
+      <c r="B7" s="294"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="307"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="300"/>
+      <c r="B8" s="294" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="300"/>
+      <c r="B9" s="308" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="294" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="296"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="310" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="300"/>
+      <c r="B10" s="309"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="309"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="310"/>
+    </row>
+    <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="300"/>
+      <c r="B11" s="309"/>
+      <c r="C11" s="309"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="299"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="83"/>
+    </row>
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="300"/>
+      <c r="B12" s="294" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="294"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="301"/>
+      <c r="B13" s="301"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="302" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="303" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="304" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="302"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
+      <c r="K15" s="83"/>
+    </row>
+    <row r="16" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="302"/>
+      <c r="B16" s="298" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="302"/>
+      <c r="B17" s="298" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="298"/>
+      <c r="D17" s="298"/>
+      <c r="E17" s="306" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="291"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="83"/>
+    </row>
+    <row r="18" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="302"/>
+      <c r="B18" s="298"/>
+      <c r="C18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="306"/>
+      <c r="F18" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="300" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="294" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="294"/>
+      <c r="D19" s="294"/>
+      <c r="E19" s="295" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="300"/>
+      <c r="B20" s="294"/>
+      <c r="C20" s="294"/>
+      <c r="D20" s="294"/>
+      <c r="E20" s="295"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="92"/>
+    </row>
+    <row r="21" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="300"/>
+      <c r="B21" s="294" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="300"/>
+      <c r="B22" s="294"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="92"/>
+    </row>
+    <row r="23" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="300"/>
+      <c r="B23" s="294" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="294"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="295" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="K23" s="76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="300"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="295"/>
+      <c r="F24" s="299"/>
+      <c r="G24" s="299"/>
+      <c r="H24" s="299"/>
+      <c r="I24" s="299"/>
+      <c r="J24" s="299"/>
+      <c r="K24" s="92"/>
+    </row>
+    <row r="25" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="300"/>
+      <c r="B25" s="294" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="I25" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="J25" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="300"/>
+      <c r="B26" s="294" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="295" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="299"/>
+      <c r="G26" s="299"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="299"/>
+      <c r="J26" s="299"/>
+      <c r="K26" s="92"/>
+    </row>
+    <row r="27" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="300"/>
+      <c r="B27" s="294"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="295"/>
+      <c r="F27" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="J27" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="300"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="295"/>
+      <c r="F28" s="299"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="299"/>
+      <c r="I28" s="299"/>
+      <c r="J28" s="299"/>
+      <c r="K28" s="92"/>
+    </row>
+    <row r="29" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="300"/>
+      <c r="B29" s="294" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="297" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="298"/>
+      <c r="D30" s="298"/>
+      <c r="E30" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="J30" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="K30" s="87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="297"/>
+      <c r="B31" s="298" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="298"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="J31" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="K31" s="87" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="297"/>
+      <c r="B32" s="298" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="298"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="297"/>
+      <c r="B33" s="298" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="H33" s="89" t="s">
+        <v>318</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="J33" s="90" t="s">
+        <v>320</v>
+      </c>
+      <c r="K33" s="87" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="290"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="291"/>
+      <c r="G34" s="291"/>
+      <c r="H34" s="291"/>
+      <c r="I34" s="291"/>
+      <c r="J34" s="291"/>
+      <c r="K34" s="84"/>
+    </row>
+    <row r="35" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="292" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="293" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="293"/>
+      <c r="D35" s="293"/>
+      <c r="E35" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="292"/>
+      <c r="B36" s="294" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="294"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="I36" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" s="76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="292"/>
+      <c r="B37" s="294" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="294"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="292"/>
+      <c r="B38" s="294" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="294"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="295" t="s">
+        <v>342</v>
+      </c>
+      <c r="F38" s="296"/>
+      <c r="G38" s="296"/>
+      <c r="H38" s="296"/>
+      <c r="I38" s="296"/>
+      <c r="J38" s="296"/>
+      <c r="K38" s="76"/>
+    </row>
+    <row r="39" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="292"/>
+      <c r="B39" s="294"/>
+      <c r="C39" s="294"/>
+      <c r="D39" s="294"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="H39" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="I39" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="286"/>
+      <c r="B40" s="286"/>
+      <c r="C40" s="286"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="286"/>
+      <c r="F40" s="286"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="286"/>
+    </row>
+    <row r="42" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="287"/>
+      <c r="B42" s="287"/>
+      <c r="C42" s="288"/>
+      <c r="D42" s="288"/>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="287"/>
+      <c r="B43" s="287"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="27" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF7BC28-7E70-4C6D-B224-8C2A894F2515}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A4:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -11388,89 +12472,89 @@
   <sheetData>
     <row r="4" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
-      <c r="B5" s="149" t="s">
+      <c r="A5" s="190"/>
+      <c r="B5" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="149" t="s">
+      <c r="F5" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="198" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
     </row>
     <row r="7" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="181" t="s">
         <v>444</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="187" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="F7" s="200" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="203" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="155"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="204"/>
     </row>
     <row r="9" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
-      <c r="B9" s="191" t="s">
+      <c r="A9" s="156"/>
+      <c r="B9" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="182" t="s">
         <v>445</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="155"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="204"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="178"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="156"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="205"/>
     </row>
     <row r="11" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="27"/>
@@ -11480,86 +12564,86 @@
       <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="183" t="s">
         <v>446</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="157" t="s">
+      <c r="F12" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="158" t="s">
+      <c r="G12" s="180" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="180"/>
     </row>
     <row r="14" spans="1:8" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="180"/>
     </row>
     <row r="15" spans="1:8" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="188" t="s">
+      <c r="A15" s="159"/>
+      <c r="B15" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="183" t="s">
         <v>447</v>
       </c>
-      <c r="D15" s="168" t="s">
+      <c r="D15" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="169" t="s">
+      <c r="E15" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="157" t="s">
+      <c r="F15" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="180" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="158"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="180"/>
     </row>
     <row r="17" spans="1:7" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="158"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="160"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="180"/>
+    </row>
+    <row r="18" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="29"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -11567,38 +12651,38 @@
       <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="D19" s="173" t="s">
+      <c r="D19" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="173" t="s">
+      <c r="E19" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="143" t="s">
+      <c r="F19" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="146" t="s">
+      <c r="G19" s="195" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="133"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="146"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="147"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="195"/>
+    </row>
+    <row r="21" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="27"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -11606,66 +12690,39 @@
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="173" t="s">
         <v>449</v>
       </c>
-      <c r="D22" s="174" t="s">
+      <c r="D22" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="174" t="s">
+      <c r="E22" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="144" t="s">
+      <c r="F22" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="147" t="s">
+      <c r="G22" s="196" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="183"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="148"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F22:F23"/>
@@ -11682,6 +12739,33 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11689,15 +12773,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9EB29C-6965-48C9-BECB-062AC2CCF42E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D5:Z68"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:N55"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11727,7 +12811,7 @@
       <c r="W6" s="282"/>
     </row>
     <row r="7" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="V7" s="283">
+      <c r="V7" s="124">
         <v>0</v>
       </c>
       <c r="W7" s="119" t="s">
@@ -11735,7 +12819,7 @@
       </c>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="V8" s="284">
+      <c r="V8" s="125">
         <v>1</v>
       </c>
       <c r="W8" s="119" t="s">
@@ -11743,7 +12827,7 @@
       </c>
     </row>
     <row r="9" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V9" s="285">
+      <c r="V9" s="126">
         <v>2</v>
       </c>
       <c r="W9" s="123" t="s">
@@ -11755,10 +12839,10 @@
       <c r="D15" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="241" t="s">
+      <c r="E15" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="242"/>
+      <c r="F15" s="284"/>
       <c r="G15" s="64" t="s">
         <v>18</v>
       </c>
@@ -11780,39 +12864,39 @@
       <c r="M15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P15" s="286" t="s">
+      <c r="P15" s="127" t="s">
         <v>365</v>
       </c>
-      <c r="Q15" s="287" t="s">
+      <c r="Q15" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="286" t="s">
+      <c r="R15" s="127" t="s">
         <v>366</v>
       </c>
-      <c r="S15" s="287" t="s">
+      <c r="S15" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="288" t="s">
+      <c r="T15" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="U15" s="287" t="s">
+      <c r="U15" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="289" t="s">
+      <c r="V15" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="W15" s="286" t="s">
+      <c r="W15" s="127" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="4:23" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="213">
+      <c r="D16" s="255">
         <v>1</v>
       </c>
-      <c r="E16" s="205" t="s">
+      <c r="E16" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="205"/>
+      <c r="F16" s="239"/>
       <c r="G16" s="63" t="s">
         <v>19</v>
       </c>
@@ -11825,38 +12909,38 @@
       <c r="J16" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="K16" s="212" t="s">
+      <c r="K16" s="242" t="s">
         <v>371</v>
       </c>
-      <c r="L16" s="212" t="s">
+      <c r="L16" s="242" t="s">
         <v>372</v>
       </c>
-      <c r="M16" s="240" t="s">
+      <c r="M16" s="232" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="290">
+      <c r="P16" s="209">
         <v>0</v>
       </c>
-      <c r="Q16" s="291" t="s">
+      <c r="Q16" s="207" t="s">
         <v>374</v>
       </c>
-      <c r="R16" s="290">
+      <c r="R16" s="209">
         <v>1</v>
       </c>
-      <c r="S16" s="292" t="s">
+      <c r="S16" s="211" t="s">
         <v>375</v>
       </c>
-      <c r="V16" s="293">
+      <c r="V16" s="213">
         <v>2</v>
       </c>
-      <c r="W16" s="293" t="s">
+      <c r="W16" s="213" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="17" spans="4:26" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="195"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="285"/>
+      <c r="F17" s="285"/>
       <c r="G17" s="59" t="s">
         <v>20</v>
       </c>
@@ -11869,131 +12953,131 @@
       <c r="J17" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="203"/>
-      <c r="P17" s="290"/>
-      <c r="Q17" s="291"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="292"/>
-      <c r="V17" s="293"/>
-      <c r="W17" s="293"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="230"/>
+      <c r="P17" s="209"/>
+      <c r="Q17" s="207"/>
+      <c r="R17" s="209"/>
+      <c r="S17" s="211"/>
+      <c r="V17" s="213"/>
+      <c r="W17" s="213"/>
     </row>
     <row r="18" spans="4:26" ht="174.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="215"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
       <c r="G18" s="65" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="294" t="s">
+      <c r="I18" s="131" t="s">
         <v>379</v>
       </c>
       <c r="J18" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="204"/>
-      <c r="P18" s="290"/>
-      <c r="Q18" s="291"/>
-      <c r="R18" s="290"/>
-      <c r="S18" s="292"/>
-      <c r="V18" s="293"/>
-      <c r="W18" s="293"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="229"/>
+      <c r="M18" s="231"/>
+      <c r="P18" s="209"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="209"/>
+      <c r="S18" s="211"/>
+      <c r="V18" s="213"/>
+      <c r="W18" s="213"/>
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="4:26" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="229"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="247"/>
-      <c r="P19" s="295"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="272"/>
+      <c r="P19" s="132"/>
       <c r="Q19" s="115"/>
-      <c r="R19" s="295"/>
+      <c r="R19" s="132"/>
       <c r="S19" s="28"/>
-      <c r="V19" s="296"/>
-      <c r="W19" s="296"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="133"/>
     </row>
     <row r="20" spans="4:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="229">
+      <c r="D20" s="270">
         <v>2</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="E20" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="231"/>
-      <c r="G20" s="253" t="s">
+      <c r="F20" s="274"/>
+      <c r="G20" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="251" t="s">
+      <c r="H20" s="279" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="222" t="s">
+      <c r="I20" s="260" t="s">
         <v>381</v>
       </c>
-      <c r="J20" s="224" t="s">
+      <c r="J20" s="262" t="s">
         <v>382</v>
       </c>
-      <c r="K20" s="233" t="s">
+      <c r="K20" s="264" t="s">
         <v>383</v>
       </c>
-      <c r="L20" s="233" t="s">
+      <c r="L20" s="264" t="s">
         <v>384</v>
       </c>
-      <c r="M20" s="236" t="s">
+      <c r="M20" s="267" t="s">
         <v>385</v>
       </c>
-      <c r="P20" s="290">
+      <c r="P20" s="209">
         <v>1</v>
       </c>
-      <c r="Q20" s="293" t="s">
+      <c r="Q20" s="213" t="s">
         <v>386</v>
       </c>
-      <c r="R20" s="290">
+      <c r="R20" s="209">
         <v>1</v>
       </c>
-      <c r="S20" s="293" t="s">
+      <c r="S20" s="213" t="s">
         <v>387</v>
       </c>
-      <c r="V20" s="293">
+      <c r="V20" s="213">
         <v>2</v>
       </c>
-      <c r="W20" s="293" t="s">
+      <c r="W20" s="213" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="21" spans="4:26" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="230"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="297"/>
-      <c r="G21" s="254"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="225"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="237"/>
-      <c r="P21" s="290"/>
-      <c r="Q21" s="293"/>
-      <c r="R21" s="290"/>
-      <c r="S21" s="293"/>
-      <c r="V21" s="293"/>
-      <c r="W21" s="293"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="275"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="263"/>
+      <c r="K21" s="265"/>
+      <c r="L21" s="265"/>
+      <c r="M21" s="268"/>
+      <c r="P21" s="209"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="209"/>
+      <c r="S21" s="213"/>
+      <c r="V21" s="213"/>
+      <c r="W21" s="213"/>
     </row>
     <row r="22" spans="4:26" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="230"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
       <c r="G22" s="59" t="s">
         <v>35</v>
       </c>
@@ -12006,129 +13090,129 @@
       <c r="J22" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="237"/>
-      <c r="P22" s="290"/>
-      <c r="Q22" s="293"/>
-      <c r="R22" s="290"/>
-      <c r="S22" s="293"/>
-      <c r="V22" s="293"/>
-      <c r="W22" s="293"/>
+      <c r="K22" s="265"/>
+      <c r="L22" s="265"/>
+      <c r="M22" s="268"/>
+      <c r="P22" s="209"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="209"/>
+      <c r="S22" s="213"/>
+      <c r="V22" s="213"/>
+      <c r="W22" s="213"/>
     </row>
     <row r="23" spans="4:26" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="226"/>
-      <c r="E23" s="232"/>
-      <c r="F23" s="232"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
       <c r="G23" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="298" t="s">
+      <c r="I23" s="134" t="s">
         <v>390</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K23" s="235"/>
-      <c r="L23" s="235"/>
-      <c r="M23" s="238"/>
-      <c r="P23" s="290"/>
-      <c r="Q23" s="293"/>
-      <c r="R23" s="290"/>
-      <c r="S23" s="293"/>
-      <c r="V23" s="293"/>
-      <c r="W23" s="293"/>
+      <c r="K23" s="266"/>
+      <c r="L23" s="266"/>
+      <c r="M23" s="269"/>
+      <c r="P23" s="209"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="209"/>
+      <c r="S23" s="213"/>
+      <c r="V23" s="213"/>
+      <c r="W23" s="213"/>
     </row>
     <row r="24" spans="4:26" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="226"/>
-      <c r="E24" s="227"/>
-      <c r="F24" s="227"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="228"/>
-      <c r="P24" s="296"/>
-      <c r="R24" s="296"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="253"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="253"/>
+      <c r="K24" s="253"/>
+      <c r="L24" s="253"/>
+      <c r="M24" s="254"/>
+      <c r="P24" s="133"/>
+      <c r="R24" s="133"/>
       <c r="S24" s="28"/>
-      <c r="V24" s="296"/>
-      <c r="W24" s="296"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="133"/>
     </row>
     <row r="25" spans="4:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="213">
+      <c r="D25" s="255">
         <v>3</v>
       </c>
-      <c r="E25" s="205" t="s">
+      <c r="E25" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="220" t="s">
+      <c r="F25" s="239"/>
+      <c r="G25" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="222" t="s">
+      <c r="H25" s="260" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="222" t="s">
+      <c r="I25" s="260" t="s">
         <v>392</v>
       </c>
-      <c r="J25" s="224" t="s">
+      <c r="J25" s="262" t="s">
         <v>380</v>
       </c>
-      <c r="K25" s="212" t="s">
+      <c r="K25" s="242" t="s">
         <v>393</v>
       </c>
-      <c r="L25" s="212" t="s">
+      <c r="L25" s="242" t="s">
         <v>394</v>
       </c>
-      <c r="M25" s="240" t="s">
+      <c r="M25" s="232" t="s">
         <v>395</v>
       </c>
-      <c r="P25" s="290">
+      <c r="P25" s="209">
         <v>1</v>
       </c>
-      <c r="Q25" s="291" t="s">
+      <c r="Q25" s="207" t="s">
         <v>396</v>
       </c>
-      <c r="R25" s="293">
+      <c r="R25" s="213">
         <v>2</v>
       </c>
-      <c r="S25" s="292" t="s">
+      <c r="S25" s="211" t="s">
         <v>397</v>
       </c>
-      <c r="V25" s="293">
+      <c r="V25" s="213">
         <v>2</v>
       </c>
-      <c r="W25" s="293" t="s">
+      <c r="W25" s="213" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="26" spans="4:26" ht="118.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="214"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="203"/>
-      <c r="P26" s="290"/>
-      <c r="Q26" s="291"/>
-      <c r="R26" s="293"/>
-      <c r="S26" s="292"/>
-      <c r="V26" s="293"/>
-      <c r="W26" s="293"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="261"/>
+      <c r="J26" s="263"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="230"/>
+      <c r="P26" s="209"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="213"/>
+      <c r="S26" s="211"/>
+      <c r="V26" s="213"/>
+      <c r="W26" s="213"/>
     </row>
     <row r="27" spans="4:26" ht="89.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="215"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
       <c r="G27" s="9" t="s">
         <v>31</v>
       </c>
@@ -12141,41 +13225,41 @@
       <c r="J27" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="204"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="291"/>
-      <c r="R27" s="293"/>
-      <c r="S27" s="292"/>
-      <c r="V27" s="293"/>
-      <c r="W27" s="293"/>
+      <c r="K27" s="229"/>
+      <c r="L27" s="229"/>
+      <c r="M27" s="231"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="213"/>
+      <c r="S27" s="211"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
     </row>
     <row r="28" spans="4:26" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="208"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="209"/>
-      <c r="P28" s="296"/>
-      <c r="R28" s="296"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="221"/>
+      <c r="P28" s="133"/>
+      <c r="R28" s="133"/>
       <c r="S28" s="28"/>
-      <c r="V28" s="296"/>
-      <c r="W28" s="296"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
     </row>
     <row r="29" spans="4:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="248">
         <v>4</v>
       </c>
-      <c r="E29" s="210" t="s">
+      <c r="E29" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="205" t="s">
+      <c r="F29" s="239" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="18" t="s">
@@ -12190,38 +13274,38 @@
       <c r="J29" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="K29" s="212" t="s">
+      <c r="K29" s="242" t="s">
         <v>402</v>
       </c>
-      <c r="L29" s="212" t="s">
+      <c r="L29" s="242" t="s">
         <v>403</v>
       </c>
-      <c r="M29" s="240" t="s">
+      <c r="M29" s="232" t="s">
         <v>404</v>
       </c>
-      <c r="P29" s="290">
+      <c r="P29" s="209">
         <v>1</v>
       </c>
-      <c r="Q29" s="291" t="s">
+      <c r="Q29" s="207" t="s">
         <v>405</v>
       </c>
-      <c r="R29" s="290">
+      <c r="R29" s="209">
         <v>2</v>
       </c>
-      <c r="S29" s="292" t="s">
+      <c r="S29" s="211" t="s">
         <v>406</v>
       </c>
-      <c r="V29" s="293">
+      <c r="V29" s="213">
         <v>2</v>
       </c>
-      <c r="W29" s="293" t="s">
+      <c r="W29" s="213" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="30" spans="4:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="195"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="206"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="240"/>
       <c r="G30" s="13" t="s">
         <v>42</v>
       </c>
@@ -12234,20 +13318,20 @@
       <c r="J30" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="203"/>
-      <c r="P30" s="290"/>
-      <c r="Q30" s="291"/>
-      <c r="R30" s="290"/>
-      <c r="S30" s="292"/>
-      <c r="V30" s="293"/>
-      <c r="W30" s="293"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="228"/>
+      <c r="M30" s="230"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="207"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="211"/>
+      <c r="V30" s="213"/>
+      <c r="W30" s="213"/>
     </row>
     <row r="31" spans="4:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="195"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="206"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="240"/>
       <c r="G31" s="13" t="s">
         <v>143</v>
       </c>
@@ -12260,20 +13344,20 @@
       <c r="J31" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="203"/>
-      <c r="P31" s="290"/>
-      <c r="Q31" s="291"/>
-      <c r="R31" s="290"/>
-      <c r="S31" s="292"/>
-      <c r="V31" s="293"/>
-      <c r="W31" s="293"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="230"/>
+      <c r="P31" s="209"/>
+      <c r="Q31" s="207"/>
+      <c r="R31" s="209"/>
+      <c r="S31" s="211"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="213"/>
     </row>
     <row r="32" spans="4:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="195"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="206"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="240"/>
       <c r="G32" s="13" t="s">
         <v>144</v>
       </c>
@@ -12286,20 +13370,20 @@
       <c r="J32" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="203"/>
-      <c r="P32" s="290"/>
-      <c r="Q32" s="291"/>
-      <c r="R32" s="290"/>
-      <c r="S32" s="292"/>
-      <c r="V32" s="293"/>
-      <c r="W32" s="293"/>
+      <c r="K32" s="228"/>
+      <c r="L32" s="228"/>
+      <c r="M32" s="230"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="207"/>
+      <c r="R32" s="209"/>
+      <c r="S32" s="211"/>
+      <c r="V32" s="213"/>
+      <c r="W32" s="213"/>
     </row>
     <row r="33" spans="4:23" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="195"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="206"/>
+      <c r="D33" s="222"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="240"/>
       <c r="G33" s="13" t="s">
         <v>145</v>
       </c>
@@ -12312,20 +13396,20 @@
       <c r="J33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="203"/>
-      <c r="P33" s="290"/>
-      <c r="Q33" s="291"/>
-      <c r="R33" s="290"/>
-      <c r="S33" s="292"/>
-      <c r="V33" s="293"/>
-      <c r="W33" s="293"/>
+      <c r="K33" s="228"/>
+      <c r="L33" s="228"/>
+      <c r="M33" s="230"/>
+      <c r="P33" s="209"/>
+      <c r="Q33" s="207"/>
+      <c r="R33" s="209"/>
+      <c r="S33" s="211"/>
+      <c r="V33" s="213"/>
+      <c r="W33" s="213"/>
     </row>
     <row r="34" spans="4:23" ht="62.5" x14ac:dyDescent="0.3">
-      <c r="D34" s="195"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="216" t="s">
+      <c r="D34" s="222"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="243" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="13" t="s">
@@ -12340,20 +13424,20 @@
       <c r="J34" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
-      <c r="M34" s="203"/>
-      <c r="P34" s="290"/>
-      <c r="Q34" s="291"/>
-      <c r="R34" s="290"/>
-      <c r="S34" s="292"/>
-      <c r="V34" s="293"/>
-      <c r="W34" s="293"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228"/>
+      <c r="M34" s="230"/>
+      <c r="P34" s="209"/>
+      <c r="Q34" s="207"/>
+      <c r="R34" s="209"/>
+      <c r="S34" s="211"/>
+      <c r="V34" s="213"/>
+      <c r="W34" s="213"/>
     </row>
     <row r="35" spans="4:23" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="195"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="217"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="244"/>
       <c r="G35" s="13" t="s">
         <v>147</v>
       </c>
@@ -12366,19 +13450,19 @@
       <c r="J35" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="203"/>
-      <c r="P35" s="290"/>
-      <c r="Q35" s="291"/>
-      <c r="R35" s="290"/>
-      <c r="S35" s="292"/>
-      <c r="V35" s="293"/>
-      <c r="W35" s="293"/>
+      <c r="K35" s="228"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="230"/>
+      <c r="P35" s="209"/>
+      <c r="Q35" s="207"/>
+      <c r="R35" s="209"/>
+      <c r="S35" s="211"/>
+      <c r="V35" s="213"/>
+      <c r="W35" s="213"/>
     </row>
     <row r="36" spans="4:23" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="195"/>
-      <c r="E36" s="211"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="251"/>
       <c r="F36" s="117" t="s">
         <v>4</v>
       </c>
@@ -12394,19 +13478,19 @@
       <c r="J36" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="203"/>
-      <c r="P36" s="290"/>
-      <c r="Q36" s="291"/>
-      <c r="R36" s="290"/>
-      <c r="S36" s="292"/>
-      <c r="V36" s="293"/>
-      <c r="W36" s="293"/>
+      <c r="K36" s="228"/>
+      <c r="L36" s="228"/>
+      <c r="M36" s="230"/>
+      <c r="P36" s="209"/>
+      <c r="Q36" s="207"/>
+      <c r="R36" s="209"/>
+      <c r="S36" s="211"/>
+      <c r="V36" s="213"/>
+      <c r="W36" s="213"/>
     </row>
     <row r="37" spans="4:23" ht="62.5" x14ac:dyDescent="0.3">
-      <c r="D37" s="195"/>
-      <c r="E37" s="211"/>
+      <c r="D37" s="222"/>
+      <c r="E37" s="251"/>
       <c r="F37" s="117" t="s">
         <v>5</v>
       </c>
@@ -12422,19 +13506,19 @@
       <c r="J37" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K37" s="201"/>
-      <c r="L37" s="201"/>
-      <c r="M37" s="203"/>
-      <c r="P37" s="290"/>
-      <c r="Q37" s="291"/>
-      <c r="R37" s="290"/>
-      <c r="S37" s="292"/>
-      <c r="V37" s="293"/>
-      <c r="W37" s="293"/>
+      <c r="K37" s="228"/>
+      <c r="L37" s="228"/>
+      <c r="M37" s="230"/>
+      <c r="P37" s="209"/>
+      <c r="Q37" s="207"/>
+      <c r="R37" s="209"/>
+      <c r="S37" s="211"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
     </row>
     <row r="38" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D38" s="195"/>
-      <c r="E38" s="211"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="251"/>
       <c r="F38" s="117" t="s">
         <v>6</v>
       </c>
@@ -12450,19 +13534,19 @@
       <c r="J38" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="203"/>
-      <c r="P38" s="290"/>
-      <c r="Q38" s="291"/>
-      <c r="R38" s="290"/>
-      <c r="S38" s="292"/>
-      <c r="V38" s="293"/>
-      <c r="W38" s="293"/>
+      <c r="K38" s="228"/>
+      <c r="L38" s="228"/>
+      <c r="M38" s="230"/>
+      <c r="P38" s="209"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="209"/>
+      <c r="S38" s="211"/>
+      <c r="V38" s="213"/>
+      <c r="W38" s="213"/>
     </row>
     <row r="39" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D39" s="249"/>
-      <c r="E39" s="211"/>
+      <c r="E39" s="251"/>
       <c r="F39" s="117" t="s">
         <v>7</v>
       </c>
@@ -12478,21 +13562,21 @@
       <c r="J39" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="203"/>
-      <c r="P39" s="290"/>
-      <c r="Q39" s="291"/>
-      <c r="R39" s="290"/>
-      <c r="S39" s="292"/>
-      <c r="V39" s="293"/>
-      <c r="W39" s="293"/>
+      <c r="K39" s="228"/>
+      <c r="L39" s="228"/>
+      <c r="M39" s="230"/>
+      <c r="P39" s="209"/>
+      <c r="Q39" s="207"/>
+      <c r="R39" s="209"/>
+      <c r="S39" s="211"/>
+      <c r="V39" s="213"/>
+      <c r="W39" s="213"/>
     </row>
     <row r="40" spans="4:23" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="250">
+      <c r="D40" s="245">
         <v>5</v>
       </c>
-      <c r="E40" s="218" t="s">
+      <c r="E40" s="246" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="117" t="s">
@@ -12510,25 +13594,25 @@
       <c r="J40" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="K40" s="201" t="s">
+      <c r="K40" s="228" t="s">
         <v>419</v>
       </c>
-      <c r="L40" s="201" t="s">
+      <c r="L40" s="228" t="s">
         <v>420</v>
       </c>
-      <c r="M40" s="203" t="s">
+      <c r="M40" s="230" t="s">
         <v>421</v>
       </c>
-      <c r="P40" s="290"/>
-      <c r="Q40" s="291"/>
-      <c r="R40" s="290"/>
-      <c r="S40" s="292"/>
-      <c r="V40" s="293"/>
-      <c r="W40" s="293"/>
+      <c r="P40" s="209"/>
+      <c r="Q40" s="207"/>
+      <c r="R40" s="209"/>
+      <c r="S40" s="211"/>
+      <c r="V40" s="213"/>
+      <c r="W40" s="213"/>
     </row>
     <row r="41" spans="4:23" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="196"/>
-      <c r="E41" s="219"/>
+      <c r="D41" s="223"/>
+      <c r="E41" s="247"/>
       <c r="F41" s="118" t="s">
         <v>11</v>
       </c>
@@ -12544,42 +13628,42 @@
       <c r="J41" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="204"/>
-      <c r="P41" s="299"/>
-      <c r="Q41" s="300"/>
-      <c r="R41" s="299"/>
-      <c r="S41" s="301"/>
+      <c r="K41" s="229"/>
+      <c r="L41" s="229"/>
+      <c r="M41" s="231"/>
+      <c r="P41" s="210"/>
+      <c r="Q41" s="208"/>
+      <c r="R41" s="210"/>
+      <c r="S41" s="212"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="302"/>
-      <c r="W41" s="302"/>
+      <c r="V41" s="214"/>
+      <c r="W41" s="214"/>
     </row>
     <row r="42" spans="4:23" ht="188" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
       <c r="F42" s="110"/>
       <c r="G42" s="110"/>
-      <c r="H42" s="193" t="s">
+      <c r="H42" s="235" t="s">
         <v>162</v>
       </c>
-      <c r="I42" s="194"/>
+      <c r="I42" s="220"/>
       <c r="J42" s="110"/>
-      <c r="K42" s="193" t="s">
+      <c r="K42" s="235" t="s">
         <v>162</v>
       </c>
-      <c r="L42" s="194"/>
+      <c r="L42" s="220"/>
       <c r="M42" s="110"/>
     </row>
     <row r="43" spans="4:23" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="243">
+      <c r="D43" s="236">
         <v>6</v>
       </c>
-      <c r="E43" s="205" t="s">
+      <c r="E43" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="205"/>
+      <c r="F43" s="239"/>
       <c r="G43" s="18" t="s">
         <v>46</v>
       </c>
@@ -12592,40 +13676,40 @@
       <c r="J43" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="K43" s="212" t="s">
+      <c r="K43" s="242" t="s">
         <v>163</v>
       </c>
-      <c r="L43" s="212" t="s">
+      <c r="L43" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="M43" s="240" t="s">
+      <c r="M43" s="232" t="s">
         <v>425</v>
       </c>
-      <c r="P43" s="303">
+      <c r="P43" s="217">
         <v>0</v>
       </c>
-      <c r="Q43" s="304" t="s">
+      <c r="Q43" s="233" t="s">
         <v>426</v>
       </c>
-      <c r="R43" s="303">
+      <c r="R43" s="217">
         <v>1</v>
       </c>
-      <c r="S43" s="305" t="s">
+      <c r="S43" s="234" t="s">
         <v>427</v>
       </c>
-      <c r="T43" s="306"/>
-      <c r="U43" s="306"/>
-      <c r="V43" s="303">
+      <c r="T43" s="215"/>
+      <c r="U43" s="215"/>
+      <c r="V43" s="217">
         <v>1</v>
       </c>
-      <c r="W43" s="307" t="s">
+      <c r="W43" s="218" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="44" spans="4:23" ht="103.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="244"/>
-      <c r="E44" s="206"/>
-      <c r="F44" s="206"/>
+      <c r="D44" s="237"/>
+      <c r="E44" s="240"/>
+      <c r="F44" s="240"/>
       <c r="G44" s="13" t="s">
         <v>73</v>
       </c>
@@ -12638,22 +13722,22 @@
       <c r="J44" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K44" s="201"/>
-      <c r="L44" s="201"/>
-      <c r="M44" s="203"/>
-      <c r="P44" s="290"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="290"/>
-      <c r="S44" s="292"/>
-      <c r="T44" s="308"/>
-      <c r="U44" s="308"/>
-      <c r="V44" s="290"/>
-      <c r="W44" s="293"/>
+      <c r="K44" s="228"/>
+      <c r="L44" s="228"/>
+      <c r="M44" s="230"/>
+      <c r="P44" s="209"/>
+      <c r="Q44" s="139"/>
+      <c r="R44" s="209"/>
+      <c r="S44" s="211"/>
+      <c r="T44" s="216"/>
+      <c r="U44" s="216"/>
+      <c r="V44" s="209"/>
+      <c r="W44" s="213"/>
     </row>
     <row r="45" spans="4:23" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="244"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="240"/>
+      <c r="F45" s="240"/>
       <c r="G45" s="13" t="s">
         <v>152</v>
       </c>
@@ -12666,22 +13750,22 @@
       <c r="J45" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K45" s="201"/>
-      <c r="L45" s="201"/>
-      <c r="M45" s="203"/>
-      <c r="P45" s="290"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="290"/>
-      <c r="S45" s="292"/>
-      <c r="T45" s="308"/>
-      <c r="U45" s="308"/>
-      <c r="V45" s="290"/>
-      <c r="W45" s="293"/>
+      <c r="K45" s="228"/>
+      <c r="L45" s="228"/>
+      <c r="M45" s="230"/>
+      <c r="P45" s="209"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="209"/>
+      <c r="S45" s="211"/>
+      <c r="T45" s="216"/>
+      <c r="U45" s="216"/>
+      <c r="V45" s="209"/>
+      <c r="W45" s="213"/>
     </row>
     <row r="46" spans="4:23" ht="39.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="244"/>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="240"/>
+      <c r="F46" s="240"/>
       <c r="G46" s="13" t="s">
         <v>153</v>
       </c>
@@ -12694,22 +13778,22 @@
       <c r="J46" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K46" s="201"/>
-      <c r="L46" s="201"/>
-      <c r="M46" s="203"/>
-      <c r="P46" s="290"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="290"/>
-      <c r="S46" s="292"/>
-      <c r="T46" s="308"/>
-      <c r="U46" s="308"/>
-      <c r="V46" s="290"/>
-      <c r="W46" s="293"/>
+      <c r="K46" s="228"/>
+      <c r="L46" s="228"/>
+      <c r="M46" s="230"/>
+      <c r="P46" s="209"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="209"/>
+      <c r="S46" s="211"/>
+      <c r="T46" s="216"/>
+      <c r="U46" s="216"/>
+      <c r="V46" s="209"/>
+      <c r="W46" s="213"/>
     </row>
     <row r="47" spans="4:23" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="244"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="240"/>
+      <c r="F47" s="240"/>
       <c r="G47" s="13" t="s">
         <v>154</v>
       </c>
@@ -12722,22 +13806,22 @@
       <c r="J47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="203"/>
-      <c r="P47" s="290"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="290"/>
-      <c r="S47" s="292"/>
-      <c r="T47" s="308"/>
-      <c r="U47" s="308"/>
-      <c r="V47" s="290"/>
-      <c r="W47" s="293"/>
+      <c r="K47" s="228"/>
+      <c r="L47" s="228"/>
+      <c r="M47" s="230"/>
+      <c r="P47" s="209"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="209"/>
+      <c r="S47" s="211"/>
+      <c r="T47" s="216"/>
+      <c r="U47" s="216"/>
+      <c r="V47" s="209"/>
+      <c r="W47" s="213"/>
     </row>
     <row r="48" spans="4:23" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="244"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="240"/>
+      <c r="F48" s="240"/>
       <c r="G48" s="13" t="s">
         <v>155</v>
       </c>
@@ -12750,22 +13834,22 @@
       <c r="J48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="201"/>
-      <c r="L48" s="201"/>
-      <c r="M48" s="203"/>
-      <c r="P48" s="290"/>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="290"/>
-      <c r="S48" s="292"/>
-      <c r="T48" s="308"/>
-      <c r="U48" s="308"/>
-      <c r="V48" s="290"/>
-      <c r="W48" s="293"/>
+      <c r="K48" s="228"/>
+      <c r="L48" s="228"/>
+      <c r="M48" s="230"/>
+      <c r="P48" s="209"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="209"/>
+      <c r="S48" s="211"/>
+      <c r="T48" s="216"/>
+      <c r="U48" s="216"/>
+      <c r="V48" s="209"/>
+      <c r="W48" s="213"/>
     </row>
     <row r="49" spans="4:23" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="245"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
+      <c r="D49" s="238"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="241"/>
       <c r="G49" s="14" t="s">
         <v>156</v>
       </c>
@@ -12778,46 +13862,46 @@
       <c r="J49" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="K49" s="202"/>
-      <c r="L49" s="202"/>
-      <c r="M49" s="204"/>
-      <c r="P49" s="290"/>
-      <c r="Q49" s="125"/>
-      <c r="R49" s="290"/>
-      <c r="S49" s="292"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="308"/>
-      <c r="V49" s="290"/>
-      <c r="W49" s="293"/>
+      <c r="K49" s="229"/>
+      <c r="L49" s="229"/>
+      <c r="M49" s="231"/>
+      <c r="P49" s="209"/>
+      <c r="Q49" s="139"/>
+      <c r="R49" s="209"/>
+      <c r="S49" s="211"/>
+      <c r="T49" s="216"/>
+      <c r="U49" s="216"/>
+      <c r="V49" s="209"/>
+      <c r="W49" s="213"/>
     </row>
     <row r="50" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="208"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="194"/>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="194"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="194"/>
-      <c r="L50" s="194"/>
-      <c r="M50" s="209"/>
-      <c r="P50" s="295"/>
+      <c r="D50" s="219"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="220"/>
+      <c r="G50" s="220"/>
+      <c r="H50" s="220"/>
+      <c r="I50" s="220"/>
+      <c r="J50" s="220"/>
+      <c r="K50" s="220"/>
+      <c r="L50" s="220"/>
+      <c r="M50" s="221"/>
+      <c r="P50" s="132"/>
       <c r="Q50" s="115"/>
-      <c r="R50" s="295"/>
-      <c r="S50" s="309"/>
-      <c r="T50" s="310"/>
-      <c r="U50" s="310"/>
-      <c r="V50" s="295"/>
-      <c r="W50" s="311"/>
+      <c r="R50" s="132"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="136"/>
+      <c r="U50" s="136"/>
+      <c r="V50" s="132"/>
+      <c r="W50" s="137"/>
     </row>
     <row r="51" spans="4:23" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="195">
+      <c r="D51" s="222">
         <v>7</v>
       </c>
-      <c r="E51" s="197" t="s">
+      <c r="E51" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="198"/>
+      <c r="F51" s="225"/>
       <c r="G51" s="121" t="s">
         <v>48</v>
       </c>
@@ -12830,38 +13914,38 @@
       <c r="J51" s="122" t="s">
         <v>382</v>
       </c>
-      <c r="K51" s="201" t="s">
+      <c r="K51" s="228" t="s">
         <v>165</v>
       </c>
-      <c r="L51" s="201" t="s">
+      <c r="L51" s="228" t="s">
         <v>165</v>
       </c>
-      <c r="M51" s="203" t="s">
+      <c r="M51" s="230" t="s">
         <v>436</v>
       </c>
-      <c r="P51" s="290">
+      <c r="P51" s="209">
         <v>0</v>
       </c>
-      <c r="Q51" s="291" t="s">
+      <c r="Q51" s="207" t="s">
         <v>437</v>
       </c>
-      <c r="R51" s="290">
+      <c r="R51" s="209">
         <v>0</v>
       </c>
-      <c r="S51" s="292" t="s">
+      <c r="S51" s="211" t="s">
         <v>437</v>
       </c>
-      <c r="V51" s="293">
+      <c r="V51" s="213">
         <v>1</v>
       </c>
-      <c r="W51" s="293" t="s">
+      <c r="W51" s="213" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="52" spans="4:23" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="195"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="198"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="224"/>
+      <c r="F52" s="225"/>
       <c r="G52" s="13" t="s">
         <v>157</v>
       </c>
@@ -12874,20 +13958,20 @@
       <c r="J52" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="203"/>
-      <c r="P52" s="290"/>
-      <c r="Q52" s="291"/>
-      <c r="R52" s="290"/>
-      <c r="S52" s="292"/>
-      <c r="V52" s="293"/>
-      <c r="W52" s="293"/>
+      <c r="K52" s="228"/>
+      <c r="L52" s="228"/>
+      <c r="M52" s="230"/>
+      <c r="P52" s="209"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="209"/>
+      <c r="S52" s="211"/>
+      <c r="V52" s="213"/>
+      <c r="W52" s="213"/>
     </row>
     <row r="53" spans="4:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D53" s="195"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="198"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="224"/>
+      <c r="F53" s="225"/>
       <c r="G53" s="13" t="s">
         <v>158</v>
       </c>
@@ -12900,20 +13984,20 @@
       <c r="J53" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="203"/>
-      <c r="P53" s="290"/>
-      <c r="Q53" s="291"/>
-      <c r="R53" s="290"/>
-      <c r="S53" s="292"/>
-      <c r="V53" s="293"/>
-      <c r="W53" s="293"/>
+      <c r="K53" s="228"/>
+      <c r="L53" s="228"/>
+      <c r="M53" s="230"/>
+      <c r="P53" s="209"/>
+      <c r="Q53" s="207"/>
+      <c r="R53" s="209"/>
+      <c r="S53" s="211"/>
+      <c r="V53" s="213"/>
+      <c r="W53" s="213"/>
     </row>
     <row r="54" spans="4:23" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="195"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="198"/>
+      <c r="D54" s="222"/>
+      <c r="E54" s="224"/>
+      <c r="F54" s="225"/>
       <c r="G54" s="13" t="s">
         <v>159</v>
       </c>
@@ -12926,20 +14010,20 @@
       <c r="J54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="203"/>
-      <c r="P54" s="290"/>
-      <c r="Q54" s="291"/>
-      <c r="R54" s="290"/>
-      <c r="S54" s="292"/>
-      <c r="V54" s="293"/>
-      <c r="W54" s="293"/>
+      <c r="K54" s="228"/>
+      <c r="L54" s="228"/>
+      <c r="M54" s="230"/>
+      <c r="P54" s="209"/>
+      <c r="Q54" s="207"/>
+      <c r="R54" s="209"/>
+      <c r="S54" s="211"/>
+      <c r="V54" s="213"/>
+      <c r="W54" s="213"/>
     </row>
     <row r="55" spans="4:23" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="196"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="200"/>
+      <c r="D55" s="223"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="227"/>
       <c r="G55" s="14" t="s">
         <v>160</v>
       </c>
@@ -12952,17 +14036,17 @@
       <c r="J55" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="202"/>
-      <c r="L55" s="202"/>
-      <c r="M55" s="204"/>
-      <c r="P55" s="299"/>
-      <c r="Q55" s="300"/>
-      <c r="R55" s="299"/>
-      <c r="S55" s="301"/>
+      <c r="K55" s="229"/>
+      <c r="L55" s="229"/>
+      <c r="M55" s="231"/>
+      <c r="P55" s="210"/>
+      <c r="Q55" s="208"/>
+      <c r="R55" s="210"/>
+      <c r="S55" s="212"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="V55" s="302"/>
-      <c r="W55" s="302"/>
+      <c r="V55" s="214"/>
+      <c r="W55" s="214"/>
     </row>
     <row r="56" spans="4:23" x14ac:dyDescent="0.25">
       <c r="G56" s="8"/>
@@ -13005,11 +14089,76 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="Q51:Q55"/>
-    <mergeCell ref="R51:R55"/>
-    <mergeCell ref="S51:S55"/>
-    <mergeCell ref="V51:V55"/>
-    <mergeCell ref="W51:W55"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:F18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="W20:W23"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:F27"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:D39"/>
+    <mergeCell ref="E29:E39"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="K29:K39"/>
+    <mergeCell ref="L29:L39"/>
+    <mergeCell ref="M29:M39"/>
+    <mergeCell ref="V29:V41"/>
+    <mergeCell ref="W29:W41"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P29:P41"/>
+    <mergeCell ref="Q29:Q41"/>
+    <mergeCell ref="R29:R41"/>
+    <mergeCell ref="S29:S41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E43:F49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="L43:L49"/>
     <mergeCell ref="U43:U49"/>
     <mergeCell ref="V43:V49"/>
     <mergeCell ref="W43:W49"/>
@@ -13026,1104 +14175,15 @@
     <mergeCell ref="R43:R49"/>
     <mergeCell ref="S43:S49"/>
     <mergeCell ref="T43:T49"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E43:F49"/>
-    <mergeCell ref="K43:K49"/>
-    <mergeCell ref="L43:L49"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P29:P41"/>
-    <mergeCell ref="Q29:Q41"/>
-    <mergeCell ref="R29:R41"/>
-    <mergeCell ref="S29:S41"/>
-    <mergeCell ref="V29:V41"/>
-    <mergeCell ref="W29:W41"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:D39"/>
-    <mergeCell ref="E29:E39"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="K29:K39"/>
-    <mergeCell ref="L29:L39"/>
-    <mergeCell ref="M29:M39"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S20:S23"/>
-    <mergeCell ref="V20:V23"/>
-    <mergeCell ref="W20:W23"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:F27"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:F23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:F18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="Q51:Q55"/>
+    <mergeCell ref="R51:R55"/>
+    <mergeCell ref="S51:S55"/>
+    <mergeCell ref="V51:V55"/>
+    <mergeCell ref="W51:W55"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414FDF7-5A6B-4BCE-A2DC-50BEF8C30959}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K43"/>
-  <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.81640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="54.90625" style="70" customWidth="1"/>
-    <col min="3" max="4" width="1.81640625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="73.1796875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="59.81640625" style="70" customWidth="1"/>
-    <col min="7" max="9" width="59.6328125" style="70" customWidth="1"/>
-    <col min="10" max="10" width="59.54296875" style="70" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" style="70" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="70"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="257" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="257" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" s="276" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="257"/>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="K2" s="73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="259" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-    </row>
-    <row r="4" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="258"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="258"/>
-      <c r="B5" s="256" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="258"/>
-      <c r="B6" s="256" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="259" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="260" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="258"/>
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="J7" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="260"/>
-    </row>
-    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="258"/>
-      <c r="B8" s="256" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="K8" s="76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="258"/>
-      <c r="B9" s="261" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="255"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="263" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="258"/>
-      <c r="B10" s="262"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="J10" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="263"/>
-    </row>
-    <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="258"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="264"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="83"/>
-    </row>
-    <row r="12" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="258"/>
-      <c r="B12" s="256" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="265"/>
-      <c r="B13" s="265"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="265"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="255"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="84"/>
-    </row>
-    <row r="14" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="266" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="267" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="267"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="268" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" s="87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="266"/>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="269"/>
-      <c r="K15" s="83"/>
-    </row>
-    <row r="16" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="266"/>
-      <c r="B16" s="270" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="I16" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="J16" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="K16" s="87" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="266"/>
-      <c r="B17" s="270" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="270"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="271" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="272"/>
-      <c r="I17" s="272"/>
-      <c r="J17" s="272"/>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="18" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="266"/>
-      <c r="B18" s="270"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="H18" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="K18" s="87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="258" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="256" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="256"/>
-      <c r="D19" s="256"/>
-      <c r="E19" s="259" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="J19" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="K19" s="76" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="258"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="264"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="92"/>
-    </row>
-    <row r="21" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="258"/>
-      <c r="B21" s="256" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256" t="s">
-        <v>265</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="H21" s="78" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="K21" s="76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="258"/>
-      <c r="B22" s="256"/>
-      <c r="C22" s="256"/>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="264"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="92"/>
-    </row>
-    <row r="23" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="258"/>
-      <c r="B23" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="259" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="H23" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="I23" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="J23" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="K23" s="76" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="258"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="264"/>
-      <c r="G24" s="264"/>
-      <c r="H24" s="264"/>
-      <c r="I24" s="264"/>
-      <c r="J24" s="264"/>
-      <c r="K24" s="92"/>
-    </row>
-    <row r="25" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="258"/>
-      <c r="B25" s="256" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="F25" s="94" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="93" t="s">
-        <v>280</v>
-      </c>
-      <c r="I25" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="96" t="s">
-        <v>276</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="258"/>
-      <c r="B26" s="256" t="s">
-        <v>282</v>
-      </c>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="259" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" s="264"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="264"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="92"/>
-    </row>
-    <row r="27" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="258"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="G27" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="H27" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="J27" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="K27" s="76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="258"/>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="259"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="264"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="92"/>
-    </row>
-    <row r="29" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="258"/>
-      <c r="B29" s="256" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="H29" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="K29" s="76" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="280" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" s="270" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="F30" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" s="89" t="s">
-        <v>298</v>
-      </c>
-      <c r="J30" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="K30" s="87" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280"/>
-      <c r="B31" s="270" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="89" t="s">
-        <v>301</v>
-      </c>
-      <c r="F31" s="89" t="s">
-        <v>302</v>
-      </c>
-      <c r="G31" s="89" t="s">
-        <v>303</v>
-      </c>
-      <c r="H31" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="I31" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="J31" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="K31" s="87" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="280"/>
-      <c r="B32" s="270" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="89" t="s">
-        <v>308</v>
-      </c>
-      <c r="F32" s="89" t="s">
-        <v>309</v>
-      </c>
-      <c r="G32" s="89" t="s">
-        <v>310</v>
-      </c>
-      <c r="H32" s="89" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" s="89" t="s">
-        <v>312</v>
-      </c>
-      <c r="J32" s="90" t="s">
-        <v>313</v>
-      </c>
-      <c r="K32" s="87" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="280"/>
-      <c r="B33" s="270" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="89" t="s">
-        <v>315</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="H33" s="89" t="s">
-        <v>318</v>
-      </c>
-      <c r="I33" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="J33" s="90" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="277"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="277"/>
-      <c r="D34" s="277"/>
-      <c r="E34" s="277"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="272"/>
-      <c r="I34" s="272"/>
-      <c r="J34" s="272"/>
-      <c r="K34" s="84"/>
-    </row>
-    <row r="35" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="278" t="s">
-        <v>322</v>
-      </c>
-      <c r="B35" s="279" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" s="279"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="G35" s="80" t="s">
-        <v>326</v>
-      </c>
-      <c r="H35" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="I35" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="J35" s="75" t="s">
-        <v>329</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="278"/>
-      <c r="B36" s="256" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="256"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="G36" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="I36" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="J36" s="79" t="s">
-        <v>336</v>
-      </c>
-      <c r="K36" s="76" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="278"/>
-      <c r="B37" s="256" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="256"/>
-      <c r="D37" s="256"/>
-      <c r="E37" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="F37" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="G37" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="H37" s="78" t="s">
-        <v>340</v>
-      </c>
-      <c r="I37" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="J37" s="79" t="s">
-        <v>336</v>
-      </c>
-      <c r="K37" s="76" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="278"/>
-      <c r="B38" s="256" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="256"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="259" t="s">
-        <v>342</v>
-      </c>
-      <c r="F38" s="255"/>
-      <c r="G38" s="255"/>
-      <c r="H38" s="255"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
-      <c r="K38" s="76"/>
-    </row>
-    <row r="39" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="278"/>
-      <c r="B39" s="256"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="256"/>
-      <c r="E39" s="259"/>
-      <c r="F39" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="G39" s="80" t="s">
-        <v>344</v>
-      </c>
-      <c r="H39" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="I39" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="J39" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="273"/>
-      <c r="B40" s="273"/>
-      <c r="C40" s="273"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="273"/>
-      <c r="H40" s="273"/>
-      <c r="I40" s="273"/>
-      <c r="J40" s="273"/>
-    </row>
-    <row r="42" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="274"/>
-      <c r="B42" s="274"/>
-      <c r="C42" s="275"/>
-      <c r="D42" s="275"/>
-    </row>
-    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="274"/>
-      <c r="B43" s="274"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98"/>
-    </row>
-  </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B12:D12"/>
-  </mergeCells>
-  <printOptions gridLines="1"/>
-  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="27" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/master_thesis_IID-Framework/thesis_artefact_IID-framework_case_study.xlsx
+++ b/master_thesis_IID-Framework/thesis_artefact_IID-framework_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9809ED69-CAAF-4FBC-B4AB-670F9AACDDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7648CD-01F5-4AF5-867C-43617C141B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="3" activeTab="4" xr2:uid="{29F236B6-845E-4098-9933-AD023C8E1566}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" firstSheet="1" activeTab="4" xr2:uid="{29F236B6-845E-4098-9933-AD023C8E1566}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Overview_procedure" sheetId="10" r:id="rId1"/>
@@ -5714,88 +5714,11 @@
     <t xml:space="preserve">This method is much more concerned with the project aspects and provides assistance for them, but not fully. Here, too, the problem of integration into the organization is not addressed. </t>
   </si>
   <si>
-    <t>Factors [28]</t>
-  </si>
-  <si>
-    <t>Elements [28]</t>
-  </si>
-  <si>
-    <t>Definition/ Example [28]</t>
-  </si>
-  <si>
-    <t>1 Initial [28]</t>
-  </si>
-  <si>
-    <t>2 Rudimentary [28]</t>
-  </si>
-  <si>
-    <t>3 Standalone [28]</t>
-  </si>
-  <si>
-    <t>4 Systematic [28]</t>
-  </si>
-  <si>
-    <t>5 Optimizing [28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Proof-of-concept
-• enhance technical understanding of how to do PM [29]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• First analysis
-• some interesting insights [29]
-</t>
-  </si>
-  <si>
-    <t>• first full end-to-end process analysis [29]
-• analysis is linked to value stream KPIs [29]
-• root cause analysis is providing actionable insights [29]</t>
-  </si>
-  <si>
-    <t>• operationalised ETL (data pipeline) [29]
-• live data supports day-to-day process management [29]
-• process experts rely on analyses for their operations [29]</t>
-  </si>
-  <si>
-    <t>• predictive process analysis [29]
-•  stakeholders use PM for alerts &amp; forecasting [29]</t>
-  </si>
-  <si>
-    <t>•live process data triggers situationally aware automations [29]</t>
-  </si>
-  <si>
-    <t>The framework unifies a number of approaches for correlation analysis proposed in literature, proposing a general solution that can perform those analyses and many more [16].</t>
-  </si>
-  <si>
-    <t>A general framework for action-oriented PM that supports the continous management of operational processes and the automated execution of actions to improve the process [18].</t>
-  </si>
-  <si>
     <t>Phases/
 categories</t>
   </si>
   <si>
-    <t>Access to contextual information such as process models, business rules, policy documents, legal and regulatory requirements that can aid process mining [19], [20].</t>
-  </si>
-  <si>
     <t>manual task. But "random" Proess Analyses, like with the Proactive Insights Engine [65], may result in (new) research questions.</t>
-  </si>
-  <si>
-    <t>Identifying questions or project goal(s), selecting business processes to be mined and composing the project team to execute process mining initiatives [19].
-It is unclear what process properties are important [23].</t>
-  </si>
-  <si>
-    <t>The composition of teams and expert groups involved in process mining projects. Two main configurations namely: Established units: An internal team dedicated to ex-ecuting process mining initiatives. E.g., a Centre of Excellence (CoE). Ad-hoc units: A group of experts assembled from dif-ferent departments within the organisation to execute process mining projects as and when required [19].
-Lack of interdisciplinary and cross-functional teams: PM suffers from a lack of interdisciplinary and cross-functional teams covering sponsors, IT, and data specialists as well as business users and project managers [22].</t>
-  </si>
-  <si>
-    <t>The extent to which historical event data is available for process mining analysis [19].
-Constraining data access barriers: Limited data access across departmental and organizational boundaries restricts PM [22].
-The availability of event data needed for PM is limited [22].
-Restricting data privacy regulations: Compliance with data privacy and security regulations limits the detail of what can be discovered and analyzed through PM [22].
-Difficult handling of unstructured data: PM provides limited support for exploiting unstructured data that is not available in activity-based semantics or even format [22].
-There is an asymetry in terms of the permission to access and use of relevant data [23].
-Delays can occur due to data access, which is often tied to organizational barriers [23].</t>
   </si>
   <si>
     <t>Database crawler to find the belonging databases-, tables and entries,
@@ -5803,31 +5726,10 @@
 Web Scraping Applications [62]</t>
   </si>
   <si>
-    <t>The required data analytics expertise for the extraction and integration of event data for process mining [19].
-Teams who are responsible for data integration often have difficulties to obtain the data since they are not involved in the decision-making [23]</t>
-  </si>
-  <si>
-    <t>Determining the data extraction scope, extracting event data, and transferring process knowledge be-tween business experts and process analysts [19].</t>
-  </si>
-  <si>
-    <t>Provisions for the extraction and preparation of event data from single or multiple sources for process min-ing based on lessons learnt [19].
-Complex data preparation: Substantial effort is required for data extraction and pre-processing [22].
-There are data fractions when process run on different systems [23].</t>
-  </si>
-  <si>
     <t>Automated Event-log creation [63],
 PM4KNIME [64]</t>
   </si>
   <si>
-    <t>The data quality considerations and minimum requirements to be met by event logs for process mining [19], [20].
-Source or event data are often in accurate, noisy, and/or incomplete [22].</t>
-  </si>
-  <si>
-    <t>Applying process mining techniques to answer ques-tions and gain insights [20].
-Insufficient technical skills: The lack of sufficient training in technical skills required to implement PM is detrimental to setting up and conducting PM [22].
-Process managers miss information about how certain variables can inform decision-making [23].</t>
-  </si>
-  <si>
     <t>Proactive Insights Engine: From Process Discovery to Process Intelligence [65],
 Nirdizati: an Advanced Predictive Process Monitoring Toolkit [66]</t>
   </si>
@@ -5854,10 +5756,6 @@
     </r>
   </si>
   <si>
-    <t>Integration of process mining capabilities with other data analytics capabilities [19].
-Challenging (real-time) system integration: Insufficient real-time system connectivity or integration into existing IT infrastructure negatively impacts deriving insights through PM [22].</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5880,16 +5778,6 @@
     </r>
   </si>
   <si>
-    <t>The tool’s ability to analyse data for insights into sin-gle, multiple and E2E processes [19]
-Fragmented solutions: There is a lack of comprehensive PM solutions supporting a wide range of conceivable use cases [22].</t>
-  </si>
-  <si>
-    <t>Non-standard visualization techniques used in PM may lead to overcomplicated and hardly understandable business process models [22].</t>
-  </si>
-  <si>
-    <t>PM lacks advanced features such as automation, simulation, and data anonyimization [22].</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5912,13 +5800,6 @@
     </r>
   </si>
   <si>
-    <t>Automated process model discovery and process vis-ualisation from event data [19].
-Difficult analysis of process exceptions: PM lacks support for deriving insights from process exceptions [22].</t>
-  </si>
-  <si>
-    <t>Using process mining tools to create views, aggregate events, enrich or filter logs to generate the required insights from event logs [19].</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5941,9 +5822,6 @@
     </r>
   </si>
   <si>
-    <t>Detection of deviations from process norms using event data [19].</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5964,10 +5842,6 @@
       <t xml:space="preserve"> 
 Process Benchmarking</t>
     </r>
-  </si>
-  <si>
-    <t>Using event data for comparison of process behav-iours and process performance [19].
-Insufficient prescriptive capabilities: PM tools are limited regarding their prescriptive capabilities [22].</t>
   </si>
   <si>
     <t>Evaluation
@@ -5975,10 +5849,6 @@
 from process experts</t>
   </si>
   <si>
-    <t>Relating analysis results to improvement ideas to achieve project goals [19].
-One of the challenges in process mining projects is often that the process analysts are not domain experts for the process they are analysing [10], [57], which means that they may have difficulties determining the causes of unexpected analysis results.</t>
-  </si>
-  <si>
     <t>Insights with different views, prepared in an understandable way for the stakeholders (presentation, etc.) [29], direct suggestions for improvement which should be made</t>
   </si>
   <si>
@@ -5986,60 +5856,190 @@
 PM4KNIME [64]</t>
   </si>
   <si>
-    <t>Using gained insights to modify the actual process execution [19].</t>
-  </si>
-  <si>
-    <t>Top-Level Management/Senior Executives support [19], [20].
-Initiating, funding, and conducting PM initiatives requires a strong management commitment [22].
-Process managers need guidance to convince decision-makers [23].</t>
-  </si>
-  <si>
     <t>manual task,
 PM4KNIME [64]</t>
   </si>
   <si>
-    <t>Engagement with external collaborators or industry partners (such as suppliers) who influence an organisation’s business process and how they are executed [19].
-Transparency may lead to distrust and perceived surveillance [23].</t>
-  </si>
-  <si>
-    <t>SMEs of a particular business domain who contribute to process mining efforts [19].</t>
-  </si>
-  <si>
-    <t>The contribution of ultimate users (such as first-line personnel) to process mining outcomes [19].</t>
-  </si>
-  <si>
-    <t>The required know-how needed to execute process mining initiatives and interpret outcomes [19].</t>
-  </si>
-  <si>
-    <t>The required expertise for designing, streamlining, and re-engineering business processes [19], [20].
-Insufficient analytical skills: The lack of fundamental analytical skills, including business process modelling and optimization, impedes deriving value from PM [22].
-Insufficient domain expertise: The lack of comprehensive domain and business expertise inhibits the ability to customize PM as well as to adequately interpret the results [22].</t>
-  </si>
-  <si>
-    <t>The education and sensitisation of stakeholders on the appropriate execution of process mining initiatives for the intended results [19].
-Insufficient technical skills: The lack of sufficient training in technical skills required to implement PM is detrimental to setting up and conducting PM [22].</t>
-  </si>
-  <si>
-    <t>The series of activities that ensure that the needed change emanating from process mining results is im-plemented in the organisation [19].
-Unclear organizational anchoring: It is unclear how PM expertise should be anchored within the organization [22].
-It is important to cope with the increased transparency created through process mining [23].</t>
-  </si>
-  <si>
     <t>Artificial Intelligence Enabled Project Management [67]</t>
   </si>
   <si>
-    <t>The management of activities and resources, such as time and cost throughout all phases of the process mining project to obtain the defined project outcomes [19], [20].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is unknown which organizational setups and properties ensure an efficient and effective use of PM [22].
+    <t>Determining the data extraction scope, extracting event data, and transferring process knowledge be-tween business experts and process analysts [50].</t>
+  </si>
+  <si>
+    <t>Using process mining tools to create views, aggregate events, enrich or filter logs to generate the required insights from event logs [50].</t>
+  </si>
+  <si>
+    <t>Detection of deviations from process norms using event data [50].</t>
+  </si>
+  <si>
+    <t>Relating analysis results to improvement ideas to achieve project goals [50].
+One of the challenges in process mining projects is often that the process analysts are not domain experts for the process they are analysing [10], [57], which means that they may have difficulties determining the causes of unexpected analysis results.</t>
+  </si>
+  <si>
+    <t>Using gained insights to modify the actual process execution [50].</t>
+  </si>
+  <si>
+    <t>SMEs of a particular business domain who contribute to process mining efforts [50].</t>
+  </si>
+  <si>
+    <t>The contribution of ultimate users (such as first-line personnel) to process mining outcomes [50].</t>
+  </si>
+  <si>
+    <t>The required know-how needed to execute process mining initiatives and interpret outcomes [50].</t>
+  </si>
+  <si>
+    <t>Access to contextual information such as process models, business rules, policy documents, legal and regulatory requirements that can aid process mining [50], [51].</t>
+  </si>
+  <si>
+    <t>The management of activities and resources, such as time and cost throughout all phases of the process mining project to obtain the defined project outcomes [50], [51].</t>
+  </si>
+  <si>
+    <t>Identifying questions or project goal(s), selecting business processes to be mined and composing the project team to execute process mining initiatives [50].
+It is unclear what process properties are important [54].</t>
+  </si>
+  <si>
+    <t>The required data analytics expertise for the extraction and integration of event data for process mining [50].
+Teams who are responsible for data integration often have difficulties to obtain the data since they are not involved in the decision-making [54]</t>
+  </si>
+  <si>
+    <t>Engagement with external collaborators or industry partners (such as suppliers) who influence an organisation’s business process and how they are executed [50].
+Transparency may lead to distrust and perceived surveillance [54].</t>
+  </si>
+  <si>
+    <t>The composition of teams and expert groups involved in process mining projects. Two main configurations namely: Established units: An internal team dedicated to ex-ecuting process mining initiatives. E.g., a Centre of Excellence (CoE). Ad-hoc units: A group of experts assembled from dif-ferent departments within the organisation to execute process mining projects as and when required [50].
+Lack of interdisciplinary and cross-functional teams: PM suffers from a lack of interdisciplinary and cross-functional teams covering sponsors, IT, and data specialists as well as business users and project managers [53].</t>
+  </si>
+  <si>
+    <t>The extent to which historical event data is available for process mining analysis [50].
+Constraining data access barriers: Limited data access across departmental and organizational boundaries restricts PM [53].
+The availability of event data needed for PM is limited [53].
+Restricting data privacy regulations: Compliance with data privacy and security regulations limits the detail of what can be discovered and analyzed through PM [53].
+Difficult handling of unstructured data: PM provides limited support for exploiting unstructured data that is not available in activity-based semantics or even format [53].
+There is an asymetry in terms of the permission to access and use of relevant data [54].
+Delays can occur due to data access, which is often tied to organizational barriers [54].</t>
+  </si>
+  <si>
+    <t>Provisions for the extraction and preparation of event data from single or multiple sources for process min-ing based on lessons learnt [50].
+Complex data preparation: Substantial effort is required for data extraction and pre-processing [53].
+There are data fractions when process run on different systems [54].</t>
+  </si>
+  <si>
+    <t>The data quality considerations and minimum requirements to be met by event logs for process mining [50], [51].
+Source or event data are often in accurate, noisy, and/or incomplete [53].</t>
+  </si>
+  <si>
+    <t>Applying process mining techniques to answer ques-tions and gain insights [51].
+Insufficient technical skills: The lack of sufficient training in technical skills required to implement PM is detrimental to setting up and conducting PM [53].
+Process managers miss information about how certain variables can inform decision-making [54].</t>
+  </si>
+  <si>
+    <t>Integration of process mining capabilities with other data analytics capabilities [50].
+Challenging (real-time) system integration: Insufficient real-time system connectivity or integration into existing IT infrastructure negatively impacts deriving insights through PM [53].</t>
+  </si>
+  <si>
+    <t>The tool’s ability to analyse data for insights into sin-gle, multiple and E2E processes [50]
+Fragmented solutions: There is a lack of comprehensive PM solutions supporting a wide range of conceivable use cases [53].</t>
+  </si>
+  <si>
+    <t>Non-standard visualization techniques used in PM may lead to overcomplicated and hardly understandable business process models [53].</t>
+  </si>
+  <si>
+    <t>PM lacks advanced features such as automation, simulation, and data anonyimization [53].</t>
+  </si>
+  <si>
+    <t>Automated process model discovery and process vis-ualisation from event data [50].
+Difficult analysis of process exceptions: PM lacks support for deriving insights from process exceptions [53].</t>
+  </si>
+  <si>
+    <t>Using event data for comparison of process behav-iours and process performance [50].
+Insufficient prescriptive capabilities: PM tools are limited regarding their prescriptive capabilities [53].</t>
+  </si>
+  <si>
+    <t>Top-Level Management/Senior Executives support [50], [51].
+Initiating, funding, and conducting PM initiatives requires a strong management commitment [53].
+Process managers need guidance to convince decision-makers [54].</t>
+  </si>
+  <si>
+    <t>The required expertise for designing, streamlining, and re-engineering business processes [50], [51].
+Insufficient analytical skills: The lack of fundamental analytical skills, including business process modelling and optimization, impedes deriving value from PM [53].
+Insufficient domain expertise: The lack of comprehensive domain and business expertise inhibits the ability to customize PM as well as to adequately interpret the results [53].</t>
+  </si>
+  <si>
+    <t>The education and sensitisation of stakeholders on the appropriate execution of process mining initiatives for the intended results [50].
+Insufficient technical skills: The lack of sufficient training in technical skills required to implement PM is detrimental to setting up and conducting PM [53].</t>
+  </si>
+  <si>
+    <t>The series of activities that ensure that the needed change emanating from process mining results is im-plemented in the organisation [50].
+Unclear organizational anchoring: It is unclear how PM expertise should be anchored within the organization [53].
+It is important to cope with the increased transparency created through process mining [54].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is unknown which organizational setups and properties ensure an efficient and effective use of PM [53].
 </t>
   </si>
   <si>
-    <t>The business value of PM is difficult to determine with regard to the alignment of strategic and operational goals as well as the quantification of costs and benefits [22].
-Process managers do not know how to calculate the business value of PM activities [23].</t>
-  </si>
-  <si>
-    <t>There is a lack of comprehensive guidance on the implementation of PM for different organizations, domains, contexts, and strategic goals [22].</t>
+    <t>The business value of PM is difficult to determine with regard to the alignment of strategic and operational goals as well as the quantification of costs and benefits [53].
+Process managers do not know how to calculate the business value of PM activities [54].</t>
+  </si>
+  <si>
+    <t>There is a lack of comprehensive guidance on the implementation of PM for different organizations, domains, contexts, and strategic goals [53].</t>
+  </si>
+  <si>
+    <t>Factors [29]</t>
+  </si>
+  <si>
+    <t>Elements [29]</t>
+  </si>
+  <si>
+    <t>Definition/ Example [29]</t>
+  </si>
+  <si>
+    <t>1 Initial [29]</t>
+  </si>
+  <si>
+    <t>2 Rudimentary [29]</t>
+  </si>
+  <si>
+    <t>3 Standalone [29]</t>
+  </si>
+  <si>
+    <t>4 Systematic [29]</t>
+  </si>
+  <si>
+    <t>5 Optimizing [29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Proof-of-concept
+• enhance technical understanding of how to do PM [12]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• First analysis
+• some interesting insights [12]
+</t>
+  </si>
+  <si>
+    <t>• first full end-to-end process analysis [12]
+• analysis is linked to value stream KPIs [12]
+• root cause analysis is providing actionable insights [12]</t>
+  </si>
+  <si>
+    <t>• operationalised ETL (data pipeline) [12]
+• live data supports day-to-day process management [12]
+• process experts rely on analyses for their operations [12]</t>
+  </si>
+  <si>
+    <t>• predictive process analysis [12]
+•  stakeholders use PM for alerts &amp; forecasting [12]</t>
+  </si>
+  <si>
+    <t>•live process data triggers situationally aware automations [12]</t>
+  </si>
+  <si>
+    <t>A general framework for action-oriented PM that supports the continous management of operational processes and the automated execution of actions to improve the process [36].</t>
+  </si>
+  <si>
+    <t>The framework unifies a number of approaches for correlation analysis proposed in literature, proposing a general solution that can perform those analyses and many more [40].</t>
   </si>
 </sst>
 </file>
@@ -7276,12 +7276,246 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7327,32 +7561,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="54" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -7364,30 +7605,128 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="55" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7440,162 +7779,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7607,189 +7790,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8046,360 +8046,348 @@
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX1" fmla="*/ 1254921 w 28270200"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX2" fmla="*/ 1661736 w 28270200"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX3" fmla="*/ 2351253 w 28270200"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX4" fmla="*/ 3606174 w 28270200"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX5" fmla="*/ 4012989 w 28270200"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX6" fmla="*/ 5267910 w 28270200"/>
-            <a:gd name="connsiteY6" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX7" fmla="*/ 6522832 w 28270200"/>
-            <a:gd name="connsiteY7" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX8" fmla="*/ 7495051 w 28270200"/>
-            <a:gd name="connsiteY8" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX9" fmla="*/ 8467270 w 28270200"/>
-            <a:gd name="connsiteY9" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX10" fmla="*/ 8591383 w 28270200"/>
-            <a:gd name="connsiteY10" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX11" fmla="*/ 8715496 w 28270200"/>
-            <a:gd name="connsiteY11" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX12" fmla="*/ 8839609 w 28270200"/>
-            <a:gd name="connsiteY12" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX13" fmla="*/ 10094530 w 28270200"/>
-            <a:gd name="connsiteY13" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX14" fmla="*/ 10501345 w 28270200"/>
-            <a:gd name="connsiteY14" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX15" fmla="*/ 10342756 w 28270200"/>
-            <a:gd name="connsiteY15" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX16" fmla="*/ 11597677 w 28270200"/>
-            <a:gd name="connsiteY16" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX17" fmla="*/ 12287194 w 28270200"/>
-            <a:gd name="connsiteY17" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX18" fmla="*/ 12976711 w 28270200"/>
-            <a:gd name="connsiteY18" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX19" fmla="*/ 14231632 w 28270200"/>
-            <a:gd name="connsiteY19" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX20" fmla="*/ 14355745 w 28270200"/>
-            <a:gd name="connsiteY20" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX21" fmla="*/ 15610667 w 28270200"/>
-            <a:gd name="connsiteY21" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX22" fmla="*/ 15452078 w 28270200"/>
-            <a:gd name="connsiteY22" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX23" fmla="*/ 15576191 w 28270200"/>
-            <a:gd name="connsiteY23" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX24" fmla="*/ 15417602 w 28270200"/>
-            <a:gd name="connsiteY24" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX25" fmla="*/ 15824417 w 28270200"/>
-            <a:gd name="connsiteY25" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX26" fmla="*/ 17079338 w 28270200"/>
-            <a:gd name="connsiteY26" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX27" fmla="*/ 18051557 w 28270200"/>
-            <a:gd name="connsiteY27" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX28" fmla="*/ 18741074 w 28270200"/>
-            <a:gd name="connsiteY28" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX29" fmla="*/ 19995995 w 28270200"/>
-            <a:gd name="connsiteY29" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX30" fmla="*/ 20402810 w 28270200"/>
-            <a:gd name="connsiteY30" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX31" fmla="*/ 21092327 w 28270200"/>
-            <a:gd name="connsiteY31" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX32" fmla="*/ 21216440 w 28270200"/>
-            <a:gd name="connsiteY32" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX33" fmla="*/ 22188659 w 28270200"/>
-            <a:gd name="connsiteY33" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX34" fmla="*/ 22312772 w 28270200"/>
-            <a:gd name="connsiteY34" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX35" fmla="*/ 23002290 w 28270200"/>
-            <a:gd name="connsiteY35" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX36" fmla="*/ 23409105 w 28270200"/>
-            <a:gd name="connsiteY36" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX37" fmla="*/ 23815920 w 28270200"/>
-            <a:gd name="connsiteY37" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX38" fmla="*/ 24505437 w 28270200"/>
-            <a:gd name="connsiteY38" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX39" fmla="*/ 24912252 w 28270200"/>
-            <a:gd name="connsiteY39" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX40" fmla="*/ 25036365 w 28270200"/>
-            <a:gd name="connsiteY40" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX41" fmla="*/ 24877776 w 28270200"/>
-            <a:gd name="connsiteY41" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX42" fmla="*/ 25849995 w 28270200"/>
-            <a:gd name="connsiteY42" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX43" fmla="*/ 27104916 w 28270200"/>
-            <a:gd name="connsiteY43" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX44" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY44" fmla="*/ 0 h 21463000"/>
-            <a:gd name="connsiteX45" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY45" fmla="*/ 48465 h 21463000"/>
-            <a:gd name="connsiteX46" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY46" fmla="*/ 1170080 h 21463000"/>
-            <a:gd name="connsiteX47" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY47" fmla="*/ 2077065 h 21463000"/>
-            <a:gd name="connsiteX48" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY48" fmla="*/ 3198679 h 21463000"/>
-            <a:gd name="connsiteX49" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY49" fmla="*/ 4320294 h 21463000"/>
-            <a:gd name="connsiteX50" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY50" fmla="*/ 5227279 h 21463000"/>
-            <a:gd name="connsiteX51" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY51" fmla="*/ 6348894 h 21463000"/>
-            <a:gd name="connsiteX52" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY52" fmla="*/ 6397359 h 21463000"/>
-            <a:gd name="connsiteX53" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY53" fmla="*/ 6445824 h 21463000"/>
-            <a:gd name="connsiteX54" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY54" fmla="*/ 7567438 h 21463000"/>
-            <a:gd name="connsiteX55" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY55" fmla="*/ 8689053 h 21463000"/>
-            <a:gd name="connsiteX56" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY56" fmla="*/ 9596038 h 21463000"/>
-            <a:gd name="connsiteX57" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY57" fmla="*/ 10503023 h 21463000"/>
-            <a:gd name="connsiteX58" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY58" fmla="*/ 10980748 h 21463000"/>
-            <a:gd name="connsiteX59" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY59" fmla="*/ 11887733 h 21463000"/>
-            <a:gd name="connsiteX60" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY60" fmla="*/ 12365457 h 21463000"/>
-            <a:gd name="connsiteX61" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY61" fmla="*/ 12628552 h 21463000"/>
-            <a:gd name="connsiteX62" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY62" fmla="*/ 13106277 h 21463000"/>
-            <a:gd name="connsiteX63" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY63" fmla="*/ 13154742 h 21463000"/>
-            <a:gd name="connsiteX64" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY64" fmla="*/ 14061727 h 21463000"/>
-            <a:gd name="connsiteX65" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY65" fmla="*/ 14110192 h 21463000"/>
-            <a:gd name="connsiteX66" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY66" fmla="*/ 14802546 h 21463000"/>
-            <a:gd name="connsiteX67" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY67" fmla="*/ 14851011 h 21463000"/>
-            <a:gd name="connsiteX68" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY68" fmla="*/ 14899476 h 21463000"/>
-            <a:gd name="connsiteX69" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY69" fmla="*/ 15806461 h 21463000"/>
-            <a:gd name="connsiteX70" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY70" fmla="*/ 16284186 h 21463000"/>
-            <a:gd name="connsiteX71" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY71" fmla="*/ 16976541 h 21463000"/>
-            <a:gd name="connsiteX72" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY72" fmla="*/ 17454265 h 21463000"/>
-            <a:gd name="connsiteX73" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY73" fmla="*/ 17931990 h 21463000"/>
-            <a:gd name="connsiteX74" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY74" fmla="*/ 18409715 h 21463000"/>
-            <a:gd name="connsiteX75" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY75" fmla="*/ 19316700 h 21463000"/>
-            <a:gd name="connsiteX76" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY76" fmla="*/ 19579795 h 21463000"/>
-            <a:gd name="connsiteX77" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY77" fmla="*/ 20486780 h 21463000"/>
-            <a:gd name="connsiteX78" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY78" fmla="*/ 20535245 h 21463000"/>
-            <a:gd name="connsiteX79" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY79" fmla="*/ 20583709 h 21463000"/>
-            <a:gd name="connsiteX80" fmla="*/ 28270200 w 28270200"/>
-            <a:gd name="connsiteY80" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX81" fmla="*/ 28428789 w 28270200"/>
-            <a:gd name="connsiteY81" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX82" fmla="*/ 28021974 w 28270200"/>
-            <a:gd name="connsiteY82" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX83" fmla="*/ 27897861 w 28270200"/>
-            <a:gd name="connsiteY83" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX84" fmla="*/ 28056450 w 28270200"/>
-            <a:gd name="connsiteY84" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX85" fmla="*/ 27366933 w 28270200"/>
-            <a:gd name="connsiteY85" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX86" fmla="*/ 26112012 w 28270200"/>
-            <a:gd name="connsiteY86" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX87" fmla="*/ 26270600 w 28270200"/>
-            <a:gd name="connsiteY87" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX88" fmla="*/ 25298381 w 28270200"/>
-            <a:gd name="connsiteY88" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX89" fmla="*/ 24043460 w 28270200"/>
-            <a:gd name="connsiteY89" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX90" fmla="*/ 23919347 w 28270200"/>
-            <a:gd name="connsiteY90" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX91" fmla="*/ 24077936 w 28270200"/>
-            <a:gd name="connsiteY91" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX92" fmla="*/ 23388419 w 28270200"/>
-            <a:gd name="connsiteY92" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX93" fmla="*/ 23264306 w 28270200"/>
-            <a:gd name="connsiteY93" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX94" fmla="*/ 22009385 w 28270200"/>
-            <a:gd name="connsiteY94" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX95" fmla="*/ 21885272 w 28270200"/>
-            <a:gd name="connsiteY95" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX96" fmla="*/ 21478457 w 28270200"/>
-            <a:gd name="connsiteY96" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX97" fmla="*/ 21637046 w 28270200"/>
-            <a:gd name="connsiteY97" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX98" fmla="*/ 21795635 w 28270200"/>
-            <a:gd name="connsiteY98" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX99" fmla="*/ 21671522 w 28270200"/>
-            <a:gd name="connsiteY99" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX100" fmla="*/ 21830111 w 28270200"/>
-            <a:gd name="connsiteY100" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX101" fmla="*/ 21140593 w 28270200"/>
-            <a:gd name="connsiteY101" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX102" fmla="*/ 20451076 w 28270200"/>
-            <a:gd name="connsiteY102" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX103" fmla="*/ 20326963 w 28270200"/>
-            <a:gd name="connsiteY103" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX104" fmla="*/ 19920148 w 28270200"/>
-            <a:gd name="connsiteY104" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX105" fmla="*/ 19796035 w 28270200"/>
-            <a:gd name="connsiteY105" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX106" fmla="*/ 19389220 w 28270200"/>
-            <a:gd name="connsiteY106" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX107" fmla="*/ 18134299 w 28270200"/>
-            <a:gd name="connsiteY107" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX108" fmla="*/ 17162080 w 28270200"/>
-            <a:gd name="connsiteY108" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX109" fmla="*/ 17037967 w 28270200"/>
-            <a:gd name="connsiteY109" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX110" fmla="*/ 17196556 w 28270200"/>
-            <a:gd name="connsiteY110" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX111" fmla="*/ 17355145 w 28270200"/>
-            <a:gd name="connsiteY111" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX112" fmla="*/ 17513734 w 28270200"/>
-            <a:gd name="connsiteY112" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX113" fmla="*/ 17389621 w 28270200"/>
-            <a:gd name="connsiteY113" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX114" fmla="*/ 16417402 w 28270200"/>
-            <a:gd name="connsiteY114" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX115" fmla="*/ 15445182 w 28270200"/>
-            <a:gd name="connsiteY115" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX116" fmla="*/ 15603771 w 28270200"/>
-            <a:gd name="connsiteY116" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX117" fmla="*/ 14914254 w 28270200"/>
-            <a:gd name="connsiteY117" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX118" fmla="*/ 14224737 w 28270200"/>
-            <a:gd name="connsiteY118" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX119" fmla="*/ 13535220 w 28270200"/>
-            <a:gd name="connsiteY119" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX120" fmla="*/ 12845703 w 28270200"/>
-            <a:gd name="connsiteY120" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX121" fmla="*/ 12721590 w 28270200"/>
-            <a:gd name="connsiteY121" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX122" fmla="*/ 12880179 w 28270200"/>
-            <a:gd name="connsiteY122" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX123" fmla="*/ 13038768 w 28270200"/>
-            <a:gd name="connsiteY123" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX124" fmla="*/ 12914655 w 28270200"/>
-            <a:gd name="connsiteY124" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX125" fmla="*/ 11942436 w 28270200"/>
-            <a:gd name="connsiteY125" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX126" fmla="*/ 12101025 w 28270200"/>
-            <a:gd name="connsiteY126" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX127" fmla="*/ 11976912 w 28270200"/>
-            <a:gd name="connsiteY127" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX128" fmla="*/ 12135500 w 28270200"/>
-            <a:gd name="connsiteY128" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX129" fmla="*/ 11163281 w 28270200"/>
-            <a:gd name="connsiteY129" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX130" fmla="*/ 10191062 w 28270200"/>
-            <a:gd name="connsiteY130" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX131" fmla="*/ 8936141 w 28270200"/>
-            <a:gd name="connsiteY131" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX132" fmla="*/ 7681220 w 28270200"/>
-            <a:gd name="connsiteY132" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX133" fmla="*/ 6991703 w 28270200"/>
-            <a:gd name="connsiteY133" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX134" fmla="*/ 6019484 w 28270200"/>
-            <a:gd name="connsiteY134" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX135" fmla="*/ 5047265 w 28270200"/>
-            <a:gd name="connsiteY135" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX136" fmla="*/ 4923152 w 28270200"/>
-            <a:gd name="connsiteY136" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX137" fmla="*/ 4233635 w 28270200"/>
-            <a:gd name="connsiteY137" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX138" fmla="*/ 3544118 w 28270200"/>
-            <a:gd name="connsiteY138" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX139" fmla="*/ 2289197 w 28270200"/>
-            <a:gd name="connsiteY139" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX140" fmla="*/ 2165084 w 28270200"/>
-            <a:gd name="connsiteY140" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX141" fmla="*/ 1758269 w 28270200"/>
-            <a:gd name="connsiteY141" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX142" fmla="*/ 1068751 w 28270200"/>
-            <a:gd name="connsiteY142" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX143" fmla="*/ 1227340 w 28270200"/>
-            <a:gd name="connsiteY143" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX144" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY144" fmla="*/ 21463000 h 21463000"/>
-            <a:gd name="connsiteX145" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY145" fmla="*/ 20770645 h 21463000"/>
-            <a:gd name="connsiteX146" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY146" fmla="*/ 19649030 h 21463000"/>
-            <a:gd name="connsiteX147" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY147" fmla="*/ 19600565 h 21463000"/>
-            <a:gd name="connsiteX148" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY148" fmla="*/ 18478951 h 21463000"/>
-            <a:gd name="connsiteX149" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY149" fmla="*/ 17786596 h 21463000"/>
-            <a:gd name="connsiteX150" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY150" fmla="*/ 17738131 h 21463000"/>
-            <a:gd name="connsiteX151" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY151" fmla="*/ 17475036 h 21463000"/>
-            <a:gd name="connsiteX152" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY152" fmla="*/ 16353421 h 21463000"/>
-            <a:gd name="connsiteX153" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY153" fmla="*/ 15446436 h 21463000"/>
-            <a:gd name="connsiteX154" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY154" fmla="*/ 15183342 h 21463000"/>
-            <a:gd name="connsiteX155" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY155" fmla="*/ 14490987 h 21463000"/>
-            <a:gd name="connsiteX156" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY156" fmla="*/ 13369372 h 21463000"/>
-            <a:gd name="connsiteX157" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY157" fmla="*/ 13106277 h 21463000"/>
-            <a:gd name="connsiteX158" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY158" fmla="*/ 12199292 h 21463000"/>
-            <a:gd name="connsiteX159" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY159" fmla="*/ 11936197 h 21463000"/>
-            <a:gd name="connsiteX160" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY160" fmla="*/ 10814583 h 21463000"/>
-            <a:gd name="connsiteX161" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY161" fmla="*/ 10122228 h 21463000"/>
-            <a:gd name="connsiteX162" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY162" fmla="*/ 10073763 h 21463000"/>
-            <a:gd name="connsiteX163" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY163" fmla="*/ 9381408 h 21463000"/>
-            <a:gd name="connsiteX164" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY164" fmla="*/ 8903683 h 21463000"/>
-            <a:gd name="connsiteX165" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY165" fmla="*/ 7782068 h 21463000"/>
-            <a:gd name="connsiteX166" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY166" fmla="*/ 6875084 h 21463000"/>
-            <a:gd name="connsiteX167" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY167" fmla="*/ 6182729 h 21463000"/>
-            <a:gd name="connsiteX168" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY168" fmla="*/ 6134264 h 21463000"/>
-            <a:gd name="connsiteX169" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY169" fmla="*/ 5012649 h 21463000"/>
-            <a:gd name="connsiteX170" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY170" fmla="*/ 4320294 h 21463000"/>
-            <a:gd name="connsiteX171" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY171" fmla="*/ 3627939 h 21463000"/>
-            <a:gd name="connsiteX172" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY172" fmla="*/ 3364845 h 21463000"/>
-            <a:gd name="connsiteX173" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY173" fmla="*/ 3316380 h 21463000"/>
-            <a:gd name="connsiteX174" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY174" fmla="*/ 2194765 h 21463000"/>
-            <a:gd name="connsiteX175" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY175" fmla="*/ 1287780 h 21463000"/>
-            <a:gd name="connsiteX176" fmla="*/ 0 w 28270200"/>
-            <a:gd name="connsiteY176" fmla="*/ 0 h 21463000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX1" fmla="*/ 1204640 w 25615900"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX2" fmla="*/ 1640802 w 25615900"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX3" fmla="*/ 2333124 w 25615900"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX4" fmla="*/ 3537763 w 25615900"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX5" fmla="*/ 3973926 w 25615900"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX6" fmla="*/ 5178566 w 25615900"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX7" fmla="*/ 6383205 w 25615900"/>
+            <a:gd name="connsiteY7" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX8" fmla="*/ 7331686 w 25615900"/>
+            <a:gd name="connsiteY8" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX9" fmla="*/ 8280167 w 25615900"/>
+            <a:gd name="connsiteY9" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX10" fmla="*/ 8460170 w 25615900"/>
+            <a:gd name="connsiteY10" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX11" fmla="*/ 8640174 w 25615900"/>
+            <a:gd name="connsiteY11" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX12" fmla="*/ 8820177 w 25615900"/>
+            <a:gd name="connsiteY12" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX13" fmla="*/ 10024817 w 25615900"/>
+            <a:gd name="connsiteY13" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX14" fmla="*/ 10460980 w 25615900"/>
+            <a:gd name="connsiteY14" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX15" fmla="*/ 10384824 w 25615900"/>
+            <a:gd name="connsiteY15" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX16" fmla="*/ 11589464 w 25615900"/>
+            <a:gd name="connsiteY16" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX17" fmla="*/ 12281786 w 25615900"/>
+            <a:gd name="connsiteY17" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX18" fmla="*/ 12974107 w 25615900"/>
+            <a:gd name="connsiteY18" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX19" fmla="*/ 14178747 w 25615900"/>
+            <a:gd name="connsiteY19" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX20" fmla="*/ 14358750 w 25615900"/>
+            <a:gd name="connsiteY20" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX21" fmla="*/ 15563390 w 25615900"/>
+            <a:gd name="connsiteY21" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX22" fmla="*/ 15487235 w 25615900"/>
+            <a:gd name="connsiteY22" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX23" fmla="*/ 15667238 w 25615900"/>
+            <a:gd name="connsiteY23" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX24" fmla="*/ 15591083 w 25615900"/>
+            <a:gd name="connsiteY24" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX25" fmla="*/ 16027246 w 25615900"/>
+            <a:gd name="connsiteY25" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX26" fmla="*/ 17231885 w 25615900"/>
+            <a:gd name="connsiteY26" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX27" fmla="*/ 18180366 w 25615900"/>
+            <a:gd name="connsiteY27" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX28" fmla="*/ 18872687 w 25615900"/>
+            <a:gd name="connsiteY28" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX29" fmla="*/ 20077327 w 25615900"/>
+            <a:gd name="connsiteY29" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX30" fmla="*/ 20513490 w 25615900"/>
+            <a:gd name="connsiteY30" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX31" fmla="*/ 21205811 w 25615900"/>
+            <a:gd name="connsiteY31" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX32" fmla="*/ 21385815 w 25615900"/>
+            <a:gd name="connsiteY32" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX33" fmla="*/ 22334296 w 25615900"/>
+            <a:gd name="connsiteY33" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX34" fmla="*/ 22514299 w 25615900"/>
+            <a:gd name="connsiteY34" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX35" fmla="*/ 23206621 w 25615900"/>
+            <a:gd name="connsiteY35" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX36" fmla="*/ 23642783 w 25615900"/>
+            <a:gd name="connsiteY36" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX37" fmla="*/ 24078946 w 25615900"/>
+            <a:gd name="connsiteY37" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX38" fmla="*/ 24771268 w 25615900"/>
+            <a:gd name="connsiteY38" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX39" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY39" fmla="*/ 0 h 23247350"/>
+            <a:gd name="connsiteX40" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY40" fmla="*/ 218799 h 23247350"/>
+            <a:gd name="connsiteX41" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY41" fmla="*/ 1135018 h 23247350"/>
+            <a:gd name="connsiteX42" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY42" fmla="*/ 1121343 h 23247350"/>
+            <a:gd name="connsiteX43" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY43" fmla="*/ 2037562 h 23247350"/>
+            <a:gd name="connsiteX44" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY44" fmla="*/ 3186254 h 23247350"/>
+            <a:gd name="connsiteX45" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY45" fmla="*/ 3637527 h 23247350"/>
+            <a:gd name="connsiteX46" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY46" fmla="*/ 4786219 h 23247350"/>
+            <a:gd name="connsiteX47" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY47" fmla="*/ 5702438 h 23247350"/>
+            <a:gd name="connsiteX48" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY48" fmla="*/ 6851131 h 23247350"/>
+            <a:gd name="connsiteX49" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY49" fmla="*/ 7999823 h 23247350"/>
+            <a:gd name="connsiteX50" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY50" fmla="*/ 8916042 h 23247350"/>
+            <a:gd name="connsiteX51" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY51" fmla="*/ 10064735 h 23247350"/>
+            <a:gd name="connsiteX52" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY52" fmla="*/ 10051060 h 23247350"/>
+            <a:gd name="connsiteX53" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY53" fmla="*/ 10037385 h 23247350"/>
+            <a:gd name="connsiteX54" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY54" fmla="*/ 11186078 h 23247350"/>
+            <a:gd name="connsiteX55" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY55" fmla="*/ 12334770 h 23247350"/>
+            <a:gd name="connsiteX56" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY56" fmla="*/ 13250990 h 23247350"/>
+            <a:gd name="connsiteX57" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY57" fmla="*/ 14167209 h 23247350"/>
+            <a:gd name="connsiteX58" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY58" fmla="*/ 14618481 h 23247350"/>
+            <a:gd name="connsiteX59" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY59" fmla="*/ 15534700 h 23247350"/>
+            <a:gd name="connsiteX60" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY60" fmla="*/ 15985972 h 23247350"/>
+            <a:gd name="connsiteX61" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY61" fmla="*/ 16204770 h 23247350"/>
+            <a:gd name="connsiteX62" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY62" fmla="*/ 16656043 h 23247350"/>
+            <a:gd name="connsiteX63" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY63" fmla="*/ 16642368 h 23247350"/>
+            <a:gd name="connsiteX64" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY64" fmla="*/ 17558587 h 23247350"/>
+            <a:gd name="connsiteX65" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY65" fmla="*/ 17544912 h 23247350"/>
+            <a:gd name="connsiteX66" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY66" fmla="*/ 18228657 h 23247350"/>
+            <a:gd name="connsiteX67" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY67" fmla="*/ 18214982 h 23247350"/>
+            <a:gd name="connsiteX68" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY68" fmla="*/ 18201308 h 23247350"/>
+            <a:gd name="connsiteX69" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY69" fmla="*/ 19117527 h 23247350"/>
+            <a:gd name="connsiteX70" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY70" fmla="*/ 19568799 h 23247350"/>
+            <a:gd name="connsiteX71" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY71" fmla="*/ 20252544 h 23247350"/>
+            <a:gd name="connsiteX72" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY72" fmla="*/ 20703816 h 23247350"/>
+            <a:gd name="connsiteX73" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY73" fmla="*/ 21155089 h 23247350"/>
+            <a:gd name="connsiteX74" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY74" fmla="*/ 21606361 h 23247350"/>
+            <a:gd name="connsiteX75" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY75" fmla="*/ 22522580 h 23247350"/>
+            <a:gd name="connsiteX76" fmla="*/ 25615900 w 25615900"/>
+            <a:gd name="connsiteY76" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX77" fmla="*/ 24667419 w 25615900"/>
+            <a:gd name="connsiteY77" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX78" fmla="*/ 23718939 w 25615900"/>
+            <a:gd name="connsiteY78" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX79" fmla="*/ 23795094 w 25615900"/>
+            <a:gd name="connsiteY79" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX80" fmla="*/ 23615091 w 25615900"/>
+            <a:gd name="connsiteY80" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX81" fmla="*/ 22410451 w 25615900"/>
+            <a:gd name="connsiteY81" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX82" fmla="*/ 21974288 w 25615900"/>
+            <a:gd name="connsiteY82" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX83" fmla="*/ 21794285 w 25615900"/>
+            <a:gd name="connsiteY83" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX84" fmla="*/ 21870440 w 25615900"/>
+            <a:gd name="connsiteY84" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX85" fmla="*/ 21178118 w 25615900"/>
+            <a:gd name="connsiteY85" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX86" fmla="*/ 19973479 w 25615900"/>
+            <a:gd name="connsiteY86" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX87" fmla="*/ 20049634 w 25615900"/>
+            <a:gd name="connsiteY87" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX88" fmla="*/ 19101154 w 25615900"/>
+            <a:gd name="connsiteY88" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX89" fmla="*/ 17896514 w 25615900"/>
+            <a:gd name="connsiteY89" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX90" fmla="*/ 17716510 w 25615900"/>
+            <a:gd name="connsiteY90" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX91" fmla="*/ 17792666 w 25615900"/>
+            <a:gd name="connsiteY91" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX92" fmla="*/ 17100344 w 25615900"/>
+            <a:gd name="connsiteY92" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX93" fmla="*/ 16920340 w 25615900"/>
+            <a:gd name="connsiteY93" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX94" fmla="*/ 15715701 w 25615900"/>
+            <a:gd name="connsiteY94" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX95" fmla="*/ 15535697 w 25615900"/>
+            <a:gd name="connsiteY95" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX96" fmla="*/ 15099535 w 25615900"/>
+            <a:gd name="connsiteY96" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX97" fmla="*/ 15175690 w 25615900"/>
+            <a:gd name="connsiteY97" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX98" fmla="*/ 15251845 w 25615900"/>
+            <a:gd name="connsiteY98" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX99" fmla="*/ 15071842 w 25615900"/>
+            <a:gd name="connsiteY99" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX100" fmla="*/ 15147997 w 25615900"/>
+            <a:gd name="connsiteY100" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX101" fmla="*/ 14455675 w 25615900"/>
+            <a:gd name="connsiteY101" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX102" fmla="*/ 13763354 w 25615900"/>
+            <a:gd name="connsiteY102" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX103" fmla="*/ 13583350 w 25615900"/>
+            <a:gd name="connsiteY103" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX104" fmla="*/ 13147188 w 25615900"/>
+            <a:gd name="connsiteY104" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX105" fmla="*/ 12967184 w 25615900"/>
+            <a:gd name="connsiteY105" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX106" fmla="*/ 12531021 w 25615900"/>
+            <a:gd name="connsiteY106" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX107" fmla="*/ 11326382 w 25615900"/>
+            <a:gd name="connsiteY107" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX108" fmla="*/ 10377901 w 25615900"/>
+            <a:gd name="connsiteY108" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX109" fmla="*/ 10197897 w 25615900"/>
+            <a:gd name="connsiteY109" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX110" fmla="*/ 10274053 w 25615900"/>
+            <a:gd name="connsiteY110" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX111" fmla="*/ 10350208 w 25615900"/>
+            <a:gd name="connsiteY111" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX112" fmla="*/ 10426364 w 25615900"/>
+            <a:gd name="connsiteY112" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX113" fmla="*/ 10246360 w 25615900"/>
+            <a:gd name="connsiteY113" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX114" fmla="*/ 9297879 w 25615900"/>
+            <a:gd name="connsiteY114" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX115" fmla="*/ 8349399 w 25615900"/>
+            <a:gd name="connsiteY115" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX116" fmla="*/ 8425554 w 25615900"/>
+            <a:gd name="connsiteY116" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX117" fmla="*/ 7733233 w 25615900"/>
+            <a:gd name="connsiteY117" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX118" fmla="*/ 7040911 w 25615900"/>
+            <a:gd name="connsiteY118" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX119" fmla="*/ 6348589 w 25615900"/>
+            <a:gd name="connsiteY119" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX120" fmla="*/ 5656268 w 25615900"/>
+            <a:gd name="connsiteY120" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX121" fmla="*/ 5476264 w 25615900"/>
+            <a:gd name="connsiteY121" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX122" fmla="*/ 5552419 w 25615900"/>
+            <a:gd name="connsiteY122" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX123" fmla="*/ 5628575 w 25615900"/>
+            <a:gd name="connsiteY123" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX124" fmla="*/ 5448571 w 25615900"/>
+            <a:gd name="connsiteY124" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX125" fmla="*/ 4500091 w 25615900"/>
+            <a:gd name="connsiteY125" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX126" fmla="*/ 4576246 w 25615900"/>
+            <a:gd name="connsiteY126" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX127" fmla="*/ 4396242 w 25615900"/>
+            <a:gd name="connsiteY127" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX128" fmla="*/ 4472398 w 25615900"/>
+            <a:gd name="connsiteY128" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX129" fmla="*/ 3523917 w 25615900"/>
+            <a:gd name="connsiteY129" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX130" fmla="*/ 2575436 w 25615900"/>
+            <a:gd name="connsiteY130" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX131" fmla="*/ 1370797 w 25615900"/>
+            <a:gd name="connsiteY131" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX132" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY132" fmla="*/ 23247350 h 23247350"/>
+            <a:gd name="connsiteX133" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY133" fmla="*/ 22563604 h 23247350"/>
+            <a:gd name="connsiteX134" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY134" fmla="*/ 22577279 h 23247350"/>
+            <a:gd name="connsiteX135" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY135" fmla="*/ 21661060 h 23247350"/>
+            <a:gd name="connsiteX136" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY136" fmla="*/ 20744841 h 23247350"/>
+            <a:gd name="connsiteX137" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY137" fmla="*/ 20526043 h 23247350"/>
+            <a:gd name="connsiteX138" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY138" fmla="*/ 19609823 h 23247350"/>
+            <a:gd name="connsiteX139" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY139" fmla="*/ 18926078 h 23247350"/>
+            <a:gd name="connsiteX140" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY140" fmla="*/ 18707279 h 23247350"/>
+            <a:gd name="connsiteX141" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY141" fmla="*/ 17558587 h 23247350"/>
+            <a:gd name="connsiteX142" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY142" fmla="*/ 17572262 h 23247350"/>
+            <a:gd name="connsiteX143" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY143" fmla="*/ 17353463 h 23247350"/>
+            <a:gd name="connsiteX144" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY144" fmla="*/ 16437244 h 23247350"/>
+            <a:gd name="connsiteX145" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY145" fmla="*/ 16218445 h 23247350"/>
+            <a:gd name="connsiteX146" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY146" fmla="*/ 15069753 h 23247350"/>
+            <a:gd name="connsiteX147" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY147" fmla="*/ 15083428 h 23247350"/>
+            <a:gd name="connsiteX148" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY148" fmla="*/ 13934735 h 23247350"/>
+            <a:gd name="connsiteX149" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY149" fmla="*/ 13250989 h 23247350"/>
+            <a:gd name="connsiteX150" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY150" fmla="*/ 13264664 h 23247350"/>
+            <a:gd name="connsiteX151" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY151" fmla="*/ 13045866 h 23247350"/>
+            <a:gd name="connsiteX152" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY152" fmla="*/ 11897173 h 23247350"/>
+            <a:gd name="connsiteX153" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY153" fmla="*/ 10980954 h 23247350"/>
+            <a:gd name="connsiteX154" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY154" fmla="*/ 10762156 h 23247350"/>
+            <a:gd name="connsiteX155" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY155" fmla="*/ 10078410 h 23247350"/>
+            <a:gd name="connsiteX156" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY156" fmla="*/ 8929717 h 23247350"/>
+            <a:gd name="connsiteX157" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY157" fmla="*/ 8710919 h 23247350"/>
+            <a:gd name="connsiteX158" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY158" fmla="*/ 7794700 h 23247350"/>
+            <a:gd name="connsiteX159" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY159" fmla="*/ 7575901 h 23247350"/>
+            <a:gd name="connsiteX160" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY160" fmla="*/ 6427209 h 23247350"/>
+            <a:gd name="connsiteX161" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY161" fmla="*/ 5743463 h 23247350"/>
+            <a:gd name="connsiteX162" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY162" fmla="*/ 5757138 h 23247350"/>
+            <a:gd name="connsiteX163" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY163" fmla="*/ 5073392 h 23247350"/>
+            <a:gd name="connsiteX164" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY164" fmla="*/ 4622120 h 23247350"/>
+            <a:gd name="connsiteX165" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY165" fmla="*/ 3473428 h 23247350"/>
+            <a:gd name="connsiteX166" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY166" fmla="*/ 2557208 h 23247350"/>
+            <a:gd name="connsiteX167" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY167" fmla="*/ 1873463 h 23247350"/>
+            <a:gd name="connsiteX168" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY168" fmla="*/ 1887138 h 23247350"/>
+            <a:gd name="connsiteX169" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY169" fmla="*/ 738445 h 23247350"/>
+            <a:gd name="connsiteX170" fmla="*/ 0 w 25615900"/>
+            <a:gd name="connsiteY170" fmla="*/ 0 h 23247350"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -8916,909 +8904,861 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX170" y="connsiteY170"/>
             </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX171" y="connsiteY171"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX172" y="connsiteY172"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX173" y="connsiteY173"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX174" y="connsiteY174"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX175" y="connsiteY175"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX176" y="connsiteY176"/>
-            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="28270200" h="21463000" extrusionOk="0">
+            <a:path w="25615900" h="23247350" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="616223" y="-31100"/>
-                <a:pt x="999643" y="11827"/>
-                <a:pt x="1254921" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1510199" y="-11827"/>
-                <a:pt x="1497201" y="17477"/>
-                <a:pt x="1661736" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1826271" y="-17477"/>
-                <a:pt x="2182507" y="-25921"/>
-                <a:pt x="2351253" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2519999" y="25921"/>
-                <a:pt x="3069030" y="-48246"/>
-                <a:pt x="3606174" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4143318" y="48246"/>
-                <a:pt x="3815751" y="8026"/>
-                <a:pt x="4012989" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4210228" y="-8026"/>
-                <a:pt x="4647691" y="-29348"/>
-                <a:pt x="5267910" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5888129" y="29348"/>
-                <a:pt x="6238173" y="-29945"/>
-                <a:pt x="6522832" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6807491" y="29945"/>
-                <a:pt x="7167204" y="31563"/>
-                <a:pt x="7495051" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="7822898" y="-31563"/>
-                <a:pt x="8051338" y="-34335"/>
-                <a:pt x="8467270" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8883202" y="34335"/>
-                <a:pt x="8537324" y="1780"/>
-                <a:pt x="8591383" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8645442" y="-1780"/>
-                <a:pt x="8680426" y="2732"/>
-                <a:pt x="8715496" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8750566" y="-2732"/>
-                <a:pt x="8790190" y="-1559"/>
-                <a:pt x="8839609" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8889028" y="1559"/>
-                <a:pt x="9632589" y="20696"/>
-                <a:pt x="10094530" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="10556471" y="-20696"/>
-                <a:pt x="10314408" y="-10422"/>
-                <a:pt x="10501345" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="10314408" y="-10422"/>
-                <a:pt x="10380422" y="-1005"/>
-                <a:pt x="10342756" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="10380422" y="-1005"/>
-                <a:pt x="10993094" y="-21757"/>
-                <a:pt x="11597677" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12202260" y="21757"/>
-                <a:pt x="12021864" y="-3244"/>
-                <a:pt x="12287194" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12552524" y="3244"/>
-                <a:pt x="12716167" y="-24587"/>
-                <a:pt x="12976711" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="13237255" y="24587"/>
-                <a:pt x="13918721" y="-57192"/>
-                <a:pt x="14231632" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14544543" y="57192"/>
-                <a:pt x="14301803" y="3000"/>
-                <a:pt x="14355745" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14409687" y="-3000"/>
-                <a:pt x="15158307" y="43919"/>
-                <a:pt x="15610667" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15158307" y="43919"/>
-                <a:pt x="15522738" y="-4705"/>
-                <a:pt x="15452078" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15522738" y="-4705"/>
-                <a:pt x="15533662" y="-239"/>
-                <a:pt x="15576191" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15533662" y="-239"/>
-                <a:pt x="15457826" y="-2754"/>
-                <a:pt x="15417602" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15457826" y="-2754"/>
-                <a:pt x="15713997" y="17422"/>
-                <a:pt x="15824417" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15934837" y="-17422"/>
-                <a:pt x="16615425" y="19351"/>
-                <a:pt x="17079338" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17543251" y="-19351"/>
-                <a:pt x="17727309" y="10724"/>
-                <a:pt x="18051557" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="18375805" y="-10724"/>
-                <a:pt x="18482103" y="2816"/>
-                <a:pt x="18741074" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19000045" y="-2816"/>
-                <a:pt x="19486446" y="-53506"/>
-                <a:pt x="19995995" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20505544" y="53506"/>
-                <a:pt x="20272765" y="-16835"/>
-                <a:pt x="20402810" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20532856" y="16835"/>
-                <a:pt x="20826758" y="2203"/>
-                <a:pt x="21092327" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21357896" y="-2203"/>
-                <a:pt x="21155839" y="2042"/>
-                <a:pt x="21216440" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21277041" y="-2042"/>
-                <a:pt x="21815403" y="-36380"/>
-                <a:pt x="22188659" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="22561915" y="36380"/>
-                <a:pt x="22260480" y="3726"/>
-                <a:pt x="22312772" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="22365064" y="-3726"/>
-                <a:pt x="22829278" y="-17340"/>
-                <a:pt x="23002290" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23175302" y="17340"/>
-                <a:pt x="23262470" y="14273"/>
-                <a:pt x="23409105" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23555741" y="-14273"/>
-                <a:pt x="23708911" y="15410"/>
-                <a:pt x="23815920" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23922929" y="-15410"/>
-                <a:pt x="24261060" y="11770"/>
-                <a:pt x="24505437" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24749814" y="-11770"/>
-                <a:pt x="24817425" y="11006"/>
-                <a:pt x="24912252" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="25007079" y="-11006"/>
-                <a:pt x="25003552" y="-1727"/>
-                <a:pt x="25036365" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="25003552" y="-1727"/>
-                <a:pt x="24945647" y="-1062"/>
-                <a:pt x="24877776" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24945647" y="-1062"/>
-                <a:pt x="25587817" y="24509"/>
-                <a:pt x="25849995" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="26112173" y="-24509"/>
-                <a:pt x="26569255" y="-42329"/>
-                <a:pt x="27104916" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27640577" y="42329"/>
-                <a:pt x="27987548" y="21026"/>
-                <a:pt x="28270200" y="0"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269240" y="18338"/>
-                <a:pt x="28272044" y="33413"/>
-                <a:pt x="28270200" y="48465"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28268356" y="63517"/>
-                <a:pt x="28321671" y="924536"/>
-                <a:pt x="28270200" y="1170080"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28218729" y="1415625"/>
-                <a:pt x="28295089" y="1772110"/>
-                <a:pt x="28270200" y="2077065"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28245311" y="2382020"/>
-                <a:pt x="28227739" y="2885068"/>
-                <a:pt x="28270200" y="3198679"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28312661" y="3512290"/>
-                <a:pt x="28214120" y="3807912"/>
-                <a:pt x="28270200" y="4320294"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28326280" y="4832677"/>
-                <a:pt x="28274175" y="4872256"/>
-                <a:pt x="28270200" y="5227279"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28266225" y="5582302"/>
-                <a:pt x="28251334" y="5965070"/>
-                <a:pt x="28270200" y="6348894"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28289066" y="6732718"/>
-                <a:pt x="28269789" y="6383249"/>
-                <a:pt x="28270200" y="6397359"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28270611" y="6411469"/>
-                <a:pt x="28271678" y="6435179"/>
-                <a:pt x="28270200" y="6445824"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28268722" y="6456470"/>
-                <a:pt x="28321382" y="7090377"/>
-                <a:pt x="28270200" y="7567438"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28219018" y="8044499"/>
-                <a:pt x="28309698" y="8371431"/>
-                <a:pt x="28270200" y="8689053"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28230702" y="9006675"/>
-                <a:pt x="28234385" y="9276893"/>
-                <a:pt x="28270200" y="9596038"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28306015" y="9915184"/>
-                <a:pt x="28306022" y="10218004"/>
-                <a:pt x="28270200" y="10503023"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28234378" y="10788042"/>
-                <a:pt x="28251464" y="10761358"/>
-                <a:pt x="28270200" y="10980748"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28288936" y="11200138"/>
-                <a:pt x="28266358" y="11443245"/>
-                <a:pt x="28270200" y="11887733"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28274042" y="12332222"/>
-                <a:pt x="28287339" y="12261161"/>
-                <a:pt x="28270200" y="12365457"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28253061" y="12469753"/>
-                <a:pt x="28267809" y="12552180"/>
-                <a:pt x="28270200" y="12628552"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28272591" y="12704924"/>
-                <a:pt x="28294045" y="12916698"/>
-                <a:pt x="28270200" y="13106277"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28246355" y="13295856"/>
-                <a:pt x="28271219" y="13143852"/>
-                <a:pt x="28270200" y="13154742"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269181" y="13165632"/>
-                <a:pt x="28275196" y="13630558"/>
-                <a:pt x="28270200" y="14061727"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28265204" y="14492896"/>
-                <a:pt x="28269028" y="14090424"/>
-                <a:pt x="28270200" y="14110192"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28271372" y="14129961"/>
-                <a:pt x="28279648" y="14470000"/>
-                <a:pt x="28270200" y="14802546"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28260752" y="15135092"/>
-                <a:pt x="28272553" y="14829237"/>
-                <a:pt x="28270200" y="14851011"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28267847" y="14872786"/>
-                <a:pt x="28271483" y="14882392"/>
-                <a:pt x="28270200" y="14899476"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28268917" y="14916560"/>
-                <a:pt x="28242011" y="15445015"/>
-                <a:pt x="28270200" y="15806461"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28298389" y="16167908"/>
-                <a:pt x="28254852" y="16121814"/>
-                <a:pt x="28270200" y="16284186"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28285548" y="16446558"/>
-                <a:pt x="28269557" y="16825131"/>
-                <a:pt x="28270200" y="16976541"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28270843" y="17127952"/>
-                <a:pt x="28258757" y="17326024"/>
-                <a:pt x="28270200" y="17454265"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28281643" y="17582506"/>
-                <a:pt x="28273526" y="17747926"/>
-                <a:pt x="28270200" y="17931990"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28266874" y="18116054"/>
-                <a:pt x="28283277" y="18253124"/>
-                <a:pt x="28270200" y="18409715"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28257123" y="18566307"/>
-                <a:pt x="28253368" y="18972169"/>
-                <a:pt x="28270200" y="19316700"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28287032" y="19661231"/>
-                <a:pt x="28266129" y="19510193"/>
-                <a:pt x="28270200" y="19579795"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28274271" y="19649398"/>
-                <a:pt x="28315281" y="20044542"/>
-                <a:pt x="28270200" y="20486780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28225119" y="20929018"/>
-                <a:pt x="28271023" y="20516307"/>
-                <a:pt x="28270200" y="20535245"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269377" y="20554184"/>
-                <a:pt x="28270665" y="20565049"/>
-                <a:pt x="28270200" y="20583709"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28269735" y="20602369"/>
-                <a:pt x="28248140" y="21054488"/>
-                <a:pt x="28270200" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28303994" y="21459276"/>
-                <a:pt x="28370555" y="21470862"/>
-                <a:pt x="28428789" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28370555" y="21470862"/>
-                <a:pt x="28136357" y="21473463"/>
-                <a:pt x="28021974" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27907592" y="21452537"/>
-                <a:pt x="27955658" y="21459496"/>
-                <a:pt x="27897861" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27955658" y="21459496"/>
-                <a:pt x="27989880" y="21468684"/>
-                <a:pt x="28056450" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27989880" y="21468684"/>
-                <a:pt x="27689956" y="21470098"/>
-                <a:pt x="27366933" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="27043910" y="21455902"/>
-                <a:pt x="26611295" y="21442656"/>
-                <a:pt x="26112012" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="26611295" y="21442656"/>
-                <a:pt x="26236434" y="21460759"/>
-                <a:pt x="26270600" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="26236434" y="21460759"/>
-                <a:pt x="25650419" y="21433667"/>
-                <a:pt x="25298381" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24946343" y="21492333"/>
-                <a:pt x="24627435" y="21415960"/>
-                <a:pt x="24043460" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23459485" y="21510040"/>
-                <a:pt x="23958860" y="21465113"/>
-                <a:pt x="23919347" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23958860" y="21465113"/>
-                <a:pt x="24019017" y="21460690"/>
-                <a:pt x="24077936" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="24019017" y="21460690"/>
-                <a:pt x="23569112" y="21485572"/>
-                <a:pt x="23388419" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23207726" y="21440428"/>
-                <a:pt x="23301467" y="21457822"/>
-                <a:pt x="23264306" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23227145" y="21468178"/>
-                <a:pt x="22612719" y="21499273"/>
-                <a:pt x="22009385" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21406051" y="21426727"/>
-                <a:pt x="21944325" y="21463319"/>
-                <a:pt x="21885272" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21826219" y="21462681"/>
-                <a:pt x="21581864" y="21469270"/>
-                <a:pt x="21478457" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21581864" y="21469270"/>
-                <a:pt x="21598020" y="21467382"/>
-                <a:pt x="21637046" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21676072" y="21458618"/>
-                <a:pt x="21735729" y="21457549"/>
-                <a:pt x="21795635" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21735729" y="21457549"/>
-                <a:pt x="21697214" y="21457395"/>
-                <a:pt x="21671522" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21697214" y="21457395"/>
-                <a:pt x="21789314" y="21456793"/>
-                <a:pt x="21830111" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="21789314" y="21456793"/>
-                <a:pt x="21362532" y="21478439"/>
-                <a:pt x="21140593" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20918654" y="21447561"/>
-                <a:pt x="20617774" y="21464366"/>
-                <a:pt x="20451076" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20284378" y="21461634"/>
-                <a:pt x="20388500" y="21461379"/>
-                <a:pt x="20326963" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="20265426" y="21464621"/>
-                <a:pt x="20076958" y="21455080"/>
-                <a:pt x="19920148" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19763339" y="21470920"/>
-                <a:pt x="19836238" y="21468864"/>
-                <a:pt x="19796035" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19755832" y="21457136"/>
-                <a:pt x="19550278" y="21452942"/>
-                <a:pt x="19389220" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="19228162" y="21473058"/>
-                <a:pt x="18726351" y="21514267"/>
-                <a:pt x="18134299" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17542247" y="21411733"/>
-                <a:pt x="17457738" y="21479174"/>
-                <a:pt x="17162080" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="16866422" y="21446826"/>
-                <a:pt x="17081665" y="21469111"/>
-                <a:pt x="17037967" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17081665" y="21469111"/>
-                <a:pt x="17131726" y="21461922"/>
-                <a:pt x="17196556" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17261386" y="21464078"/>
-                <a:pt x="17321772" y="21455236"/>
-                <a:pt x="17355145" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17388518" y="21470764"/>
-                <a:pt x="17444613" y="21468097"/>
-                <a:pt x="17513734" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17444613" y="21468097"/>
-                <a:pt x="17426346" y="21463187"/>
-                <a:pt x="17389621" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="17352896" y="21462813"/>
-                <a:pt x="16859827" y="21451749"/>
-                <a:pt x="16417402" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15974977" y="21474251"/>
-                <a:pt x="15677835" y="21485430"/>
-                <a:pt x="15445182" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15677835" y="21485430"/>
-                <a:pt x="15567653" y="21463872"/>
-                <a:pt x="15603771" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="15567653" y="21463872"/>
-                <a:pt x="15160065" y="21475019"/>
-                <a:pt x="14914254" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14668443" y="21450981"/>
-                <a:pt x="14441550" y="21491690"/>
-                <a:pt x="14224737" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14007924" y="21434310"/>
-                <a:pt x="13857288" y="21492722"/>
-                <a:pt x="13535220" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="13213152" y="21433278"/>
-                <a:pt x="13042078" y="21429987"/>
-                <a:pt x="12845703" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12649328" y="21496013"/>
-                <a:pt x="12748599" y="21464979"/>
-                <a:pt x="12721590" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12748599" y="21464979"/>
-                <a:pt x="12829579" y="21459499"/>
-                <a:pt x="12880179" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12930779" y="21466501"/>
-                <a:pt x="12985835" y="21466280"/>
-                <a:pt x="13038768" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12985835" y="21466280"/>
-                <a:pt x="12955951" y="21466371"/>
-                <a:pt x="12914655" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12873359" y="21459629"/>
-                <a:pt x="12301043" y="21510657"/>
-                <a:pt x="11942436" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12301043" y="21510657"/>
-                <a:pt x="12042502" y="21455664"/>
-                <a:pt x="12101025" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12042502" y="21455664"/>
-                <a:pt x="12026834" y="21465707"/>
-                <a:pt x="11976912" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12026834" y="21465707"/>
-                <a:pt x="12080400" y="21457580"/>
-                <a:pt x="12135500" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12080400" y="21457580"/>
-                <a:pt x="11439805" y="21477279"/>
-                <a:pt x="11163281" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="10886757" y="21448721"/>
-                <a:pt x="10477443" y="21427495"/>
-                <a:pt x="10191062" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="9904681" y="21498505"/>
-                <a:pt x="9424298" y="21442878"/>
-                <a:pt x="8936141" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8447984" y="21483122"/>
-                <a:pt x="8053417" y="21457099"/>
-                <a:pt x="7681220" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="7309023" y="21468901"/>
-                <a:pt x="7233011" y="21473402"/>
-                <a:pt x="6991703" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6750395" y="21452598"/>
-                <a:pt x="6270380" y="21445929"/>
-                <a:pt x="6019484" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5768588" y="21480071"/>
-                <a:pt x="5279366" y="21479163"/>
-                <a:pt x="5047265" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4815164" y="21446837"/>
-                <a:pt x="4959052" y="21457231"/>
-                <a:pt x="4923152" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4887252" y="21468769"/>
-                <a:pt x="4464953" y="21469258"/>
-                <a:pt x="4233635" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4002317" y="21456742"/>
-                <a:pt x="3701160" y="21472162"/>
-                <a:pt x="3544118" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3387076" y="21453838"/>
-                <a:pt x="2659922" y="21511476"/>
-                <a:pt x="2289197" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1918472" y="21414524"/>
-                <a:pt x="2200884" y="21462791"/>
-                <a:pt x="2165084" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2129284" y="21463209"/>
-                <a:pt x="1944741" y="21464859"/>
-                <a:pt x="1758269" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1571798" y="21461141"/>
-                <a:pt x="1302605" y="21433443"/>
-                <a:pt x="1068751" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1302605" y="21433443"/>
-                <a:pt x="1162560" y="21455346"/>
-                <a:pt x="1227340" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1162560" y="21455346"/>
-                <a:pt x="389440" y="21511737"/>
-                <a:pt x="0" y="21463000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-30190" y="21123963"/>
-                <a:pt x="29061" y="20979313"/>
-                <a:pt x="0" y="20770645"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-29061" y="20561977"/>
-                <a:pt x="-13709" y="20100734"/>
-                <a:pt x="0" y="19649030"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="13709" y="19197327"/>
-                <a:pt x="2342" y="19620029"/>
-                <a:pt x="0" y="19600565"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-2342" y="19581101"/>
-                <a:pt x="12126" y="18737806"/>
-                <a:pt x="0" y="18478951"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-12126" y="18220096"/>
-                <a:pt x="26650" y="18015595"/>
-                <a:pt x="0" y="17786596"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-26650" y="17557597"/>
-                <a:pt x="-2010" y="17761816"/>
-                <a:pt x="0" y="17738131"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2010" y="17714447"/>
-                <a:pt x="9137" y="17571271"/>
-                <a:pt x="0" y="17475036"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-9137" y="17378801"/>
-                <a:pt x="55328" y="16653059"/>
-                <a:pt x="0" y="16353421"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-55328" y="16053783"/>
-                <a:pt x="-16206" y="15880262"/>
-                <a:pt x="0" y="15446436"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="16206" y="15012610"/>
-                <a:pt x="-5731" y="15307745"/>
-                <a:pt x="0" y="15183342"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5731" y="15058939"/>
-                <a:pt x="34285" y="14713910"/>
-                <a:pt x="0" y="14490987"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-34285" y="14268064"/>
-                <a:pt x="-49056" y="13918658"/>
-                <a:pt x="0" y="13369372"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="49056" y="12820086"/>
-                <a:pt x="5323" y="13211370"/>
-                <a:pt x="0" y="13106277"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-5323" y="13001185"/>
-                <a:pt x="-43504" y="12446791"/>
-                <a:pt x="0" y="12199292"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="43504" y="11951793"/>
-                <a:pt x="-8860" y="12053951"/>
-                <a:pt x="0" y="11936197"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8860" y="11818444"/>
-                <a:pt x="-2787" y="11241466"/>
-                <a:pt x="0" y="10814583"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2787" y="10387700"/>
-                <a:pt x="-28146" y="10322473"/>
-                <a:pt x="0" y="10122228"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="28146" y="9921984"/>
-                <a:pt x="1281" y="10096522"/>
-                <a:pt x="0" y="10073763"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1281" y="10051004"/>
-                <a:pt x="-8221" y="9591664"/>
-                <a:pt x="0" y="9381408"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="8221" y="9171152"/>
-                <a:pt x="18442" y="9068663"/>
-                <a:pt x="0" y="8903683"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-18442" y="8738703"/>
-                <a:pt x="39079" y="8120944"/>
-                <a:pt x="0" y="7782068"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-39079" y="7443193"/>
-                <a:pt x="-14402" y="7068954"/>
-                <a:pt x="0" y="6875084"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="14402" y="6681214"/>
-                <a:pt x="27165" y="6494688"/>
-                <a:pt x="0" y="6182729"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-27165" y="5870770"/>
-                <a:pt x="-1415" y="6157080"/>
-                <a:pt x="0" y="6134264"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1415" y="6111448"/>
-                <a:pt x="35588" y="5452053"/>
-                <a:pt x="0" y="5012649"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-35588" y="4573245"/>
-                <a:pt x="-4235" y="4656203"/>
-                <a:pt x="0" y="4320294"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4235" y="3984386"/>
-                <a:pt x="1453" y="3853519"/>
-                <a:pt x="0" y="3627939"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1453" y="3402359"/>
-                <a:pt x="-12685" y="3417636"/>
-                <a:pt x="0" y="3364845"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="12685" y="3312054"/>
-                <a:pt x="1873" y="3340555"/>
-                <a:pt x="0" y="3316380"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-1873" y="3292206"/>
-                <a:pt x="-39473" y="2664292"/>
-                <a:pt x="0" y="2194765"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="39473" y="1725238"/>
-                <a:pt x="41640" y="1498778"/>
-                <a:pt x="0" y="1287780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-41640" y="1076783"/>
-                <a:pt x="-18161" y="464420"/>
+                <a:pt x="573558" y="-44596"/>
+                <a:pt x="628824" y="-35290"/>
+                <a:pt x="1204640" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1780456" y="35290"/>
+                <a:pt x="1550170" y="-21537"/>
+                <a:pt x="1640802" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1731434" y="21537"/>
+                <a:pt x="2032015" y="-11851"/>
+                <a:pt x="2333124" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2634233" y="11851"/>
+                <a:pt x="2970000" y="45389"/>
+                <a:pt x="3537763" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4105526" y="-45389"/>
+                <a:pt x="3807905" y="10929"/>
+                <a:pt x="3973926" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4139947" y="-10929"/>
+                <a:pt x="4636402" y="35798"/>
+                <a:pt x="5178566" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5720730" y="-35798"/>
+                <a:pt x="5834077" y="21415"/>
+                <a:pt x="6383205" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6932333" y="-21415"/>
+                <a:pt x="6871811" y="22916"/>
+                <a:pt x="7331686" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7791561" y="-22916"/>
+                <a:pt x="7948571" y="-39074"/>
+                <a:pt x="8280167" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8611763" y="39074"/>
+                <a:pt x="8389068" y="-6920"/>
+                <a:pt x="8460170" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8531272" y="6920"/>
+                <a:pt x="8566649" y="861"/>
+                <a:pt x="8640174" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8713699" y="-861"/>
+                <a:pt x="8733622" y="1529"/>
+                <a:pt x="8820177" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8906732" y="-1529"/>
+                <a:pt x="9591734" y="-21324"/>
+                <a:pt x="10024817" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10457900" y="21324"/>
+                <a:pt x="10329890" y="-2156"/>
+                <a:pt x="10460980" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10329890" y="-2156"/>
+                <a:pt x="10419315" y="-464"/>
+                <a:pt x="10384824" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10419315" y="-464"/>
+                <a:pt x="11052835" y="25976"/>
+                <a:pt x="11589464" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12126093" y="-25976"/>
+                <a:pt x="12069601" y="18379"/>
+                <a:pt x="12281786" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12493971" y="-18379"/>
+                <a:pt x="12714095" y="-9519"/>
+                <a:pt x="12974107" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13234119" y="9519"/>
+                <a:pt x="13626634" y="-9119"/>
+                <a:pt x="14178747" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14730860" y="9119"/>
+                <a:pt x="14315000" y="-5272"/>
+                <a:pt x="14358750" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14402500" y="5272"/>
+                <a:pt x="15036104" y="-43262"/>
+                <a:pt x="15563390" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15036104" y="-43262"/>
+                <a:pt x="15515798" y="-1844"/>
+                <a:pt x="15487235" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15515798" y="-1844"/>
+                <a:pt x="15590828" y="7952"/>
+                <a:pt x="15667238" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15590828" y="7952"/>
+                <a:pt x="15619569" y="3342"/>
+                <a:pt x="15591083" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15619569" y="3342"/>
+                <a:pt x="15837662" y="14362"/>
+                <a:pt x="16027246" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="16216830" y="-14362"/>
+                <a:pt x="16699462" y="12003"/>
+                <a:pt x="17231885" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17764308" y="-12003"/>
+                <a:pt x="17885298" y="40731"/>
+                <a:pt x="18180366" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18475434" y="-40731"/>
+                <a:pt x="18708771" y="13840"/>
+                <a:pt x="18872687" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19036603" y="-13840"/>
+                <a:pt x="19720768" y="-23691"/>
+                <a:pt x="20077327" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20433886" y="23691"/>
+                <a:pt x="20297937" y="-17268"/>
+                <a:pt x="20513490" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20729043" y="17268"/>
+                <a:pt x="20910944" y="21144"/>
+                <a:pt x="21205811" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21500678" y="-21144"/>
+                <a:pt x="21303154" y="5970"/>
+                <a:pt x="21385815" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21468476" y="-5970"/>
+                <a:pt x="22035818" y="-16979"/>
+                <a:pt x="22334296" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22632774" y="16979"/>
+                <a:pt x="22442772" y="6751"/>
+                <a:pt x="22514299" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22585826" y="-6751"/>
+                <a:pt x="23023222" y="-26876"/>
+                <a:pt x="23206621" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23390020" y="26876"/>
+                <a:pt x="23433604" y="10495"/>
+                <a:pt x="23642783" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23851962" y="-10495"/>
+                <a:pt x="23988832" y="-9695"/>
+                <a:pt x="24078946" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24169060" y="9695"/>
+                <a:pt x="24569176" y="13702"/>
+                <a:pt x="24771268" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24973360" y="-13702"/>
+                <a:pt x="25239758" y="1511"/>
+                <a:pt x="25615900" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25621010" y="75928"/>
+                <a:pt x="25625008" y="152915"/>
+                <a:pt x="25615900" y="218799"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25606792" y="284683"/>
+                <a:pt x="25593262" y="700926"/>
+                <a:pt x="25615900" y="1135018"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25593262" y="700926"/>
+                <a:pt x="25616478" y="1125015"/>
+                <a:pt x="25615900" y="1121343"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25616478" y="1125015"/>
+                <a:pt x="25647412" y="1667575"/>
+                <a:pt x="25615900" y="2037562"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25584388" y="2407549"/>
+                <a:pt x="25619388" y="2623843"/>
+                <a:pt x="25615900" y="3186254"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25612412" y="3748665"/>
+                <a:pt x="25636709" y="3490444"/>
+                <a:pt x="25615900" y="3637527"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25595091" y="3784610"/>
+                <a:pt x="25655560" y="4550870"/>
+                <a:pt x="25615900" y="4786219"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25576240" y="5021568"/>
+                <a:pt x="25591789" y="5371101"/>
+                <a:pt x="25615900" y="5702438"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25640011" y="6033775"/>
+                <a:pt x="25594016" y="6601026"/>
+                <a:pt x="25615900" y="6851131"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25637784" y="7101236"/>
+                <a:pt x="25574783" y="7569064"/>
+                <a:pt x="25615900" y="7999823"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25657017" y="8430582"/>
+                <a:pt x="25572304" y="8599259"/>
+                <a:pt x="25615900" y="8916042"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25659496" y="9232825"/>
+                <a:pt x="25622883" y="9804340"/>
+                <a:pt x="25615900" y="10064735"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25622883" y="9804340"/>
+                <a:pt x="25615737" y="10054539"/>
+                <a:pt x="25615900" y="10051060"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25616063" y="10047582"/>
+                <a:pt x="25615575" y="10041556"/>
+                <a:pt x="25615900" y="10037385"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25615575" y="10041556"/>
+                <a:pt x="25577147" y="10911181"/>
+                <a:pt x="25615900" y="11186078"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25654653" y="11460975"/>
+                <a:pt x="25601795" y="12041141"/>
+                <a:pt x="25615900" y="12334770"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25630005" y="12628399"/>
+                <a:pt x="25581571" y="12950047"/>
+                <a:pt x="25615900" y="13250990"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25650229" y="13551933"/>
+                <a:pt x="25596938" y="13827186"/>
+                <a:pt x="25615900" y="14167209"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25634862" y="14507232"/>
+                <a:pt x="25597606" y="14452768"/>
+                <a:pt x="25615900" y="14618481"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25634194" y="14784194"/>
+                <a:pt x="25650439" y="15254973"/>
+                <a:pt x="25615900" y="15534700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25581361" y="15814427"/>
+                <a:pt x="25596707" y="15833872"/>
+                <a:pt x="25615900" y="15985972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25635093" y="16138072"/>
+                <a:pt x="25625827" y="16136033"/>
+                <a:pt x="25615900" y="16204770"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25605973" y="16273507"/>
+                <a:pt x="25625805" y="16550403"/>
+                <a:pt x="25615900" y="16656043"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25625805" y="16550403"/>
+                <a:pt x="25616486" y="16647450"/>
+                <a:pt x="25615900" y="16642368"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25616486" y="16647450"/>
+                <a:pt x="25609758" y="17272497"/>
+                <a:pt x="25615900" y="17558587"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25609758" y="17272497"/>
+                <a:pt x="25615689" y="17551620"/>
+                <a:pt x="25615900" y="17544912"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25615689" y="17551620"/>
+                <a:pt x="25647216" y="18060769"/>
+                <a:pt x="25615900" y="18228657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25647216" y="18060769"/>
+                <a:pt x="25616292" y="18219436"/>
+                <a:pt x="25615900" y="18214982"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25615508" y="18210528"/>
+                <a:pt x="25615870" y="18205445"/>
+                <a:pt x="25615900" y="18201308"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25615870" y="18205445"/>
+                <a:pt x="25658636" y="18687155"/>
+                <a:pt x="25615900" y="19117527"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25573164" y="19547899"/>
+                <a:pt x="25603801" y="19430275"/>
+                <a:pt x="25615900" y="19568799"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25627999" y="19707323"/>
+                <a:pt x="25627293" y="20013280"/>
+                <a:pt x="25615900" y="20252544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25604507" y="20491808"/>
+                <a:pt x="25618178" y="20601564"/>
+                <a:pt x="25615900" y="20703816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25613622" y="20806068"/>
+                <a:pt x="25624870" y="21063644"/>
+                <a:pt x="25615900" y="21155089"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25606930" y="21246534"/>
+                <a:pt x="25621030" y="21424834"/>
+                <a:pt x="25615900" y="21606361"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25610770" y="21787888"/>
+                <a:pt x="25611703" y="22201239"/>
+                <a:pt x="25615900" y="22522580"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25620097" y="22843921"/>
+                <a:pt x="25626744" y="22911480"/>
+                <a:pt x="25615900" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25170913" y="23213162"/>
+                <a:pt x="25050674" y="23219707"/>
+                <a:pt x="24667419" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24284164" y="23274993"/>
+                <a:pt x="24005854" y="23222168"/>
+                <a:pt x="23718939" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24005854" y="23222168"/>
+                <a:pt x="23774117" y="23244337"/>
+                <a:pt x="23795094" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23774117" y="23244337"/>
+                <a:pt x="23653116" y="23241516"/>
+                <a:pt x="23615091" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23577066" y="23253184"/>
+                <a:pt x="22841385" y="23297182"/>
+                <a:pt x="22410451" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21979517" y="23197518"/>
+                <a:pt x="22152670" y="23236244"/>
+                <a:pt x="21974288" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21795906" y="23258456"/>
+                <a:pt x="21842449" y="23255486"/>
+                <a:pt x="21794285" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21842449" y="23255486"/>
+                <a:pt x="21836716" y="23244485"/>
+                <a:pt x="21870440" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21836716" y="23244485"/>
+                <a:pt x="21443787" y="23233549"/>
+                <a:pt x="21178118" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20912449" y="23261151"/>
+                <a:pt x="20565921" y="23262007"/>
+                <a:pt x="19973479" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20565921" y="23262007"/>
+                <a:pt x="20018525" y="23244385"/>
+                <a:pt x="20049634" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20018525" y="23244385"/>
+                <a:pt x="19523553" y="23223205"/>
+                <a:pt x="19101154" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18678755" y="23271495"/>
+                <a:pt x="18252118" y="23274815"/>
+                <a:pt x="17896514" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17540910" y="23219885"/>
+                <a:pt x="17774302" y="23239095"/>
+                <a:pt x="17716510" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17774302" y="23239095"/>
+                <a:pt x="17765334" y="23248335"/>
+                <a:pt x="17792666" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17765334" y="23248335"/>
+                <a:pt x="17356946" y="23253283"/>
+                <a:pt x="17100344" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="16843742" y="23241417"/>
+                <a:pt x="16999735" y="23250908"/>
+                <a:pt x="16920340" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="16840945" y="23243792"/>
+                <a:pt x="15977048" y="23196938"/>
+                <a:pt x="15715701" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15454354" y="23297762"/>
+                <a:pt x="15609207" y="23240024"/>
+                <a:pt x="15535697" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15462187" y="23254676"/>
+                <a:pt x="15193127" y="23248103"/>
+                <a:pt x="15099535" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15193127" y="23248103"/>
+                <a:pt x="15145944" y="23246893"/>
+                <a:pt x="15175690" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15205437" y="23247807"/>
+                <a:pt x="15230875" y="23244480"/>
+                <a:pt x="15251845" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15230875" y="23244480"/>
+                <a:pt x="15121312" y="23248713"/>
+                <a:pt x="15071842" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15121312" y="23248713"/>
+                <a:pt x="15126751" y="23247877"/>
+                <a:pt x="15147997" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15126751" y="23247877"/>
+                <a:pt x="14748018" y="23225206"/>
+                <a:pt x="14455675" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14163332" y="23269494"/>
+                <a:pt x="13957129" y="23273331"/>
+                <a:pt x="13763354" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13569579" y="23221369"/>
+                <a:pt x="13655272" y="23239942"/>
+                <a:pt x="13583350" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13511428" y="23254758"/>
+                <a:pt x="13360517" y="23228385"/>
+                <a:pt x="13147188" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12933859" y="23266315"/>
+                <a:pt x="13049372" y="23251735"/>
+                <a:pt x="12967184" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12884996" y="23242965"/>
+                <a:pt x="12623729" y="23267916"/>
+                <a:pt x="12531021" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12438313" y="23226784"/>
+                <a:pt x="11630235" y="23212959"/>
+                <a:pt x="11326382" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11022529" y="23281741"/>
+                <a:pt x="10582821" y="23258855"/>
+                <a:pt x="10377901" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10172981" y="23235845"/>
+                <a:pt x="10263192" y="23245945"/>
+                <a:pt x="10197897" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10263192" y="23245945"/>
+                <a:pt x="10247885" y="23248623"/>
+                <a:pt x="10274053" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10300221" y="23246077"/>
+                <a:pt x="10328280" y="23248251"/>
+                <a:pt x="10350208" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10372137" y="23246449"/>
+                <a:pt x="10407558" y="23250514"/>
+                <a:pt x="10426364" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10407558" y="23250514"/>
+                <a:pt x="10290829" y="23251402"/>
+                <a:pt x="10246360" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10201891" y="23243298"/>
+                <a:pt x="9762813" y="23231110"/>
+                <a:pt x="9297879" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8832945" y="23263590"/>
+                <a:pt x="8594528" y="23246103"/>
+                <a:pt x="8349399" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8594528" y="23246103"/>
+                <a:pt x="8396471" y="23245326"/>
+                <a:pt x="8425554" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8396471" y="23245326"/>
+                <a:pt x="7994811" y="23250028"/>
+                <a:pt x="7733233" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7471655" y="23244672"/>
+                <a:pt x="7344113" y="23245127"/>
+                <a:pt x="7040911" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6737709" y="23249573"/>
+                <a:pt x="6546364" y="23252086"/>
+                <a:pt x="6348589" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6150814" y="23242614"/>
+                <a:pt x="5941012" y="23247444"/>
+                <a:pt x="5656268" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5371524" y="23247256"/>
+                <a:pt x="5551486" y="23249501"/>
+                <a:pt x="5476264" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5551486" y="23249501"/>
+                <a:pt x="5536583" y="23247374"/>
+                <a:pt x="5552419" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5568256" y="23247326"/>
+                <a:pt x="5605783" y="23248648"/>
+                <a:pt x="5628575" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5605783" y="23248648"/>
+                <a:pt x="5530267" y="23246982"/>
+                <a:pt x="5448571" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5366875" y="23247718"/>
+                <a:pt x="4932675" y="23237785"/>
+                <a:pt x="4500091" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4932675" y="23237785"/>
+                <a:pt x="4541988" y="23248445"/>
+                <a:pt x="4576246" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4541988" y="23248445"/>
+                <a:pt x="4446728" y="23255008"/>
+                <a:pt x="4396242" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4446728" y="23255008"/>
+                <a:pt x="4436698" y="23244847"/>
+                <a:pt x="4472398" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4436698" y="23244847"/>
+                <a:pt x="3936208" y="23200372"/>
+                <a:pt x="3523917" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3111626" y="23294328"/>
+                <a:pt x="2795502" y="23271188"/>
+                <a:pt x="2575436" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2355370" y="23223512"/>
+                <a:pt x="1867231" y="23294482"/>
+                <a:pt x="1370797" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="874363" y="23200218"/>
+                <a:pt x="611271" y="23187612"/>
+                <a:pt x="0" y="23247350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-33459" y="22905892"/>
+                <a:pt x="469" y="22863150"/>
+                <a:pt x="0" y="22563604"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="469" y="22863150"/>
+                <a:pt x="158" y="22571745"/>
+                <a:pt x="0" y="22577279"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="158" y="22571745"/>
+                <a:pt x="-34569" y="21945937"/>
+                <a:pt x="0" y="21661060"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="34569" y="21376183"/>
+                <a:pt x="-39201" y="20992005"/>
+                <a:pt x="0" y="20744841"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="39201" y="20497677"/>
+                <a:pt x="-10875" y="20597617"/>
+                <a:pt x="0" y="20526043"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10875" y="20454469"/>
+                <a:pt x="-39395" y="19998144"/>
+                <a:pt x="0" y="19609823"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="39395" y="19221502"/>
+                <a:pt x="21739" y="19144508"/>
+                <a:pt x="0" y="18926078"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-21739" y="18707648"/>
+                <a:pt x="-739" y="18807078"/>
+                <a:pt x="0" y="18707279"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="739" y="18607480"/>
+                <a:pt x="32348" y="17928352"/>
+                <a:pt x="0" y="17558587"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="32348" y="17928352"/>
+                <a:pt x="421" y="17565919"/>
+                <a:pt x="0" y="17572262"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="421" y="17565919"/>
+                <a:pt x="7418" y="17424362"/>
+                <a:pt x="0" y="17353463"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-7418" y="17282564"/>
+                <a:pt x="-8964" y="16685523"/>
+                <a:pt x="0" y="16437244"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8964" y="16188965"/>
+                <a:pt x="-1424" y="16292284"/>
+                <a:pt x="0" y="16218445"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1424" y="16144606"/>
+                <a:pt x="23238" y="15480227"/>
+                <a:pt x="0" y="15069753"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23238" y="15480227"/>
+                <a:pt x="137" y="15077632"/>
+                <a:pt x="0" y="15083428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="137" y="15077632"/>
+                <a:pt x="45102" y="14414778"/>
+                <a:pt x="0" y="13934735"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-45102" y="13454692"/>
+                <a:pt x="21855" y="13572935"/>
+                <a:pt x="0" y="13250989"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21855" y="13572935"/>
+                <a:pt x="288" y="13259425"/>
+                <a:pt x="0" y="13264664"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="288" y="13259425"/>
+                <a:pt x="4586" y="13150136"/>
+                <a:pt x="0" y="13045866"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-4586" y="12941596"/>
+                <a:pt x="-32956" y="12133610"/>
+                <a:pt x="0" y="11897173"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="32956" y="11660736"/>
+                <a:pt x="-14075" y="11359511"/>
+                <a:pt x="0" y="10980954"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14075" y="10602397"/>
+                <a:pt x="-8590" y="10868429"/>
+                <a:pt x="0" y="10762156"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8590" y="10655883"/>
+                <a:pt x="24456" y="10329666"/>
+                <a:pt x="0" y="10078410"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-24456" y="9827154"/>
+                <a:pt x="7398" y="9215538"/>
+                <a:pt x="0" y="8929717"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-7398" y="8643896"/>
+                <a:pt x="-603" y="8785385"/>
+                <a:pt x="0" y="8710919"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="603" y="8636453"/>
+                <a:pt x="23362" y="7982647"/>
+                <a:pt x="0" y="7794700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-23362" y="7606753"/>
+                <a:pt x="10868" y="7665571"/>
+                <a:pt x="0" y="7575901"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-10868" y="7486231"/>
+                <a:pt x="-43392" y="6843480"/>
+                <a:pt x="0" y="6427209"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43392" y="6010938"/>
+                <a:pt x="-10408" y="6012395"/>
+                <a:pt x="0" y="5743463"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-10408" y="6012395"/>
+                <a:pt x="154" y="5754173"/>
+                <a:pt x="0" y="5757138"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="154" y="5754173"/>
+                <a:pt x="-3091" y="5254285"/>
+                <a:pt x="0" y="5073392"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3091" y="4892499"/>
+                <a:pt x="5484" y="4847601"/>
+                <a:pt x="0" y="4622120"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-5484" y="4396639"/>
+                <a:pt x="-30949" y="3834857"/>
+                <a:pt x="0" y="3473428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="30949" y="3111999"/>
+                <a:pt x="-14525" y="2998356"/>
+                <a:pt x="0" y="2557208"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14525" y="2116060"/>
+                <a:pt x="8892" y="2013191"/>
+                <a:pt x="0" y="1873463"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8892" y="2013191"/>
+                <a:pt x="-185" y="1881913"/>
+                <a:pt x="0" y="1887138"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-185" y="1881913"/>
+                <a:pt x="35191" y="1017616"/>
+                <a:pt x="0" y="738445"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-35191" y="459274"/>
+                <a:pt x="25100" y="283934"/>
                 <a:pt x="0" y="0"/>
               </a:cubicBezTo>
               <a:close/>
@@ -10377,75 +10317,75 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="204" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="152"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10465,41 +10405,41 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="1.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.08984375" customWidth="1"/>
-    <col min="6" max="10" width="2.90625" customWidth="1"/>
+    <col min="3" max="3" width="1.46484375" customWidth="1"/>
+    <col min="4" max="4" width="23.53125" customWidth="1"/>
+    <col min="5" max="5" width="1.06640625" customWidth="1"/>
+    <col min="6" max="10" width="2.9296875" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="1.08984375" customWidth="1"/>
-    <col min="13" max="13" width="54.54296875" customWidth="1"/>
+    <col min="12" max="12" width="1.06640625" customWidth="1"/>
+    <col min="13" max="13" width="54.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="127" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D2" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-    </row>
-    <row r="3" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="137" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+    </row>
+    <row r="3" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="215" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="28"/>
@@ -10530,8 +10470,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="138"/>
+    <row r="5" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="216"/>
       <c r="C5" s="28"/>
       <c r="D5" s="99" t="s">
         <v>94</v>
@@ -10560,8 +10500,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
+    <row r="6" spans="2:13" ht="42.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="216"/>
       <c r="C6" s="28"/>
       <c r="D6" s="98" t="s">
         <v>95</v>
@@ -10590,8 +10530,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="138"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="216"/>
       <c r="C7" s="28"/>
       <c r="D7" s="98" t="s">
         <v>96</v>
@@ -10620,8 +10560,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="138"/>
+    <row r="8" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="216"/>
       <c r="C8" s="28"/>
       <c r="D8" s="98" t="s">
         <v>97</v>
@@ -10650,8 +10590,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="139"/>
+    <row r="9" spans="2:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="217"/>
       <c r="C9" s="28"/>
       <c r="D9" s="99" t="s">
         <v>98</v>
@@ -10680,15 +10620,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="29"/>
       <c r="D10" s="58"/>
       <c r="E10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="58"/>
     </row>
-    <row r="11" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="132" t="s">
+    <row r="11" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="210" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="30"/>
@@ -10719,8 +10659,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="133"/>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="211"/>
       <c r="C12" s="30"/>
       <c r="D12" s="99" t="s">
         <v>102</v>
@@ -10749,8 +10689,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134"/>
+    <row r="13" spans="2:13" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="212"/>
       <c r="C13" s="30"/>
       <c r="D13" s="99" t="s">
         <v>103</v>
@@ -10779,15 +10719,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="29"/>
       <c r="D14" s="97"/>
       <c r="E14" s="31"/>
       <c r="L14" s="29"/>
       <c r="M14" s="58"/>
     </row>
-    <row r="15" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="137" t="s">
+    <row r="15" spans="2:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="215" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="28"/>
@@ -10818,8 +10758,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="138"/>
+    <row r="16" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="216"/>
       <c r="C16" s="28"/>
       <c r="D16" s="99" t="s">
         <v>106</v>
@@ -10848,8 +10788,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="138"/>
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="216"/>
       <c r="C17" s="28"/>
       <c r="D17" s="99" t="s">
         <v>107</v>
@@ -10878,8 +10818,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="139"/>
+    <row r="18" spans="2:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="217"/>
       <c r="C18" s="28"/>
       <c r="D18" s="99" t="s">
         <v>108</v>
@@ -10908,15 +10848,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="29"/>
       <c r="D19" s="97"/>
       <c r="E19" s="31"/>
       <c r="L19" s="29"/>
       <c r="M19" s="58"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="137" t="s">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="215" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="28"/>
@@ -10947,8 +10887,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="138"/>
+    <row r="21" spans="2:13" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="216"/>
       <c r="C21" s="28"/>
       <c r="D21" s="99" t="s">
         <v>110</v>
@@ -10977,8 +10917,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="138"/>
+    <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="216"/>
       <c r="C22" s="28"/>
       <c r="D22" s="99" t="s">
         <v>111</v>
@@ -11007,8 +10947,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="138"/>
+    <row r="23" spans="2:13" ht="30.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="216"/>
       <c r="C23" s="28"/>
       <c r="D23" s="99" t="s">
         <v>112</v>
@@ -11037,8 +10977,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="138"/>
+    <row r="24" spans="2:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="216"/>
       <c r="C24" s="28"/>
       <c r="D24" s="99" t="s">
         <v>113</v>
@@ -11067,8 +11007,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="139"/>
+    <row r="25" spans="2:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="217"/>
       <c r="C25" s="28"/>
       <c r="D25" s="99" t="s">
         <v>114</v>
@@ -11097,15 +11037,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="29"/>
       <c r="D26" s="97"/>
       <c r="E26" s="31"/>
       <c r="L26" s="29"/>
       <c r="M26" s="97"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="137" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="215" t="s">
         <v>119</v>
       </c>
       <c r="C27" s="28"/>
@@ -11136,8 +11076,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="138"/>
+    <row r="28" spans="2:13" ht="18.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="216"/>
       <c r="C28" s="28"/>
       <c r="D28" s="99" t="s">
         <v>115</v>
@@ -11166,8 +11106,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="138"/>
+    <row r="29" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="216"/>
       <c r="C29" s="28"/>
       <c r="D29" s="99" t="s">
         <v>116</v>
@@ -11196,8 +11136,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="139"/>
+    <row r="30" spans="2:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="217"/>
       <c r="C30" s="28"/>
       <c r="D30" s="99" t="s">
         <v>117</v>
@@ -11226,7 +11166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="100"/>
@@ -11240,8 +11180,8 @@
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B32" s="132" t="s">
+    <row r="32" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B32" s="210" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="38"/>
@@ -11249,62 +11189,62 @@
         <v>123</v>
       </c>
       <c r="E32" s="39"/>
-      <c r="F32" s="140">
+      <c r="F32" s="218">
         <v>37</v>
       </c>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="141"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="219"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="133"/>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="211"/>
       <c r="D33" s="99" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="128">
+      <c r="F33" s="206">
         <v>23</v>
       </c>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="129"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="133"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="211"/>
       <c r="D34" s="99"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="136"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="214"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
     </row>
-    <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="134"/>
+    <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="212"/>
       <c r="C35" s="1"/>
       <c r="D35" s="102" t="s">
         <v>125</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="130">
+      <c r="F35" s="208">
         <f>F32/F33</f>
         <v>1.6086956521739131</v>
       </c>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="131"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -11340,93 +11280,93 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="54.90625" style="60" customWidth="1"/>
-    <col min="3" max="4" width="1.81640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="73.1796875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="59.81640625" style="60" customWidth="1"/>
-    <col min="7" max="9" width="59.6328125" style="60" customWidth="1"/>
-    <col min="10" max="10" width="59.54296875" style="60" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="60"/>
+    <col min="1" max="1" width="25.796875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="54.9296875" style="60" customWidth="1"/>
+    <col min="3" max="4" width="1.796875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="73.19921875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="59.796875" style="60" customWidth="1"/>
+    <col min="7" max="9" width="59.59765625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="59.53125" style="60" customWidth="1"/>
+    <col min="11" max="11" width="59.59765625" style="60" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="144" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="163" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="245" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="245" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="245"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="61" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="K2" s="63" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+    <row r="3" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="234" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="146" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="229" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-    </row>
-    <row r="4" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="146"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+    </row>
+    <row r="4" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="234"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="229"/>
       <c r="F4" s="64" t="s">
         <v>181</v>
       </c>
@@ -11446,13 +11386,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
-      <c r="B5" s="143" t="s">
+    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="234"/>
+      <c r="B5" s="228" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
       <c r="E5" s="67" t="s">
         <v>188</v>
       </c>
@@ -11475,31 +11415,31 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
-      <c r="B6" s="143" t="s">
+    <row r="6" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="234"/>
+      <c r="B6" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="146" t="s">
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="229" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="147" t="s">
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="241" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="146"/>
+    <row r="7" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="234"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="229"/>
       <c r="F7" s="70" t="s">
         <v>197</v>
       </c>
@@ -11515,15 +11455,15 @@
       <c r="J7" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="147"/>
-    </row>
-    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="143" t="s">
+      <c r="K7" s="241"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="234"/>
+      <c r="B8" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="67" t="s">
         <v>202</v>
       </c>
@@ -11546,31 +11486,31 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="148" t="s">
+    <row r="9" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="234"/>
+      <c r="B9" s="242" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="143" t="s">
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="228" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="150" t="s">
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="244" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="143"/>
+    <row r="10" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="234"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="228"/>
       <c r="F10" s="64" t="s">
         <v>211</v>
       </c>
@@ -11586,28 +11526,28 @@
       <c r="J10" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="150"/>
-    </row>
-    <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
+      <c r="K10" s="244"/>
+    </row>
+    <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="234"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="233"/>
       <c r="K11" s="73"/>
     </row>
-    <row r="12" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
-      <c r="B12" s="143" t="s">
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="234"/>
+      <c r="B12" s="228" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="67" t="s">
         <v>217</v>
       </c>
@@ -11630,29 +11570,29 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
+    <row r="13" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="235"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="230"/>
       <c r="K13" s="74"/>
     </row>
-    <row r="14" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+    <row r="14" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="236" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155" t="s">
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="238" t="s">
         <v>226</v>
       </c>
       <c r="F14" s="75" t="s">
@@ -11674,26 +11614,26 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
+    <row r="15" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="236"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
       <c r="K15" s="73"/>
     </row>
-    <row r="16" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="157" t="s">
+    <row r="16" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="236"/>
+      <c r="B16" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="78" t="s">
         <v>233</v>
       </c>
@@ -11716,29 +11656,29 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="157" t="s">
+    <row r="17" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="236"/>
+      <c r="B17" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158" t="s">
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="225"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
       <c r="K17" s="73"/>
     </row>
-    <row r="18" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
+    <row r="18" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="236"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="240"/>
       <c r="F18" s="81" t="s">
         <v>241</v>
       </c>
@@ -11758,16 +11698,16 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
+    <row r="19" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="234" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="228" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="146" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229" t="s">
         <v>249</v>
       </c>
       <c r="F19" s="68" t="s">
@@ -11789,27 +11729,27 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
+    <row r="20" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="234"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="143" t="s">
+    <row r="21" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="234"/>
+      <c r="B21" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143" t="s">
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228" t="s">
         <v>256</v>
       </c>
       <c r="F21" s="68" t="s">
@@ -11831,27 +11771,27 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
+    <row r="22" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="234"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="233"/>
+      <c r="G22" s="233"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="233"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="B23" s="143" t="s">
+    <row r="23" spans="1:11" ht="85.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="234"/>
+      <c r="B23" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="146" t="s">
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="229" t="s">
         <v>262</v>
       </c>
       <c r="F23" s="83" t="s">
@@ -11873,26 +11813,26 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+    <row r="24" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="234"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="233"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="143" t="s">
+    <row r="25" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="234"/>
+      <c r="B25" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
       <c r="E25" s="67" t="s">
         <v>268</v>
       </c>
@@ -11915,29 +11855,29 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="143" t="s">
+    <row r="26" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="234"/>
+      <c r="B26" s="228" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="146" t="s">
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="229" t="s">
         <v>274</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="233"/>
       <c r="K26" s="82"/>
     </row>
-    <row r="27" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="146"/>
+    <row r="27" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="234"/>
+      <c r="B27" s="228"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
       <c r="F27" s="70" t="s">
         <v>275</v>
       </c>
@@ -11957,26 +11897,26 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
+    <row r="28" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="234"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="233"/>
       <c r="K28" s="82"/>
     </row>
-    <row r="29" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="143" t="s">
+    <row r="29" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="234"/>
+      <c r="B29" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
       <c r="E29" s="67" t="s">
         <v>279</v>
       </c>
@@ -11999,15 +11939,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="167" t="s">
+    <row r="30" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="231" t="s">
         <v>284</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="232"/>
       <c r="E30" s="79" t="s">
         <v>285</v>
       </c>
@@ -12030,13 +11970,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="167"/>
-      <c r="B31" s="157" t="s">
+    <row r="31" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="231"/>
+      <c r="B31" s="232" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="232"/>
       <c r="E31" s="79" t="s">
         <v>292</v>
       </c>
@@ -12059,13 +11999,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="167"/>
-      <c r="B32" s="157" t="s">
+    <row r="32" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="231"/>
+      <c r="B32" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="232"/>
       <c r="E32" s="79" t="s">
         <v>299</v>
       </c>
@@ -12088,13 +12028,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="167"/>
-      <c r="B33" s="157" t="s">
+    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="231"/>
+      <c r="B33" s="232" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="232"/>
       <c r="E33" s="79" t="s">
         <v>306</v>
       </c>
@@ -12117,28 +12057,28 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="164"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
+    <row r="34" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="224"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
       <c r="K34" s="74"/>
     </row>
-    <row r="35" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="165" t="s">
+    <row r="35" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="226" t="s">
         <v>313</v>
       </c>
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="227" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
       <c r="E35" s="64" t="s">
         <v>315</v>
       </c>
@@ -12161,13 +12101,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="165"/>
-      <c r="B36" s="143" t="s">
+    <row r="36" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="226"/>
+      <c r="B36" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="228"/>
       <c r="E36" s="67" t="s">
         <v>322</v>
       </c>
@@ -12190,13 +12130,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="165"/>
-      <c r="B37" s="143" t="s">
+    <row r="37" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="226"/>
+      <c r="B37" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
       <c r="E37" s="67" t="s">
         <v>328</v>
       </c>
@@ -12219,29 +12159,29 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="165"/>
-      <c r="B38" s="143" t="s">
+    <row r="38" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="226"/>
+      <c r="B38" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="146" t="s">
+      <c r="C38" s="228"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="229" t="s">
         <v>333</v>
       </c>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
+      <c r="H38" s="230"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
       <c r="K38" s="66"/>
     </row>
-    <row r="39" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="165"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="146"/>
+    <row r="39" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="226"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="228"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="229"/>
       <c r="F39" s="70" t="s">
         <v>334</v>
       </c>
@@ -12261,32 +12201,79 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
-    </row>
-    <row r="42" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-    </row>
-    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="161"/>
+    <row r="40" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="220"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+    </row>
+    <row r="42" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="221"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="222"/>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="221"/>
+      <c r="B43" s="221"/>
       <c r="C43" s="87"/>
       <c r="D43" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F28:J28"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A42:B43"/>
     <mergeCell ref="C42:D42"/>
@@ -12303,53 +12290,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12364,289 +12304,262 @@
   </sheetPr>
   <dimension ref="A4:H23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="41" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="7" width="42.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.53125" customWidth="1"/>
+    <col min="5" max="5" width="30.9296875" customWidth="1"/>
+    <col min="6" max="7" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="168"/>
-      <c r="B5" s="176" t="s">
+    <row r="4" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="281"/>
+      <c r="B5" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="289" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="289" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="289" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="176" t="s">
+      <c r="F5" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="289" t="s">
         <v>75</v>
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="169"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-    </row>
-    <row r="7" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+    <row r="6" spans="1:8" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="282"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="246" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="186" t="s">
-        <v>396</v>
-      </c>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="272" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="192" t="s">
+      <c r="E7" s="278" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="291" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="181" t="s">
+      <c r="G7" s="294" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="182"/>
-    </row>
-    <row r="9" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204"/>
-      <c r="B9" s="218" t="s">
+    <row r="8" spans="1:8" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="247"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="295"/>
+    </row>
+    <row r="9" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="247"/>
+      <c r="B9" s="261" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="187" t="s">
-        <v>397</v>
-      </c>
-      <c r="D9" s="190"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="182"/>
-    </row>
-    <row r="10" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="205"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="183"/>
-    </row>
-    <row r="11" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="273" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="276"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="295"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="248"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="296"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="25"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206" t="s">
+    <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="215" t="s">
+      <c r="B12" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="188" t="s">
-        <v>398</v>
-      </c>
-      <c r="D12" s="195" t="s">
+      <c r="C12" s="274" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="196" t="s">
+      <c r="E12" s="267" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="184" t="s">
+      <c r="F12" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="185" t="s">
+      <c r="G12" s="271" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="207"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="185"/>
-    </row>
-    <row r="14" spans="1:8" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="207"/>
-      <c r="B14" s="217"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="185"/>
-    </row>
-    <row r="15" spans="1:8" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="207"/>
-      <c r="B15" s="215" t="s">
+    <row r="13" spans="1:8" ht="55.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="250"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="274"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="271"/>
+    </row>
+    <row r="14" spans="1:8" ht="41.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="250"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="297"/>
+      <c r="G14" s="271"/>
+    </row>
+    <row r="15" spans="1:8" ht="77.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="250"/>
+      <c r="B15" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="188" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="195" t="s">
+      <c r="C15" s="274" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="267" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="184" t="s">
+      <c r="F15" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="185" t="s">
+      <c r="G15" s="271" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="207"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="185"/>
-    </row>
-    <row r="17" spans="1:7" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="208"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="185"/>
-    </row>
-    <row r="18" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="68.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="250"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="271"/>
+    </row>
+    <row r="17" spans="1:7" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="251"/>
+      <c r="B17" s="260"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="271"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="27"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="132" t="s">
+    <row r="19" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="256" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="200" t="s">
+      <c r="C19" s="263" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="268" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="200" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="170" t="s">
+      <c r="E19" s="268" t="s">
+        <v>449</v>
+      </c>
+      <c r="F19" s="283" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="173" t="s">
+      <c r="G19" s="286" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="173"/>
-    </row>
-    <row r="21" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="212"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="283"/>
+      <c r="G20" s="286"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="25"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
+    <row r="22" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="254" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" s="201" t="s">
+      <c r="C22" s="264" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="269" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="201" t="s">
-        <v>403</v>
-      </c>
-      <c r="F22" s="171" t="s">
+      <c r="E22" s="269" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="174" t="s">
+      <c r="G22" s="287" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="210"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="175"/>
+    <row r="23" spans="1:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="253"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="288"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F22:F23"/>
@@ -12663,6 +12576,33 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12677,39 +12617,39 @@
   </sheetPr>
   <dimension ref="D5:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H21"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="44" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="53.453125" customWidth="1"/>
-    <col min="13" max="13" width="63.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="53.46484375" customWidth="1"/>
+    <col min="13" max="13" width="63.06640625" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="27.90625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.53125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.9296875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="27.81640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.54296875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.81640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="27.90625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.53125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.796875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.9296875" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V6" s="220" t="s">
+    <row r="5" spans="4:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="4:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V6" s="199" t="s">
         <v>345</v>
       </c>
-      <c r="W6" s="221"/>
-    </row>
-    <row r="7" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="200"/>
+    </row>
+    <row r="7" spans="4:23" x14ac:dyDescent="0.35">
       <c r="V7" s="111">
         <v>0</v>
       </c>
@@ -12717,7 +12657,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:23" x14ac:dyDescent="0.35">
       <c r="V8" s="112">
         <v>1</v>
       </c>
@@ -12725,7 +12665,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V9" s="113">
         <v>2</v>
       </c>
@@ -12733,15 +12673,15 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="4:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="4:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D15" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="291" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="292"/>
+      <c r="E15" s="201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="202"/>
       <c r="G15" s="54" t="s">
         <v>17</v>
       </c>
@@ -12788,14 +12728,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="4:23" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="222">
+    <row r="16" spans="4:23" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="176">
         <v>1</v>
       </c>
-      <c r="E16" s="293" t="s">
+      <c r="E16" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="293"/>
+      <c r="F16" s="171"/>
       <c r="G16" s="53" t="s">
         <v>18</v>
       </c>
@@ -12803,43 +12743,43 @@
         <v>28</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="K16" s="227" t="s">
+      <c r="K16" s="161" t="s">
         <v>354</v>
       </c>
-      <c r="L16" s="227" t="s">
+      <c r="L16" s="161" t="s">
         <v>355</v>
       </c>
-      <c r="M16" s="230" t="s">
-        <v>406</v>
-      </c>
-      <c r="P16" s="233">
+      <c r="M16" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="P16" s="127">
         <v>0</v>
       </c>
-      <c r="Q16" s="234" t="s">
+      <c r="Q16" s="125" t="s">
         <v>356</v>
       </c>
-      <c r="R16" s="233">
+      <c r="R16" s="127">
         <v>1</v>
       </c>
-      <c r="S16" s="235" t="s">
+      <c r="S16" s="129" t="s">
         <v>357</v>
       </c>
-      <c r="V16" s="236">
+      <c r="V16" s="131">
         <v>2</v>
       </c>
-      <c r="W16" s="236" t="s">
+      <c r="W16" s="131" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="4:26" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="223"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
+    <row r="17" spans="4:26" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="140"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
       <c r="G17" s="49" t="s">
         <v>19</v>
       </c>
@@ -12847,25 +12787,25 @@
         <v>340</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K17" s="228"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="231"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="234"/>
-      <c r="R17" s="233"/>
-      <c r="S17" s="235"/>
-      <c r="V17" s="236"/>
-      <c r="W17" s="236"/>
-    </row>
-    <row r="18" spans="4:26" ht="174.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="224"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="148"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="129"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+    </row>
+    <row r="18" spans="4:26" ht="174.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="178"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="55" t="s">
         <v>20</v>
       </c>
@@ -12873,33 +12813,33 @@
         <v>33</v>
       </c>
       <c r="I18" s="118" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="K18" s="229"/>
-      <c r="L18" s="229"/>
-      <c r="M18" s="232"/>
-      <c r="P18" s="233"/>
-      <c r="Q18" s="234"/>
-      <c r="R18" s="233"/>
-      <c r="S18" s="235"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="236"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="149"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="129"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="4:26" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="237"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="239"/>
+    <row r="19" spans="4:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="298"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="300"/>
       <c r="P19" s="119"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="119"/>
@@ -12907,76 +12847,76 @@
       <c r="V19" s="120"/>
       <c r="W19" s="120"/>
     </row>
-    <row r="20" spans="4:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="237">
+    <row r="20" spans="4:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="298">
         <v>2</v>
       </c>
-      <c r="E20" s="296" t="s">
+      <c r="E20" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="296"/>
-      <c r="G20" s="242" t="s">
+      <c r="F20" s="192"/>
+      <c r="G20" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="244" t="s">
+      <c r="H20" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="246" t="s">
-        <v>409</v>
-      </c>
-      <c r="J20" s="248" t="s">
+      <c r="I20" s="182" t="s">
+        <v>417</v>
+      </c>
+      <c r="J20" s="184" t="s">
         <v>361</v>
       </c>
-      <c r="K20" s="256" t="s">
+      <c r="K20" s="186" t="s">
         <v>362</v>
       </c>
-      <c r="L20" s="256" t="s">
+      <c r="L20" s="186" t="s">
         <v>363</v>
       </c>
-      <c r="M20" s="259" t="s">
-        <v>410</v>
-      </c>
-      <c r="P20" s="233">
+      <c r="M20" s="189" t="s">
+        <v>390</v>
+      </c>
+      <c r="P20" s="127">
         <v>1</v>
       </c>
-      <c r="Q20" s="236" t="s">
+      <c r="Q20" s="131" t="s">
         <v>364</v>
       </c>
-      <c r="R20" s="233">
+      <c r="R20" s="127">
         <v>1</v>
       </c>
-      <c r="S20" s="236" t="s">
+      <c r="S20" s="131" t="s">
         <v>365</v>
       </c>
-      <c r="V20" s="236">
+      <c r="V20" s="131">
         <v>2</v>
       </c>
-      <c r="W20" s="236" t="s">
+      <c r="W20" s="131" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="4:26" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="240"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="297"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="245"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="249"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="260"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="236"/>
-      <c r="V21" s="236"/>
-      <c r="W21" s="236"/>
-    </row>
-    <row r="22" spans="4:26" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="240"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
+    <row r="21" spans="4:26" ht="279" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="301"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="190"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+    </row>
+    <row r="22" spans="4:26" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="301"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
       <c r="G22" s="49" t="s">
         <v>34</v>
       </c>
@@ -12984,25 +12924,25 @@
         <v>31</v>
       </c>
       <c r="I22" s="91" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K22" s="257"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="260"/>
-      <c r="P22" s="233"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="233"/>
-      <c r="S22" s="236"/>
-      <c r="V22" s="236"/>
-      <c r="W22" s="236"/>
-    </row>
-    <row r="23" spans="4:26" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="241"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="298"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="190"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+    </row>
+    <row r="23" spans="4:26" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="173"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
       <c r="G23" s="50" t="s">
         <v>66</v>
       </c>
@@ -13010,108 +12950,108 @@
         <v>35</v>
       </c>
       <c r="I23" s="121" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="K23" s="258"/>
-      <c r="L23" s="258"/>
-      <c r="M23" s="261"/>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="233"/>
-      <c r="S23" s="236"/>
-      <c r="V23" s="236"/>
-      <c r="W23" s="236"/>
-    </row>
-    <row r="24" spans="4:26" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="241"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="250"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="251"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="191"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="131"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+    </row>
+    <row r="24" spans="4:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="173"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="175"/>
       <c r="P24" s="120"/>
       <c r="R24" s="120"/>
       <c r="S24" s="26"/>
       <c r="V24" s="120"/>
       <c r="W24" s="120"/>
     </row>
-    <row r="25" spans="4:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="222">
+    <row r="25" spans="4:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="176">
         <v>3</v>
       </c>
-      <c r="E25" s="293" t="s">
+      <c r="E25" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="293"/>
-      <c r="G25" s="254" t="s">
+      <c r="F25" s="171"/>
+      <c r="G25" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="246" t="s">
+      <c r="H25" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="246" t="s">
-        <v>413</v>
-      </c>
-      <c r="J25" s="248" t="s">
+      <c r="I25" s="182" t="s">
+        <v>418</v>
+      </c>
+      <c r="J25" s="184" t="s">
         <v>361</v>
       </c>
-      <c r="K25" s="227" t="s">
+      <c r="K25" s="161" t="s">
         <v>368</v>
       </c>
-      <c r="L25" s="227" t="s">
+      <c r="L25" s="161" t="s">
         <v>369</v>
       </c>
-      <c r="M25" s="230" t="s">
-        <v>414</v>
-      </c>
-      <c r="P25" s="233">
+      <c r="M25" s="150" t="s">
+        <v>391</v>
+      </c>
+      <c r="P25" s="127">
         <v>1</v>
       </c>
-      <c r="Q25" s="234" t="s">
+      <c r="Q25" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="R25" s="236">
+      <c r="R25" s="131">
         <v>2</v>
       </c>
-      <c r="S25" s="235" t="s">
+      <c r="S25" s="129" t="s">
         <v>371</v>
       </c>
-      <c r="V25" s="236">
+      <c r="V25" s="131">
         <v>2</v>
       </c>
-      <c r="W25" s="236" t="s">
+      <c r="W25" s="131" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="4:26" ht="118.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="252"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="255"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="249"/>
-      <c r="K26" s="228"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="231"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="234"/>
-      <c r="R26" s="236"/>
-      <c r="S26" s="235"/>
-      <c r="V26" s="236"/>
-      <c r="W26" s="236"/>
-    </row>
-    <row r="27" spans="4:26" ht="89.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="224"/>
-      <c r="E27" s="295"/>
-      <c r="F27" s="295"/>
+    <row r="26" spans="4:26" ht="118.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="177"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="148"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="129"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+    </row>
+    <row r="27" spans="4:26" ht="89.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="7" t="s">
         <v>30</v>
       </c>
@@ -13119,46 +13059,46 @@
         <v>43</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="K27" s="229"/>
-      <c r="L27" s="229"/>
-      <c r="M27" s="232"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="234"/>
-      <c r="R27" s="236"/>
-      <c r="S27" s="235"/>
-      <c r="V27" s="236"/>
-      <c r="W27" s="236"/>
-    </row>
-    <row r="28" spans="4:26" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="262"/>
-      <c r="E28" s="263"/>
-      <c r="F28" s="263"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
-      <c r="J28" s="263"/>
-      <c r="K28" s="263"/>
-      <c r="L28" s="263"/>
-      <c r="M28" s="264"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="149"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="129"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+    </row>
+    <row r="28" spans="4:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
       <c r="P28" s="120"/>
       <c r="R28" s="120"/>
       <c r="S28" s="26"/>
       <c r="V28" s="120"/>
       <c r="W28" s="120"/>
     </row>
-    <row r="29" spans="4:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="265">
+    <row r="29" spans="4:26" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="167">
         <v>4</v>
       </c>
-      <c r="E29" s="267" t="s">
+      <c r="E29" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="293" t="s">
+      <c r="F29" s="171" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="16" t="s">
@@ -13168,95 +13108,95 @@
         <v>39</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="K29" s="227" t="s">
+      <c r="K29" s="161" t="s">
         <v>374</v>
       </c>
-      <c r="L29" s="227" t="s">
+      <c r="L29" s="161" t="s">
         <v>375</v>
       </c>
-      <c r="M29" s="230" t="s">
-        <v>417</v>
-      </c>
-      <c r="P29" s="233">
+      <c r="M29" s="150" t="s">
+        <v>392</v>
+      </c>
+      <c r="P29" s="127">
         <v>1</v>
       </c>
-      <c r="Q29" s="234" t="s">
+      <c r="Q29" s="125" t="s">
         <v>376</v>
       </c>
-      <c r="R29" s="233">
+      <c r="R29" s="127">
         <v>2</v>
       </c>
-      <c r="S29" s="235" t="s">
+      <c r="S29" s="129" t="s">
         <v>377</v>
       </c>
-      <c r="V29" s="236">
+      <c r="V29" s="131">
         <v>2</v>
       </c>
-      <c r="W29" s="236" t="s">
+      <c r="W29" s="131" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="4:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="223"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="299"/>
+    <row r="30" spans="4:26" ht="104.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="140"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="172"/>
       <c r="G30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K30" s="228"/>
-      <c r="L30" s="228"/>
-      <c r="M30" s="231"/>
-      <c r="P30" s="233"/>
-      <c r="Q30" s="234"/>
-      <c r="R30" s="233"/>
-      <c r="S30" s="235"/>
-      <c r="V30" s="236"/>
-      <c r="W30" s="236"/>
-    </row>
-    <row r="31" spans="4:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="223"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="299"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="148"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="129"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+    </row>
+    <row r="31" spans="4:26" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="140"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="172"/>
       <c r="G31" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K31" s="228"/>
-      <c r="L31" s="228"/>
-      <c r="M31" s="231"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="234"/>
-      <c r="R31" s="233"/>
-      <c r="S31" s="235"/>
-      <c r="V31" s="236"/>
-      <c r="W31" s="236"/>
-    </row>
-    <row r="32" spans="4:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="223"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="299"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="148"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="129"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+    </row>
+    <row r="32" spans="4:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="140"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="172"/>
       <c r="G32" s="11" t="s">
         <v>135</v>
       </c>
@@ -13264,25 +13204,25 @@
         <v>61</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K32" s="228"/>
-      <c r="L32" s="228"/>
-      <c r="M32" s="231"/>
-      <c r="P32" s="233"/>
-      <c r="Q32" s="234"/>
-      <c r="R32" s="233"/>
-      <c r="S32" s="235"/>
-      <c r="V32" s="236"/>
-      <c r="W32" s="236"/>
-    </row>
-    <row r="33" spans="4:23" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="223"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="299"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="148"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="129"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+    </row>
+    <row r="33" spans="4:23" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="140"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="172"/>
       <c r="G33" s="11" t="s">
         <v>136</v>
       </c>
@@ -13290,32 +13230,32 @@
         <v>62</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K33" s="228"/>
-      <c r="L33" s="228"/>
-      <c r="M33" s="231"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="234"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="235"/>
-      <c r="V33" s="236"/>
-      <c r="W33" s="236"/>
-    </row>
-    <row r="34" spans="4:23" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="223"/>
-      <c r="E34" s="268"/>
-      <c r="F34" s="300" t="s">
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="148"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="129"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+    </row>
+    <row r="34" spans="4:23" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="D34" s="140"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="162" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>137</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>425</v>
@@ -13323,20 +13263,20 @@
       <c r="J34" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K34" s="228"/>
-      <c r="L34" s="228"/>
-      <c r="M34" s="231"/>
-      <c r="P34" s="233"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="233"/>
-      <c r="S34" s="235"/>
-      <c r="V34" s="236"/>
-      <c r="W34" s="236"/>
-    </row>
-    <row r="35" spans="4:23" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="223"/>
-      <c r="E35" s="268"/>
-      <c r="F35" s="301"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="148"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="129"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="131"/>
+    </row>
+    <row r="35" spans="4:23" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="140"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="163"/>
       <c r="G35" s="11" t="s">
         <v>138</v>
       </c>
@@ -13344,24 +13284,24 @@
         <v>37</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="J35" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K35" s="228"/>
-      <c r="L35" s="228"/>
-      <c r="M35" s="231"/>
-      <c r="P35" s="233"/>
-      <c r="Q35" s="234"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="235"/>
-      <c r="V35" s="236"/>
-      <c r="W35" s="236"/>
-    </row>
-    <row r="36" spans="4:23" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="223"/>
-      <c r="E36" s="268"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="148"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="129"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="131"/>
+    </row>
+    <row r="36" spans="4:23" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="140"/>
+      <c r="E36" s="170"/>
       <c r="F36" s="104" t="s">
         <v>4</v>
       </c>
@@ -13369,27 +13309,27 @@
         <v>139</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="K36" s="228"/>
-      <c r="L36" s="228"/>
-      <c r="M36" s="231"/>
-      <c r="P36" s="233"/>
-      <c r="Q36" s="234"/>
-      <c r="R36" s="233"/>
-      <c r="S36" s="235"/>
-      <c r="V36" s="236"/>
-      <c r="W36" s="236"/>
-    </row>
-    <row r="37" spans="4:23" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="223"/>
-      <c r="E37" s="268"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="148"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="129"/>
+      <c r="V36" s="131"/>
+      <c r="W36" s="131"/>
+    </row>
+    <row r="37" spans="4:23" ht="63.75" x14ac:dyDescent="0.35">
+      <c r="D37" s="140"/>
+      <c r="E37" s="170"/>
       <c r="F37" s="104" t="s">
         <v>5</v>
       </c>
@@ -13397,27 +13337,27 @@
         <v>140</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K37" s="228"/>
-      <c r="L37" s="228"/>
-      <c r="M37" s="231"/>
-      <c r="P37" s="233"/>
-      <c r="Q37" s="234"/>
-      <c r="R37" s="233"/>
-      <c r="S37" s="235"/>
-      <c r="V37" s="236"/>
-      <c r="W37" s="236"/>
-    </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D38" s="223"/>
-      <c r="E38" s="268"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="148"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="129"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="131"/>
+    </row>
+    <row r="38" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D38" s="140"/>
+      <c r="E38" s="170"/>
       <c r="F38" s="104" t="s">
         <v>6</v>
       </c>
@@ -13433,19 +13373,19 @@
       <c r="J38" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="K38" s="228"/>
-      <c r="L38" s="228"/>
-      <c r="M38" s="231"/>
-      <c r="P38" s="233"/>
-      <c r="Q38" s="234"/>
-      <c r="R38" s="233"/>
-      <c r="S38" s="235"/>
-      <c r="V38" s="236"/>
-      <c r="W38" s="236"/>
-    </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D39" s="266"/>
-      <c r="E39" s="268"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="148"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="129"/>
+      <c r="V38" s="131"/>
+      <c r="W38" s="131"/>
+    </row>
+    <row r="39" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D39" s="168"/>
+      <c r="E39" s="170"/>
       <c r="F39" s="104" t="s">
         <v>7</v>
       </c>
@@ -13461,21 +13401,21 @@
       <c r="J39" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="K39" s="228"/>
-      <c r="L39" s="228"/>
-      <c r="M39" s="231"/>
-      <c r="P39" s="233"/>
-      <c r="Q39" s="234"/>
-      <c r="R39" s="233"/>
-      <c r="S39" s="235"/>
-      <c r="V39" s="236"/>
-      <c r="W39" s="236"/>
-    </row>
-    <row r="40" spans="4:23" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="273">
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="148"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="129"/>
+      <c r="V39" s="131"/>
+      <c r="W39" s="131"/>
+    </row>
+    <row r="40" spans="4:23" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="164">
         <v>5</v>
       </c>
-      <c r="E40" s="275" t="s">
+      <c r="E40" s="165" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="104" t="s">
@@ -13485,33 +13425,33 @@
         <v>38</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="J40" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="K40" s="228" t="s">
-        <v>433</v>
-      </c>
-      <c r="L40" s="228" t="s">
+      <c r="K40" s="146" t="s">
+        <v>399</v>
+      </c>
+      <c r="L40" s="146" t="s">
         <v>381</v>
       </c>
-      <c r="M40" s="231" t="s">
-        <v>434</v>
-      </c>
-      <c r="P40" s="233"/>
-      <c r="Q40" s="234"/>
-      <c r="R40" s="233"/>
-      <c r="S40" s="235"/>
-      <c r="V40" s="236"/>
-      <c r="W40" s="236"/>
-    </row>
-    <row r="41" spans="4:23" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="274"/>
-      <c r="E41" s="276"/>
+      <c r="M40" s="148" t="s">
+        <v>400</v>
+      </c>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="129"/>
+      <c r="V40" s="131"/>
+      <c r="W40" s="131"/>
+    </row>
+    <row r="41" spans="4:23" ht="39.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="141"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="105" t="s">
         <v>11</v>
       </c>
@@ -13522,47 +13462,47 @@
         <v>40</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="J41" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="K41" s="229"/>
-      <c r="L41" s="229"/>
-      <c r="M41" s="232"/>
-      <c r="P41" s="270"/>
-      <c r="Q41" s="271"/>
-      <c r="R41" s="270"/>
-      <c r="S41" s="272"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="149"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="130"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="269"/>
-      <c r="W41" s="269"/>
-    </row>
-    <row r="42" spans="4:23" ht="188" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+    </row>
+    <row r="42" spans="4:23" ht="188" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="58"/>
-      <c r="H42" s="277" t="s">
+      <c r="H42" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="263"/>
+      <c r="I42" s="138"/>
       <c r="J42" s="58"/>
-      <c r="K42" s="277" t="s">
+      <c r="K42" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="L42" s="263"/>
+      <c r="L42" s="138"/>
       <c r="M42" s="58"/>
     </row>
-    <row r="43" spans="4:23" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="278">
+    <row r="43" spans="4:23" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="155">
         <v>6</v>
       </c>
-      <c r="E43" s="225" t="s">
+      <c r="E43" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="225"/>
+      <c r="F43" s="158"/>
       <c r="G43" s="16" t="s">
         <v>45</v>
       </c>
@@ -13570,45 +13510,45 @@
         <v>21</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J43" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="K43" s="227" t="s">
+      <c r="K43" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="L43" s="227" t="s">
+      <c r="L43" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="M43" s="230" t="s">
-        <v>437</v>
-      </c>
-      <c r="P43" s="283">
+      <c r="M43" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="P43" s="135">
         <v>0</v>
       </c>
-      <c r="Q43" s="289" t="s">
+      <c r="Q43" s="151" t="s">
         <v>383</v>
       </c>
-      <c r="R43" s="283">
+      <c r="R43" s="135">
         <v>1</v>
       </c>
-      <c r="S43" s="290" t="s">
+      <c r="S43" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="T43" s="281"/>
-      <c r="U43" s="281"/>
-      <c r="V43" s="283">
+      <c r="T43" s="133"/>
+      <c r="U43" s="133"/>
+      <c r="V43" s="135">
         <v>1</v>
       </c>
-      <c r="W43" s="284" t="s">
+      <c r="W43" s="136" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="4:23" ht="103.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="279"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
+    <row r="44" spans="4:23" ht="103.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="156"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
       <c r="G44" s="11" t="s">
         <v>67</v>
       </c>
@@ -13616,27 +13556,27 @@
         <v>22</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="J44" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="228"/>
-      <c r="L44" s="228"/>
-      <c r="M44" s="231"/>
-      <c r="P44" s="233"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="233"/>
-      <c r="S44" s="235"/>
-      <c r="T44" s="282"/>
-      <c r="U44" s="282"/>
-      <c r="V44" s="233"/>
-      <c r="W44" s="236"/>
-    </row>
-    <row r="45" spans="4:23" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="279"/>
-      <c r="E45" s="253"/>
-      <c r="F45" s="253"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="148"/>
+      <c r="P44" s="127"/>
+      <c r="Q44" s="152"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="127"/>
+      <c r="W44" s="131"/>
+    </row>
+    <row r="45" spans="4:23" ht="41.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="156"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
       <c r="G45" s="11" t="s">
         <v>143</v>
       </c>
@@ -13644,27 +13584,27 @@
         <v>23</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="J45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K45" s="228"/>
-      <c r="L45" s="228"/>
-      <c r="M45" s="231"/>
-      <c r="P45" s="233"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="233"/>
-      <c r="S45" s="235"/>
-      <c r="T45" s="282"/>
-      <c r="U45" s="282"/>
-      <c r="V45" s="233"/>
-      <c r="W45" s="236"/>
-    </row>
-    <row r="46" spans="4:23" ht="39.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="279"/>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="148"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="152"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="129"/>
+      <c r="T45" s="134"/>
+      <c r="U45" s="134"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="131"/>
+    </row>
+    <row r="46" spans="4:23" ht="39.700000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="156"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
       <c r="G46" s="11" t="s">
         <v>144</v>
       </c>
@@ -13672,27 +13612,27 @@
         <v>24</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="J46" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="228"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="231"/>
-      <c r="P46" s="233"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="233"/>
-      <c r="S46" s="235"/>
-      <c r="T46" s="282"/>
-      <c r="U46" s="282"/>
-      <c r="V46" s="233"/>
-      <c r="W46" s="236"/>
-    </row>
-    <row r="47" spans="4:23" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="279"/>
-      <c r="E47" s="253"/>
-      <c r="F47" s="253"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="148"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="152"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="129"/>
+      <c r="T46" s="134"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="131"/>
+    </row>
+    <row r="47" spans="4:23" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="156"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
       <c r="G47" s="11" t="s">
         <v>145</v>
       </c>
@@ -13700,27 +13640,27 @@
         <v>29</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="228"/>
-      <c r="L47" s="228"/>
-      <c r="M47" s="231"/>
-      <c r="P47" s="233"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="233"/>
-      <c r="S47" s="235"/>
-      <c r="T47" s="282"/>
-      <c r="U47" s="282"/>
-      <c r="V47" s="233"/>
-      <c r="W47" s="236"/>
-    </row>
-    <row r="48" spans="4:23" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="279"/>
-      <c r="E48" s="253"/>
-      <c r="F48" s="253"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="148"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="152"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="134"/>
+      <c r="U47" s="134"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="131"/>
+    </row>
+    <row r="48" spans="4:23" ht="149" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D48" s="156"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
       <c r="G48" s="11" t="s">
         <v>146</v>
       </c>
@@ -13728,27 +13668,27 @@
         <v>32</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="228"/>
-      <c r="L48" s="228"/>
-      <c r="M48" s="231"/>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="235"/>
-      <c r="T48" s="282"/>
-      <c r="U48" s="282"/>
-      <c r="V48" s="233"/>
-      <c r="W48" s="236"/>
-    </row>
-    <row r="49" spans="4:23" ht="98.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="280"/>
-      <c r="E49" s="226"/>
-      <c r="F49" s="226"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="148"/>
+      <c r="P48" s="127"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="127"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="134"/>
+      <c r="U48" s="134"/>
+      <c r="V48" s="127"/>
+      <c r="W48" s="131"/>
+    </row>
+    <row r="49" spans="4:23" ht="98.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="157"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
       <c r="G49" s="12" t="s">
         <v>147</v>
       </c>
@@ -13756,34 +13696,34 @@
         <v>50</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J49" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="K49" s="229"/>
-      <c r="L49" s="229"/>
-      <c r="M49" s="232"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="233"/>
-      <c r="S49" s="235"/>
-      <c r="T49" s="282"/>
-      <c r="U49" s="282"/>
-      <c r="V49" s="233"/>
-      <c r="W49" s="236"/>
-    </row>
-    <row r="50" spans="4:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="262"/>
-      <c r="E50" s="263"/>
-      <c r="F50" s="263"/>
-      <c r="G50" s="263"/>
-      <c r="H50" s="263"/>
-      <c r="I50" s="263"/>
-      <c r="J50" s="263"/>
-      <c r="K50" s="263"/>
-      <c r="L50" s="263"/>
-      <c r="M50" s="264"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="149"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="152"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="134"/>
+      <c r="U49" s="134"/>
+      <c r="V49" s="127"/>
+      <c r="W49" s="131"/>
+    </row>
+    <row r="50" spans="4:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="137"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="139"/>
       <c r="P50" s="119"/>
       <c r="Q50" s="20"/>
       <c r="R50" s="119"/>
@@ -13793,14 +13733,14 @@
       <c r="V50" s="119"/>
       <c r="W50" s="124"/>
     </row>
-    <row r="51" spans="4:23" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="223">
+    <row r="51" spans="4:23" ht="149" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="140">
         <v>7</v>
       </c>
-      <c r="E51" s="285" t="s">
+      <c r="E51" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="286"/>
+      <c r="F51" s="143"/>
       <c r="G51" s="108" t="s">
         <v>47</v>
       </c>
@@ -13808,43 +13748,43 @@
         <v>48</v>
       </c>
       <c r="I51" s="107" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="J51" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="K51" s="228" t="s">
+      <c r="K51" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="L51" s="228" t="s">
+      <c r="L51" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="M51" s="231" t="s">
-        <v>445</v>
-      </c>
-      <c r="P51" s="233">
+      <c r="M51" s="148" t="s">
+        <v>402</v>
+      </c>
+      <c r="P51" s="127">
         <v>0</v>
       </c>
-      <c r="Q51" s="234" t="s">
+      <c r="Q51" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="R51" s="233">
+      <c r="R51" s="127">
         <v>0</v>
       </c>
-      <c r="S51" s="235" t="s">
+      <c r="S51" s="129" t="s">
         <v>386</v>
       </c>
-      <c r="V51" s="236">
+      <c r="V51" s="131">
         <v>1</v>
       </c>
-      <c r="W51" s="236" t="s">
+      <c r="W51" s="131" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="52" spans="4:23" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="223"/>
-      <c r="E52" s="285"/>
-      <c r="F52" s="286"/>
+    <row r="52" spans="4:23" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="140"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="143"/>
       <c r="G52" s="11" t="s">
         <v>148</v>
       </c>
@@ -13852,25 +13792,25 @@
         <v>49</v>
       </c>
       <c r="I52" s="91" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="K52" s="228"/>
-      <c r="L52" s="228"/>
-      <c r="M52" s="231"/>
-      <c r="P52" s="233"/>
-      <c r="Q52" s="234"/>
-      <c r="R52" s="233"/>
-      <c r="S52" s="235"/>
-      <c r="V52" s="236"/>
-      <c r="W52" s="236"/>
-    </row>
-    <row r="53" spans="4:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D53" s="223"/>
-      <c r="E53" s="285"/>
-      <c r="F53" s="286"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="148"/>
+      <c r="P52" s="127"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="127"/>
+      <c r="S52" s="129"/>
+      <c r="V52" s="131"/>
+      <c r="W52" s="131"/>
+    </row>
+    <row r="53" spans="4:23" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="D53" s="140"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="143"/>
       <c r="G53" s="11" t="s">
         <v>149</v>
       </c>
@@ -13878,25 +13818,25 @@
         <v>56</v>
       </c>
       <c r="I53" s="91" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K53" s="228"/>
-      <c r="L53" s="228"/>
-      <c r="M53" s="231"/>
-      <c r="P53" s="233"/>
-      <c r="Q53" s="234"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="235"/>
-      <c r="V53" s="236"/>
-      <c r="W53" s="236"/>
-    </row>
-    <row r="54" spans="4:23" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="223"/>
-      <c r="E54" s="285"/>
-      <c r="F54" s="286"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="148"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="129"/>
+      <c r="V53" s="131"/>
+      <c r="W53" s="131"/>
+    </row>
+    <row r="54" spans="4:23" ht="110.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="140"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="143"/>
       <c r="G54" s="11" t="s">
         <v>150</v>
       </c>
@@ -13904,25 +13844,25 @@
         <v>58</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K54" s="228"/>
-      <c r="L54" s="228"/>
-      <c r="M54" s="231"/>
-      <c r="P54" s="233"/>
-      <c r="Q54" s="234"/>
-      <c r="R54" s="233"/>
-      <c r="S54" s="235"/>
-      <c r="V54" s="236"/>
-      <c r="W54" s="236"/>
-    </row>
-    <row r="55" spans="4:23" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="274"/>
-      <c r="E55" s="287"/>
-      <c r="F55" s="288"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="148"/>
+      <c r="P54" s="127"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="127"/>
+      <c r="S54" s="129"/>
+      <c r="V54" s="131"/>
+      <c r="W54" s="131"/>
+    </row>
+    <row r="55" spans="4:23" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="141"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="145"/>
       <c r="G55" s="12" t="s">
         <v>151</v>
       </c>
@@ -13930,118 +13870,85 @@
         <v>59</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K55" s="229"/>
-      <c r="L55" s="229"/>
-      <c r="M55" s="232"/>
-      <c r="P55" s="270"/>
-      <c r="Q55" s="271"/>
-      <c r="R55" s="270"/>
-      <c r="S55" s="272"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="149"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="130"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="269"/>
-      <c r="W55" s="269"/>
-    </row>
-    <row r="56" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="V55" s="132"/>
+      <c r="W55" s="132"/>
+    </row>
+    <row r="56" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:23" x14ac:dyDescent="0.35">
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G68" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="Q51:Q55"/>
-    <mergeCell ref="R51:R55"/>
-    <mergeCell ref="S51:S55"/>
-    <mergeCell ref="V51:V55"/>
-    <mergeCell ref="W51:W55"/>
-    <mergeCell ref="U43:U49"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="W43:W49"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:F55"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="M51:M55"/>
-    <mergeCell ref="P51:P55"/>
-    <mergeCell ref="M43:M49"/>
-    <mergeCell ref="P43:P49"/>
-    <mergeCell ref="Q43:Q49"/>
-    <mergeCell ref="R43:R49"/>
-    <mergeCell ref="S43:S49"/>
-    <mergeCell ref="T43:T49"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E43:F49"/>
-    <mergeCell ref="K43:K49"/>
-    <mergeCell ref="L43:L49"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="P29:P41"/>
-    <mergeCell ref="Q29:Q41"/>
-    <mergeCell ref="R29:R41"/>
-    <mergeCell ref="S29:S41"/>
-    <mergeCell ref="V29:V41"/>
-    <mergeCell ref="W29:W41"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:D39"/>
-    <mergeCell ref="E29:E39"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="K29:K39"/>
-    <mergeCell ref="L29:L39"/>
-    <mergeCell ref="M29:M39"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:F18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="R25:R27"/>
     <mergeCell ref="S20:S23"/>
     <mergeCell ref="V20:V23"/>
@@ -14058,27 +13965,60 @@
     <mergeCell ref="M20:M23"/>
     <mergeCell ref="P20:P23"/>
     <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:F23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:F18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:D39"/>
+    <mergeCell ref="E29:E39"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="K29:K39"/>
+    <mergeCell ref="L29:L39"/>
+    <mergeCell ref="M29:M39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="V29:V41"/>
+    <mergeCell ref="W29:W41"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="P29:P41"/>
+    <mergeCell ref="Q29:Q41"/>
+    <mergeCell ref="R29:R41"/>
+    <mergeCell ref="S29:S41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E43:F49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="L43:L49"/>
+    <mergeCell ref="U43:U49"/>
+    <mergeCell ref="P51:P55"/>
+    <mergeCell ref="M43:M49"/>
+    <mergeCell ref="P43:P49"/>
+    <mergeCell ref="Q43:Q49"/>
+    <mergeCell ref="R43:R49"/>
+    <mergeCell ref="Q51:Q55"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:F55"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="M51:M55"/>
+    <mergeCell ref="R51:R55"/>
+    <mergeCell ref="S51:S55"/>
+    <mergeCell ref="V51:V55"/>
+    <mergeCell ref="W51:W55"/>
+    <mergeCell ref="V43:V49"/>
+    <mergeCell ref="W43:W49"/>
+    <mergeCell ref="S43:S49"/>
+    <mergeCell ref="T43:T49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
